--- a/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
@@ -789,10 +789,10 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -1309,10 +1309,10 @@
         <v>4.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1321,10 +1321,10 @@
         <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1655,13 +1655,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J7" t="n">
         <v>5.5</v>
@@ -1673,16 +1673,16 @@
         <v>2.63</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
         <v>2.6</v>
@@ -1703,7 +1703,7 @@
         <v>1.57</v>
       </c>
       <c r="W7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X7" t="n">
         <v>21</v>
@@ -1727,7 +1727,7 @@
         <v>6.5</v>
       </c>
       <c r="AE7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF7" t="n">
         <v>81</v>
@@ -1737,7 +1737,7 @@
         <v>5</v>
       </c>
       <c r="AI7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.5</v>
@@ -1847,7 +1847,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L8" t="n">
         <v>4.33</v>
@@ -1859,16 +1859,16 @@
         <v>7</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
         <v>1.57</v>
@@ -1982,7 +1982,7 @@
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -2029,7 +2029,7 @@
         <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L9" t="n">
         <v>4.5</v>
@@ -2206,10 +2206,10 @@
         <v>4.1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
@@ -2221,10 +2221,10 @@
         <v>6</v>
       </c>
       <c r="O10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q10" t="n">
         <v>2.88</v>
@@ -2377,22 +2377,22 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L11" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="M11" t="n">
         <v>1.03</v>
@@ -2413,16 +2413,16 @@
         <v>2.38</v>
       </c>
       <c r="S11" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W11" t="n">
         <v>13</v>
@@ -2455,7 +2455,7 @@
         <v>34</v>
       </c>
       <c r="AG11" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH11" t="n">
         <v>11</v>
@@ -2470,7 +2470,7 @@
         <v>21</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM11" t="n">
         <v>21</v>
@@ -2485,7 +2485,7 @@
         <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2494,7 +2494,7 @@
         <v>101</v>
       </c>
       <c r="AT11" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU11" t="n">
         <v>7</v>
@@ -2509,7 +2509,7 @@
         <v>12</v>
       </c>
       <c r="AY11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ11" t="n">
         <v>41</v>
@@ -2771,10 +2771,10 @@
         <v>4</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -2923,13 +2923,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J14" t="n">
         <v>4</v>
@@ -2938,7 +2938,7 @@
         <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2947,10 +2947,10 @@
         <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P14" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q14" t="n">
         <v>1.7</v>
@@ -3022,7 +3022,7 @@
         <v>23</v>
       </c>
       <c r="AN14" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AO14" t="n">
         <v>19</v>
@@ -3031,7 +3031,7 @@
         <v>26</v>
       </c>
       <c r="AQ14" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR14" t="n">
         <v>81</v>
@@ -3104,54 +3104,150 @@
           <t>Aurora</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="inlineStr"/>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr"/>
-      <c r="W15" t="inlineStr"/>
-      <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
-      <c r="AR15" t="inlineStr"/>
-      <c r="AS15" t="inlineStr"/>
-      <c r="AT15" t="inlineStr"/>
-      <c r="AU15" t="inlineStr"/>
-      <c r="AV15" t="inlineStr"/>
-      <c r="AW15" t="inlineStr"/>
-      <c r="AX15" t="inlineStr"/>
-      <c r="AY15" t="inlineStr"/>
-      <c r="AZ15" t="inlineStr"/>
-      <c r="BA15" t="inlineStr"/>
-      <c r="BB15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I15" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N15" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O15" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T15" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U15" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="V15" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="W15" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="X15" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>27</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>35</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>450</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>24</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>80</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>45</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>75</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>250</v>
+      </c>
       <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="inlineStr"/>
     </row>
@@ -3351,40 +3447,40 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H18" t="n">
         <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K18" t="n">
         <v>2.2</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="R18" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="S18" t="n">
         <v>1.4</v>
@@ -3393,16 +3489,16 @@
         <v>2.75</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
@@ -3414,10 +3510,10 @@
         <v>15</v>
       </c>
       <c r="AB18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD18" t="n">
         <v>7</v>
@@ -3429,7 +3525,7 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH18" t="n">
         <v>12</v>
@@ -3438,7 +3534,7 @@
         <v>23</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK18" t="n">
         <v>51</v>
@@ -3450,7 +3546,7 @@
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO18" t="n">
         <v>9</v>
@@ -3486,10 +3582,10 @@
         <v>34</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB18" t="n">
         <v>251</v>
@@ -3709,13 +3805,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="H20" t="n">
         <v>3.4</v>
       </c>
       <c r="I20" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J20" t="n">
         <v>2.6</v>
@@ -3727,16 +3823,16 @@
         <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
         <v>2.2</v>
@@ -3760,7 +3856,7 @@
         <v>6.5</v>
       </c>
       <c r="X20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
@@ -3787,7 +3883,7 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH20" t="n">
         <v>11</v>
@@ -3799,7 +3895,7 @@
         <v>15</v>
       </c>
       <c r="AK20" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="n">
         <v>41</v>
@@ -3811,13 +3907,13 @@
         <v>3.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
       </c>
       <c r="AQ20" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR20" t="n">
         <v>51</v>
@@ -3838,7 +3934,7 @@
         <v>6</v>
       </c>
       <c r="AX20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>34</v>
@@ -3853,7 +3949,7 @@
         <v>301</v>
       </c>
       <c r="BC20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -3894,7 +3990,7 @@
         <v>2.1</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
         <v>3.2</v>
@@ -3909,13 +4005,13 @@
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -3927,10 +4023,10 @@
         <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U21" t="n">
         <v>1.91</v>
@@ -3939,7 +4035,7 @@
         <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X21" t="n">
         <v>9.5</v>
@@ -4008,13 +4104,13 @@
         <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU21" t="n">
         <v>8.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
         <v>5.5</v>
@@ -4091,13 +4187,13 @@
         <v>3.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
         <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -4437,7 +4533,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="H24" t="n">
         <v>3.6</v>
@@ -4455,10 +4551,10 @@
         <v>5.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -4619,13 +4715,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="H25" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J25" t="n">
         <v>2.2</v>
@@ -4634,43 +4730,43 @@
         <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S25" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V25" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W25" t="n">
         <v>6</v>
       </c>
       <c r="X25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
@@ -4679,7 +4775,7 @@
         <v>11</v>
       </c>
       <c r="AA25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
         <v>29</v>
@@ -4688,7 +4784,7 @@
         <v>9.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE25" t="n">
         <v>21</v>
@@ -4712,7 +4808,7 @@
         <v>67</v>
       </c>
       <c r="AL25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM25" t="n">
         <v>51</v>
@@ -4736,10 +4832,10 @@
         <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU25" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV25" t="n">
         <v>67</v>
@@ -4801,7 +4897,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="H26" t="n">
         <v>4.33</v>
@@ -4983,13 +5079,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.41</v>
+        <v>1.45</v>
       </c>
       <c r="H27" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J27" t="n">
         <v>1.95</v>
@@ -5031,7 +5127,7 @@
         <v>1.91</v>
       </c>
       <c r="W27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
         <v>7.5</v>
@@ -5118,7 +5214,7 @@
         <v>34</v>
       </c>
       <c r="AZ27" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA27" t="n">
         <v>126</v>
@@ -5165,7 +5261,7 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="H28" t="n">
         <v>4.2</v>
@@ -5189,16 +5285,16 @@
         <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S28" t="n">
         <v>1.3</v>
@@ -5525,40 +5621,40 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H30" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I30" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.12</v>
+        <v>1.98</v>
       </c>
       <c r="K30" t="n">
-        <v>2.07</v>
+        <v>2.18</v>
       </c>
       <c r="L30" t="n">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="M30" t="n">
         <v>1.01</v>
       </c>
       <c r="N30" t="n">
-        <v>9.15</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P30" t="n">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="R30" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="S30" t="n">
         <v>1.42</v>
@@ -5567,97 +5663,97 @@
         <v>2.47</v>
       </c>
       <c r="U30" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="V30" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="W30" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="X30" t="n">
-        <v>6.8</v>
+        <v>6.4</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Z30" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="AA30" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AB30" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AC30" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD30" t="n">
         <v>7.1</v>
       </c>
       <c r="AE30" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AF30" t="n">
+        <v>90</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH30" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ30" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK30" t="n">
+        <v>200</v>
+      </c>
+      <c r="AL30" t="n">
         <v>80</v>
       </c>
-      <c r="AG30" t="n">
-        <v>700</v>
-      </c>
-      <c r="AH30" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AI30" t="n">
-        <v>40</v>
-      </c>
-      <c r="AJ30" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK30" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL30" t="n">
+      <c r="AM30" t="n">
         <v>70</v>
-      </c>
-      <c r="AM30" t="n">
-        <v>60</v>
       </c>
       <c r="AN30" t="n">
         <v>3.25</v>
       </c>
       <c r="AO30" t="n">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="AP30" t="n">
-        <v>18</v>
+        <v>15.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AR30" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS30" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT30" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU30" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AV30" t="n">
         <v>60</v>
       </c>
-      <c r="AS30" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT30" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AU30" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AV30" t="n">
-        <v>75</v>
-      </c>
       <c r="AW30" t="n">
-        <v>7.4</v>
+        <v>8.25</v>
       </c>
       <c r="AX30" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AY30" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AZ30" t="n">
         <v>250</v>
@@ -5666,7 +5762,7 @@
         <v>250</v>
       </c>
       <c r="BB30" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="BC30" t="inlineStr"/>
       <c r="BD30" t="inlineStr"/>
@@ -5721,10 +5817,10 @@
         <v>5.8</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>9.800000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.29</v>
@@ -6063,55 +6159,55 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="I33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K33" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L33" t="n">
         <v>3.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R33" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S33" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="T33" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="U33" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V33" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W33" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X33" t="n">
         <v>15</v>
@@ -6120,34 +6216,34 @@
         <v>13</v>
       </c>
       <c r="Z33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA33" t="n">
         <v>34</v>
       </c>
-      <c r="AA33" t="n">
-        <v>29</v>
-      </c>
       <c r="AB33" t="n">
         <v>41</v>
       </c>
       <c r="AC33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD33" t="n">
         <v>6</v>
       </c>
       <c r="AE33" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG33" t="n">
         <v>351</v>
       </c>
       <c r="AH33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AI33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ33" t="n">
         <v>10</v>
@@ -6156,16 +6252,16 @@
         <v>21</v>
       </c>
       <c r="AL33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AM33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN33" t="n">
         <v>5</v>
       </c>
       <c r="AO33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP33" t="n">
         <v>34</v>
@@ -6174,22 +6270,22 @@
         <v>67</v>
       </c>
       <c r="AR33" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AS33" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="AU33" t="n">
         <v>9</v>
       </c>
       <c r="AV33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW33" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AX33" t="n">
         <v>13</v>
@@ -6204,7 +6300,7 @@
         <v>81</v>
       </c>
       <c r="BB33" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC33" t="inlineStr"/>
       <c r="BD33" t="inlineStr"/>
@@ -6241,13 +6337,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
         <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J34" t="n">
         <v>2.75</v>
@@ -6256,7 +6352,7 @@
         <v>2.5</v>
       </c>
       <c r="L34" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M34" t="n">
         <v>1.02</v>
@@ -6271,7 +6367,7 @@
         <v>6</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R34" t="n">
         <v>2.6</v>
@@ -6298,7 +6394,7 @@
         <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA34" t="n">
         <v>15</v>
@@ -6343,7 +6439,7 @@
         <v>4.75</v>
       </c>
       <c r="AO34" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP34" t="n">
         <v>17</v>
@@ -6465,16 +6561,16 @@
         <v>3.75</v>
       </c>
       <c r="U35" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V35" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W35" t="n">
         <v>10</v>
       </c>
       <c r="X35" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y35" t="n">
         <v>8.5</v>
@@ -6564,7 +6660,7 @@
         <v>81</v>
       </c>
       <c r="BB35" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC35" t="n">
         <v>351</v>
@@ -6626,19 +6722,19 @@
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R36" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S36" t="n">
         <v>1.22</v>
@@ -6987,10 +7083,10 @@
         <v>3.75</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O38" t="n">
         <v>1.11</v>
@@ -7354,7 +7450,7 @@
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O40" t="n">
         <v>1.18</v>
@@ -7363,10 +7459,10 @@
         <v>4.5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R40" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S40" t="n">
         <v>1.3</v>
@@ -7536,19 +7632,19 @@
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O41" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P41" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R41" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S41" t="n">
         <v>1.25</v>
@@ -7697,22 +7793,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H42" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I42" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J42" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K42" t="n">
         <v>2.38</v>
       </c>
       <c r="L42" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
@@ -7727,10 +7823,10 @@
         <v>4.33</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R42" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S42" t="n">
         <v>1.3</v>
@@ -7745,7 +7841,7 @@
         <v>2.1</v>
       </c>
       <c r="W42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X42" t="n">
         <v>9</v>
@@ -7754,7 +7850,7 @@
         <v>8.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA42" t="n">
         <v>13</v>
@@ -7766,7 +7862,7 @@
         <v>15</v>
       </c>
       <c r="AD42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE42" t="n">
         <v>15</v>
@@ -7781,13 +7877,13 @@
         <v>15</v>
       </c>
       <c r="AI42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ42" t="n">
         <v>15</v>
       </c>
       <c r="AK42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL42" t="n">
         <v>34</v>
@@ -7796,7 +7892,7 @@
         <v>34</v>
       </c>
       <c r="AN42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO42" t="n">
         <v>8.5</v>
@@ -7829,10 +7925,10 @@
         <v>23</v>
       </c>
       <c r="AY42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA42" t="n">
         <v>81</v>
@@ -7909,10 +8005,10 @@
         <v>4.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R43" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S43" t="n">
         <v>1.3</v>
@@ -8243,7 +8339,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>3.9</v>
@@ -8258,7 +8354,7 @@
         <v>2.2</v>
       </c>
       <c r="L45" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
         <v>1.06</v>
@@ -8267,16 +8363,16 @@
         <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P45" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R45" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S45" t="n">
         <v>1.4</v>
@@ -8285,16 +8381,16 @@
         <v>2.75</v>
       </c>
       <c r="U45" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W45" t="n">
         <v>6.5</v>
       </c>
       <c r="X45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y45" t="n">
         <v>8.5</v>
@@ -8318,7 +8414,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG45" t="n">
         <v>351</v>
@@ -8366,7 +8462,7 @@
         <v>9</v>
       </c>
       <c r="AV45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW45" t="n">
         <v>7</v>
@@ -8375,13 +8471,13 @@
         <v>29</v>
       </c>
       <c r="AY45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ45" t="n">
         <v>101</v>
       </c>
       <c r="BA45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB45" t="n">
         <v>301</v>
@@ -8970,7 +9066,7 @@
         <v>3.4</v>
       </c>
       <c r="J49" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K49" t="n">
         <v>2.05</v>
@@ -8979,13 +9075,13 @@
         <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N49" t="n">
         <v>10</v>
       </c>
       <c r="O49" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -9161,13 +9257,13 @@
         <v>3.6</v>
       </c>
       <c r="M50" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N50" t="n">
         <v>13</v>
       </c>
       <c r="O50" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -9407,7 +9503,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="H52" t="n">
         <v>3.8</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
@@ -959,10 +959,10 @@
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="R3" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -971,10 +971,10 @@
         <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
@@ -1007,7 +1007,7 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1238,7 +1238,7 @@
         <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
         <v>34</v>
@@ -1491,10 +1491,10 @@
         <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1521,7 +1521,7 @@
         <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X6" t="n">
         <v>13</v>
@@ -1554,7 +1554,7 @@
         <v>501</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AI6" t="n">
         <v>10</v>
@@ -1673,10 +1673,10 @@
         <v>2.63</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -2398,7 +2398,7 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
@@ -2434,7 +2434,7 @@
         <v>11</v>
       </c>
       <c r="Z11" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA11" t="n">
         <v>21</v>
@@ -2464,7 +2464,7 @@
         <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
@@ -2476,7 +2476,7 @@
         <v>21</v>
       </c>
       <c r="AN11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO11" t="n">
         <v>15</v>
@@ -2947,10 +2947,10 @@
         <v>13</v>
       </c>
       <c r="O14" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q14" t="n">
         <v>1.7</v>
@@ -3105,148 +3105,148 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="V15" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="W15" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AB15" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>13.5</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>450</v>
+        <v>251</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>8.75</v>
+        <v>9.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AM15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
         <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
-        <v>80</v>
+        <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>120</v>
+        <v>81</v>
       </c>
       <c r="AS15" t="n">
-        <v>300</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>6.9</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="AX15" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ15" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="BB15" t="n">
-        <v>250</v>
+        <v>151</v>
       </c>
       <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="inlineStr"/>
@@ -3282,54 +3282,150 @@
           <t>Universitario de Vinto</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr"/>
-      <c r="W16" t="inlineStr"/>
-      <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
-      <c r="AR16" t="inlineStr"/>
-      <c r="AS16" t="inlineStr"/>
-      <c r="AT16" t="inlineStr"/>
-      <c r="AU16" t="inlineStr"/>
-      <c r="AV16" t="inlineStr"/>
-      <c r="AW16" t="inlineStr"/>
-      <c r="AX16" t="inlineStr"/>
-      <c r="AY16" t="inlineStr"/>
-      <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+      <c r="I16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3</v>
+      </c>
+      <c r="L16" t="n">
+        <v>11</v>
+      </c>
+      <c r="M16" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N16" t="n">
+        <v>19</v>
+      </c>
+      <c r="O16" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R16" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S16" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T16" t="n">
+        <v>4</v>
+      </c>
+      <c r="U16" t="n">
+        <v>2</v>
+      </c>
+      <c r="V16" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="W16" t="n">
+        <v>10</v>
+      </c>
+      <c r="X16" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>201</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>5</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>4</v>
+      </c>
+      <c r="AU16" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ16" t="n">
+        <v>301</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>251</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>351</v>
+      </c>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
     </row>
@@ -3364,54 +3460,150 @@
           <t>Oriente Petrolero</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr"/>
-      <c r="W17" t="inlineStr"/>
-      <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
-      <c r="AR17" t="inlineStr"/>
-      <c r="AS17" t="inlineStr"/>
-      <c r="AT17" t="inlineStr"/>
-      <c r="AU17" t="inlineStr"/>
-      <c r="AV17" t="inlineStr"/>
-      <c r="AW17" t="inlineStr"/>
-      <c r="AX17" t="inlineStr"/>
-      <c r="AY17" t="inlineStr"/>
-      <c r="AZ17" t="inlineStr"/>
-      <c r="BA17" t="inlineStr"/>
-      <c r="BB17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="H17" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I17" t="n">
+        <v>7</v>
+      </c>
+      <c r="J17" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="L17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N17" t="n">
+        <v>17</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R17" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="V17" t="n">
+        <v>2</v>
+      </c>
+      <c r="W17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="X17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>201</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>126</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>201</v>
+      </c>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
     </row>
@@ -3447,61 +3639,61 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J18" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P18" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.93</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W18" t="n">
         <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
         <v>13</v>
@@ -3513,10 +3705,10 @@
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3528,13 +3720,13 @@
         <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
         <v>23</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
         <v>51</v>
@@ -3549,13 +3741,13 @@
         <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR18" t="n">
         <v>51</v>
@@ -3564,16 +3756,16 @@
         <v>151</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV18" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX18" t="n">
         <v>26</v>
@@ -3588,7 +3780,7 @@
         <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3814,7 +4006,7 @@
         <v>4.33</v>
       </c>
       <c r="J20" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
@@ -3871,7 +4063,7 @@
         <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
         <v>6.5</v>
@@ -3883,10 +4075,10 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
         <v>21</v>
@@ -3916,7 +4108,7 @@
         <v>41</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS20" t="n">
         <v>201</v>
@@ -4906,10 +5098,10 @@
         <v>4.75</v>
       </c>
       <c r="J26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K26" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L26" t="n">
         <v>4.75</v>
@@ -4921,16 +5113,16 @@
         <v>17</v>
       </c>
       <c r="O26" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P26" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R26" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S26" t="n">
         <v>1.29</v>
@@ -4945,7 +5137,7 @@
         <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X26" t="n">
         <v>9</v>
@@ -5023,7 +5215,7 @@
         <v>41</v>
       </c>
       <c r="AW26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
         <v>23</v>
@@ -5506,7 +5698,7 @@
         <v>19</v>
       </c>
       <c r="AB29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC29" t="n">
         <v>13</v>
@@ -5539,7 +5731,7 @@
         <v>19</v>
       </c>
       <c r="AM29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN29" t="n">
         <v>4.75</v>
@@ -5638,12 +5830,8 @@
       <c r="L30" t="n">
         <v>6.4</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N30" t="n">
-        <v>9</v>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
         <v>1.29</v>
       </c>
@@ -5808,31 +5996,31 @@
         <v>5.8</v>
       </c>
       <c r="J31" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="K31" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L31" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S31" t="n">
         <v>1.42</v>
@@ -5841,16 +6029,16 @@
         <v>2.47</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="V31" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="W31" t="n">
-        <v>6.1</v>
+        <v>5.9</v>
       </c>
       <c r="X31" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="Y31" t="n">
         <v>8.25</v>
@@ -5859,19 +6047,19 @@
         <v>10.75</v>
       </c>
       <c r="AA31" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD31" t="n">
         <v>7.3</v>
       </c>
       <c r="AE31" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AF31" t="n">
         <v>100</v>
@@ -5886,58 +6074,58 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK31" t="n">
         <v>120</v>
       </c>
       <c r="AL31" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM31" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AO31" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AP31" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS31" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.45</v>
+        <v>2.62</v>
       </c>
       <c r="AU31" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AV31" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AW31" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AX31" t="n">
         <v>35</v>
       </c>
       <c r="AY31" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AZ31" t="n">
+        <v>200</v>
+      </c>
+      <c r="BA31" t="n">
         <v>250</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>300</v>
       </c>
       <c r="BB31" t="n">
         <v>500</v>
@@ -6001,16 +6189,16 @@
         <v>8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R32" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S32" t="n">
         <v>1.5</v>
@@ -6159,61 +6347,61 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="I33" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J33" t="n">
         <v>4.33</v>
       </c>
       <c r="K33" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L33" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M33" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N33" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P33" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="R33" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="S33" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U33" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W33" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X33" t="n">
         <v>15</v>
       </c>
       <c r="Y33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z33" t="n">
         <v>41</v>
@@ -6222,19 +6410,19 @@
         <v>34</v>
       </c>
       <c r="AB33" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC33" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE33" t="n">
         <v>19</v>
       </c>
       <c r="AF33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG33" t="n">
         <v>351</v>
@@ -6246,10 +6434,10 @@
         <v>9.5</v>
       </c>
       <c r="AJ33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK33" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL33" t="n">
         <v>23</v>
@@ -6264,10 +6452,10 @@
         <v>21</v>
       </c>
       <c r="AP33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR33" t="n">
         <v>126</v>
@@ -6276,10 +6464,10 @@
         <v>351</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU33" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV33" t="n">
         <v>81</v>
@@ -6288,19 +6476,19 @@
         <v>4</v>
       </c>
       <c r="AX33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY33" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ33" t="n">
         <v>51</v>
       </c>
       <c r="BA33" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB33" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC33" t="inlineStr"/>
       <c r="BD33" t="inlineStr"/>
@@ -6519,13 +6707,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H35" t="n">
         <v>4.33</v>
       </c>
       <c r="I35" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
         <v>2.1</v>
@@ -6534,25 +6722,25 @@
         <v>2.5</v>
       </c>
       <c r="L35" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O35" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P35" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R35" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S35" t="n">
         <v>1.25</v>
@@ -6561,13 +6749,13 @@
         <v>3.75</v>
       </c>
       <c r="U35" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V35" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X35" t="n">
         <v>10</v>
@@ -6585,19 +6773,19 @@
         <v>19</v>
       </c>
       <c r="AC35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE35" t="n">
         <v>13</v>
       </c>
       <c r="AF35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG35" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH35" t="n">
         <v>19</v>
@@ -6612,10 +6800,10 @@
         <v>51</v>
       </c>
       <c r="AL35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN35" t="n">
         <v>4</v>
@@ -6648,22 +6836,22 @@
         <v>7</v>
       </c>
       <c r="AX35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY35" t="n">
         <v>23</v>
-      </c>
-      <c r="AY35" t="n">
-        <v>26</v>
       </c>
       <c r="AZ35" t="n">
         <v>67</v>
       </c>
       <c r="BA35" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB35" t="n">
         <v>126</v>
       </c>
       <c r="BC35" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD35" t="n">
         <v>151</v>
@@ -6722,19 +6910,19 @@
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O36" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P36" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R36" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S36" t="n">
         <v>1.22</v>
@@ -6752,10 +6940,10 @@
         <v>11</v>
       </c>
       <c r="X36" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z36" t="n">
         <v>12</v>
@@ -6776,7 +6964,7 @@
         <v>13</v>
       </c>
       <c r="AF36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG36" t="n">
         <v>101</v>
@@ -6901,22 +7089,22 @@
         <v>4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O37" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P37" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R37" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S37" t="n">
         <v>1.3</v>
@@ -6964,7 +7152,7 @@
         <v>126</v>
       </c>
       <c r="AH37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI37" t="n">
         <v>21</v>
@@ -6982,7 +7170,7 @@
         <v>29</v>
       </c>
       <c r="AN37" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO37" t="n">
         <v>10</v>
@@ -7009,7 +7197,7 @@
         <v>41</v>
       </c>
       <c r="AW37" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX37" t="n">
         <v>19</v>
@@ -7068,10 +7256,10 @@
         <v>1.8</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J38" t="n">
         <v>2.3</v>
@@ -7083,10 +7271,10 @@
         <v>3.75</v>
       </c>
       <c r="M38" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N38" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O38" t="n">
         <v>1.11</v>
@@ -7146,7 +7334,7 @@
         <v>81</v>
       </c>
       <c r="AH38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI38" t="n">
         <v>26</v>
@@ -7188,16 +7376,16 @@
         <v>7</v>
       </c>
       <c r="AV38" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AW38" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ38" t="n">
         <v>51</v>
@@ -7206,10 +7394,10 @@
         <v>51</v>
       </c>
       <c r="BB38" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC38" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BD38" t="n">
         <v>151</v>
@@ -7256,7 +7444,7 @@
         <v>2.15</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
         <v>2.38</v>
@@ -7385,7 +7573,7 @@
         <v>34</v>
       </c>
       <c r="BA39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB39" t="n">
         <v>101</v>
@@ -7450,7 +7638,7 @@
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O40" t="n">
         <v>1.18</v>
@@ -7483,7 +7671,7 @@
         <v>15</v>
       </c>
       <c r="Y40" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z40" t="n">
         <v>23</v>
@@ -7492,7 +7680,7 @@
         <v>17</v>
       </c>
       <c r="AB40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC40" t="n">
         <v>17</v>
@@ -7501,16 +7689,16 @@
         <v>7.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG40" t="n">
         <v>126</v>
       </c>
       <c r="AH40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI40" t="n">
         <v>15</v>
@@ -7620,19 +7808,19 @@
         <v>3.6</v>
       </c>
       <c r="J41" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K41" t="n">
         <v>2.5</v>
       </c>
       <c r="L41" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O41" t="n">
         <v>1.14</v>
@@ -7653,10 +7841,10 @@
         <v>3.75</v>
       </c>
       <c r="U41" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V41" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W41" t="n">
         <v>12</v>
@@ -7680,10 +7868,10 @@
         <v>21</v>
       </c>
       <c r="AD41" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF41" t="n">
         <v>34</v>
@@ -7713,13 +7901,13 @@
         <v>4.33</v>
       </c>
       <c r="AO41" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP41" t="n">
         <v>15</v>
       </c>
       <c r="AQ41" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR41" t="n">
         <v>41</v>
@@ -7829,10 +8017,10 @@
         <v>2.15</v>
       </c>
       <c r="S42" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T42" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U42" t="n">
         <v>1.67</v>
@@ -7859,7 +8047,7 @@
         <v>21</v>
       </c>
       <c r="AC42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD42" t="n">
         <v>7.5</v>
@@ -7910,10 +8098,10 @@
         <v>101</v>
       </c>
       <c r="AT42" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV42" t="n">
         <v>51</v>
@@ -7993,10 +8181,10 @@
         <v>4.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O43" t="n">
         <v>1.2</v>
@@ -8011,10 +8199,10 @@
         <v>2.15</v>
       </c>
       <c r="S43" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T43" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U43" t="n">
         <v>1.62</v>
@@ -8041,7 +8229,7 @@
         <v>21</v>
       </c>
       <c r="AC43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD43" t="n">
         <v>7.5</v>
@@ -8068,7 +8256,7 @@
         <v>41</v>
       </c>
       <c r="AL43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM43" t="n">
         <v>34</v>
@@ -8092,13 +8280,13 @@
         <v>101</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU43" t="n">
         <v>7.5</v>
       </c>
       <c r="AV43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW43" t="n">
         <v>6</v>
@@ -8157,22 +8345,22 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I44" t="n">
         <v>3</v>
       </c>
-      <c r="I44" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
         <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
@@ -8214,7 +8402,7 @@
         <v>10</v>
       </c>
       <c r="Z44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA44" t="n">
         <v>21</v>
@@ -8283,7 +8471,7 @@
         <v>51</v>
       </c>
       <c r="AW44" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX44" t="n">
         <v>17</v>
@@ -8521,109 +8709,109 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="H46" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I46" t="n">
         <v>2.22</v>
       </c>
       <c r="J46" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K46" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L46" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="M46" t="n">
         <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="O46" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="P46" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R46" t="n">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="S46" t="n">
-        <v>1.34</v>
+        <v>1.31</v>
       </c>
       <c r="T46" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="U46" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V46" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="W46" t="n">
         <v>12.5</v>
       </c>
       <c r="X46" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="Z46" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA46" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD46" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="AE46" t="n">
         <v>11.25</v>
       </c>
       <c r="AF46" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG46" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH46" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AI46" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ46" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK46" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL46" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM46" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AN46" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="AO46" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AP46" t="n">
         <v>19</v>
@@ -8635,10 +8823,10 @@
         <v>80</v>
       </c>
       <c r="AS46" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT46" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="AU46" t="n">
         <v>6.4</v>
@@ -8647,22 +8835,22 @@
         <v>45</v>
       </c>
       <c r="AW46" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="AX46" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AY46" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AZ46" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA46" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB46" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC46" t="inlineStr"/>
       <c r="BD46" t="inlineStr"/>
@@ -8877,13 +9065,13 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="H48" t="n">
         <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="J48" t="n">
         <v>3.05</v>
@@ -8892,7 +9080,7 @@
         <v>2.27</v>
       </c>
       <c r="L48" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
@@ -8916,7 +9104,7 @@
         <v>1.3</v>
       </c>
       <c r="T48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="U48" t="n">
         <v>1.47</v>
@@ -8925,16 +9113,16 @@
         <v>2.52</v>
       </c>
       <c r="W48" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="X48" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="Y48" t="n">
         <v>9.75</v>
       </c>
       <c r="Z48" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AA48" t="n">
         <v>18.5</v>
@@ -8949,7 +9137,7 @@
         <v>7.2</v>
       </c>
       <c r="AE48" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF48" t="n">
         <v>35</v>
@@ -8958,43 +9146,43 @@
         <v>175</v>
       </c>
       <c r="AH48" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AI48" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ48" t="n">
         <v>9.5</v>
       </c>
       <c r="AK48" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AL48" t="n">
         <v>17.5</v>
       </c>
       <c r="AM48" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN48" t="n">
-        <v>4.85</v>
+        <v>4.9</v>
       </c>
       <c r="AO48" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP48" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ48" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR48" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS48" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="AU48" t="n">
         <v>6.2</v>
@@ -9009,13 +9197,13 @@
         <v>12.5</v>
       </c>
       <c r="AY48" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AZ48" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA48" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB48" t="n">
         <v>150</v>
@@ -9518,7 +9706,7 @@
         <v>2.3</v>
       </c>
       <c r="L52" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M52" t="n">
         <v>1.04</v>
@@ -9539,10 +9727,10 @@
         <v>2.05</v>
       </c>
       <c r="S52" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T52" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U52" t="n">
         <v>1.8</v>
@@ -9569,7 +9757,7 @@
         <v>23</v>
       </c>
       <c r="AC52" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD52" t="n">
         <v>8</v>
@@ -9605,7 +9793,7 @@
         <v>3.6</v>
       </c>
       <c r="AO52" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP52" t="n">
         <v>19</v>
@@ -9620,7 +9808,7 @@
         <v>126</v>
       </c>
       <c r="AT52" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU52" t="n">
         <v>8</v>
@@ -9638,7 +9826,7 @@
         <v>34</v>
       </c>
       <c r="AZ52" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA52" t="n">
         <v>101</v>
@@ -9685,37 +9873,37 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I53" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="K53" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="L53" t="n">
         <v>5.4</v>
       </c>
       <c r="M53" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N53" t="n">
-        <v>7.15</v>
+        <v>7.25</v>
       </c>
       <c r="O53" t="n">
         <v>1.47</v>
       </c>
       <c r="P53" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q53" t="n">
         <v>2.32</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2.35</v>
       </c>
       <c r="R53" t="n">
         <v>1.47</v>
@@ -9742,35 +9930,35 @@
         <v>8.75</v>
       </c>
       <c r="Z53" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA53" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB53" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC53" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD53" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE53" t="n">
         <v>22</v>
       </c>
       <c r="AF53" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AI53" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AJ53" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AK53" t="n">
         <v>100</v>
@@ -9782,10 +9970,10 @@
         <v>90</v>
       </c>
       <c r="AN53" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO53" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AP53" t="n">
         <v>22</v>
@@ -9806,7 +9994,7 @@
         <v>8.5</v>
       </c>
       <c r="AV53" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW53" t="n">
         <v>6.4</v>
@@ -9815,7 +10003,7 @@
         <v>32</v>
       </c>
       <c r="AY53" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AZ53" t="n">
         <v>250</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
@@ -765,13 +765,13 @@
         <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N2" t="n">
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -947,22 +947,22 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
         <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="n">
         <v>1.36</v>
@@ -1117,7 +1117,7 @@
         <v>3</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
@@ -1129,16 +1129,16 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
@@ -1679,10 +1679,10 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
         <v>2.6</v>
@@ -1847,28 +1847,28 @@
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L8" t="n">
         <v>4.33</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P8" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
         <v>1.57</v>
@@ -1889,10 +1889,10 @@
         <v>9</v>
       </c>
       <c r="Y8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA8" t="n">
         <v>21</v>
@@ -1982,7 +1982,7 @@
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2227,10 +2227,10 @@
         <v>2.2</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S10" t="n">
         <v>1.67</v>
@@ -2398,7 +2398,7 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
@@ -3129,28 +3129,28 @@
         <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U15" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V15" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W15" t="n">
         <v>9</v>
@@ -3222,7 +3222,7 @@
         <v>201</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU15" t="n">
         <v>8</v>
@@ -3283,28 +3283,28 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="K16" t="n">
         <v>3</v>
       </c>
       <c r="L16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M16" t="n">
         <v>1.02</v>
       </c>
       <c r="N16" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O16" t="n">
         <v>1.11</v>
@@ -3337,16 +3337,16 @@
         <v>7</v>
       </c>
       <c r="Y16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA16" t="n">
         <v>11</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
         <v>19</v>
@@ -3355,25 +3355,25 @@
         <v>13</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF16" t="n">
         <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH16" t="n">
         <v>34</v>
       </c>
       <c r="AI16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AJ16" t="n">
         <v>34</v>
       </c>
       <c r="AK16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL16" t="n">
         <v>81</v>
@@ -3382,16 +3382,16 @@
         <v>67</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR16" t="n">
         <v>34</v>
@@ -3403,13 +3403,13 @@
         <v>4</v>
       </c>
       <c r="AU16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AX16" t="n">
         <v>51</v>
@@ -3418,13 +3418,13 @@
         <v>41</v>
       </c>
       <c r="AZ16" t="n">
+        <v>251</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BB16" t="n">
         <v>301</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>251</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>351</v>
       </c>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
@@ -3461,46 +3461,46 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="H17" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="J17" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="K17" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="L17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N17" t="n">
+        <v>21</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P17" t="n">
         <v>6.5</v>
       </c>
-      <c r="M17" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N17" t="n">
-        <v>17</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P17" t="n">
-        <v>5</v>
-      </c>
       <c r="Q17" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="R17" t="n">
-        <v>2.4</v>
+        <v>2.88</v>
       </c>
       <c r="S17" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="T17" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="U17" t="n">
         <v>1.73</v>
@@ -3509,76 +3509,76 @@
         <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA17" t="n">
         <v>10</v>
-      </c>
-      <c r="AA17" t="n">
-        <v>11</v>
       </c>
       <c r="AB17" t="n">
         <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH17" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AJ17" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AK17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL17" t="n">
         <v>51</v>
       </c>
       <c r="AM17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AP17" t="n">
         <v>15</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AS17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT17" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AU17" t="n">
         <v>8.5</v>
@@ -3587,16 +3587,16 @@
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY17" t="n">
         <v>34</v>
       </c>
       <c r="AZ17" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA17" t="n">
         <v>126</v>
@@ -3639,28 +3639,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K18" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L18" t="n">
         <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N18" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
         <v>1.3</v>
@@ -3669,10 +3669,10 @@
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R18" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3681,19 +3681,19 @@
         <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V18" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
         <v>6.5</v>
       </c>
       <c r="X18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z18" t="n">
         <v>13</v>
@@ -3705,10 +3705,10 @@
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3720,7 +3720,7 @@
         <v>351</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI18" t="n">
         <v>23</v>
@@ -3741,13 +3741,13 @@
         <v>3.6</v>
       </c>
       <c r="AO18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR18" t="n">
         <v>51</v>
@@ -3759,13 +3759,13 @@
         <v>2.63</v>
       </c>
       <c r="AU18" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV18" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX18" t="n">
         <v>26</v>
@@ -3780,7 +3780,7 @@
         <v>126</v>
       </c>
       <c r="BB18" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -4015,22 +4015,22 @@
         <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
         <v>1.44</v>
@@ -4203,16 +4203,16 @@
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S21" t="n">
         <v>1.44</v>
@@ -4361,10 +4361,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I22" t="n">
         <v>3</v>
@@ -4373,22 +4373,22 @@
         <v>3.2</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
         <v>2.25</v>
@@ -4397,19 +4397,19 @@
         <v>1.62</v>
       </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
         <v>11</v>
@@ -4427,7 +4427,7 @@
         <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
@@ -4439,7 +4439,7 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH22" t="n">
         <v>8.5</v>
@@ -4448,16 +4448,16 @@
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
         <v>26</v>
       </c>
       <c r="AM22" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN22" t="n">
         <v>4.33</v>
@@ -4472,19 +4472,19 @@
         <v>51</v>
       </c>
       <c r="AR22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS22" t="n">
         <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU22" t="n">
         <v>8.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW22" t="n">
         <v>4.75</v>
@@ -4502,7 +4502,7 @@
         <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4552,7 +4552,7 @@
         <v>2.8</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
         <v>2.1</v>
@@ -4573,10 +4573,10 @@
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R23" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4591,7 +4591,7 @@
         <v>2</v>
       </c>
       <c r="W23" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X23" t="n">
         <v>12</v>
@@ -4627,7 +4627,7 @@
         <v>9.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
         <v>11</v>
@@ -4636,7 +4636,7 @@
         <v>29</v>
       </c>
       <c r="AL23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM23" t="n">
         <v>29</v>
@@ -5089,7 +5089,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H26" t="n">
         <v>4.33</v>
@@ -5098,10 +5098,10 @@
         <v>4.75</v>
       </c>
       <c r="J26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K26" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L26" t="n">
         <v>4.75</v>
@@ -5215,7 +5215,7 @@
         <v>41</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX26" t="n">
         <v>23</v>
@@ -5819,21 +5819,25 @@
         <v>3.55</v>
       </c>
       <c r="I30" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="J30" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="K30" t="n">
         <v>2.18</v>
       </c>
       <c r="L30" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+        <v>6.3</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>9</v>
+      </c>
       <c r="O30" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P30" t="n">
         <v>2.95</v>
@@ -5860,13 +5864,13 @@
         <v>5.8</v>
       </c>
       <c r="X30" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y30" t="n">
         <v>8</v>
       </c>
       <c r="Z30" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AA30" t="n">
         <v>13</v>
@@ -5878,10 +5882,10 @@
         <v>9</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE30" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AF30" t="n">
         <v>90</v>
@@ -5890,31 +5894,31 @@
         <v>800</v>
       </c>
       <c r="AH30" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ30" t="n">
         <v>21</v>
       </c>
       <c r="AK30" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AL30" t="n">
         <v>80</v>
       </c>
       <c r="AM30" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN30" t="n">
         <v>3.25</v>
       </c>
       <c r="AO30" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AP30" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AQ30" t="n">
         <v>21</v>
@@ -5926,31 +5930,31 @@
         <v>200</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.67</v>
+        <v>2.6</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV30" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW30" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AX30" t="n">
         <v>40</v>
       </c>
       <c r="AY30" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AZ30" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BA30" t="n">
         <v>250</v>
       </c>
       <c r="BB30" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="BC30" t="inlineStr"/>
       <c r="BD30" t="inlineStr"/>
@@ -5987,46 +5991,46 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="J31" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="K31" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="L31" t="n">
-        <v>5.7</v>
+        <v>6.1</v>
       </c>
       <c r="M31" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="R31" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S31" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.47</v>
+        <v>2.5</v>
       </c>
       <c r="U31" t="n">
         <v>1.98</v>
@@ -6038,73 +6042,73 @@
         <v>5.9</v>
       </c>
       <c r="X31" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="Y31" t="n">
         <v>8.25</v>
       </c>
       <c r="Z31" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="AA31" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB31" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AC31" t="n">
         <v>9.25</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG31" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AI31" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AJ31" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AL31" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AO31" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AP31" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AR31" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS31" t="n">
         <v>250</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AU31" t="n">
         <v>7.8</v>
@@ -6113,16 +6117,16 @@
         <v>75</v>
       </c>
       <c r="AW31" t="n">
-        <v>7.2</v>
+        <v>7.7</v>
       </c>
       <c r="AX31" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AY31" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ31" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BA31" t="n">
         <v>250</v>
@@ -6165,19 +6169,19 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
         <v>3.5</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K32" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L32" t="n">
         <v>4</v>
@@ -6195,10 +6199,10 @@
         <v>2.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R32" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S32" t="n">
         <v>1.5</v>
@@ -6213,7 +6217,7 @@
         <v>1.8</v>
       </c>
       <c r="W32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X32" t="n">
         <v>9.5</v>
@@ -6231,13 +6235,13 @@
         <v>34</v>
       </c>
       <c r="AC32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD32" t="n">
         <v>6</v>
       </c>
       <c r="AE32" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF32" t="n">
         <v>51</v>
@@ -6252,7 +6256,7 @@
         <v>17</v>
       </c>
       <c r="AJ32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK32" t="n">
         <v>41</v>
@@ -6267,10 +6271,10 @@
         <v>4</v>
       </c>
       <c r="AO32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP32" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ32" t="n">
         <v>41</v>
@@ -6297,7 +6301,7 @@
         <v>21</v>
       </c>
       <c r="AY32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ32" t="n">
         <v>67</v>
@@ -6356,13 +6360,13 @@
         <v>2.25</v>
       </c>
       <c r="J33" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K33" t="n">
         <v>1.83</v>
       </c>
       <c r="L33" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.14</v>
@@ -6446,16 +6450,16 @@
         <v>41</v>
       </c>
       <c r="AN33" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AR33" t="n">
         <v>126</v>
@@ -6473,10 +6477,10 @@
         <v>81</v>
       </c>
       <c r="AW33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AX33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY33" t="n">
         <v>34</v>
@@ -6546,7 +6550,7 @@
         <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O34" t="n">
         <v>1.13</v>
@@ -6707,19 +6711,19 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H35" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J35" t="n">
         <v>2.1</v>
       </c>
       <c r="K35" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L35" t="n">
         <v>4.5</v>
@@ -6728,7 +6732,7 @@
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O35" t="n">
         <v>1.13</v>
@@ -6800,7 +6804,7 @@
         <v>51</v>
       </c>
       <c r="AL35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM35" t="n">
         <v>29</v>
@@ -6815,10 +6819,10 @@
         <v>15</v>
       </c>
       <c r="AQ35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS35" t="n">
         <v>81</v>
@@ -6836,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="AX35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY35" t="n">
         <v>23</v>
@@ -7271,10 +7275,10 @@
         <v>3.75</v>
       </c>
       <c r="M38" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O38" t="n">
         <v>1.11</v>
@@ -7435,22 +7439,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I39" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J39" t="n">
         <v>3.5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L39" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7459,16 +7463,16 @@
         <v>17</v>
       </c>
       <c r="O39" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P39" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R39" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S39" t="n">
         <v>1.29</v>
@@ -7483,13 +7487,13 @@
         <v>2.5</v>
       </c>
       <c r="W39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X39" t="n">
         <v>19</v>
       </c>
       <c r="Y39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z39" t="n">
         <v>34</v>
@@ -7537,7 +7541,7 @@
         <v>5.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP39" t="n">
         <v>21</v>
@@ -7638,7 +7642,7 @@
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O40" t="n">
         <v>1.18</v>
@@ -7820,7 +7824,7 @@
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O41" t="n">
         <v>1.14</v>
@@ -7981,22 +7985,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I42" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="J42" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K42" t="n">
         <v>2.38</v>
       </c>
       <c r="L42" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
@@ -8005,40 +8009,40 @@
         <v>15</v>
       </c>
       <c r="O42" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P42" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R42" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S42" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T42" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V42" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X42" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y42" t="n">
         <v>8.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA42" t="n">
         <v>13</v>
@@ -8047,13 +8051,13 @@
         <v>21</v>
       </c>
       <c r="AC42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE42" t="n">
         <v>13</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>15</v>
       </c>
       <c r="AF42" t="n">
         <v>41</v>
@@ -8065,25 +8069,25 @@
         <v>15</v>
       </c>
       <c r="AI42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ42" t="n">
         <v>15</v>
       </c>
       <c r="AK42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM42" t="n">
         <v>34</v>
       </c>
       <c r="AN42" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP42" t="n">
         <v>17</v>
@@ -8098,25 +8102,25 @@
         <v>101</v>
       </c>
       <c r="AT42" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW42" t="n">
         <v>6.5</v>
       </c>
       <c r="AX42" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ42" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA42" t="n">
         <v>81</v>
@@ -8181,22 +8185,22 @@
         <v>4.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P43" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R43" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S43" t="n">
         <v>1.33</v>
@@ -8545,22 +8549,22 @@
         <v>6</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R45" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S45" t="n">
         <v>1.4</v>
@@ -8569,10 +8573,10 @@
         <v>2.75</v>
       </c>
       <c r="U45" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V45" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W45" t="n">
         <v>6.5</v>
@@ -8584,7 +8588,7 @@
         <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA45" t="n">
         <v>13</v>
@@ -8602,7 +8606,7 @@
         <v>19</v>
       </c>
       <c r="AF45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG45" t="n">
         <v>351</v>
@@ -8611,7 +8615,7 @@
         <v>13</v>
       </c>
       <c r="AI45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ45" t="n">
         <v>17</v>
@@ -8629,7 +8633,7 @@
         <v>3.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP45" t="n">
         <v>21</v>
@@ -8650,7 +8654,7 @@
         <v>9</v>
       </c>
       <c r="AV45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW45" t="n">
         <v>7</v>
@@ -8709,82 +8713,82 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.87</v>
+        <v>2.75</v>
       </c>
       <c r="H46" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I46" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="J46" t="n">
-        <v>3.35</v>
+        <v>3.15</v>
       </c>
       <c r="K46" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="L46" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P46" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="Q46" t="n">
         <v>1.57</v>
       </c>
       <c r="R46" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S46" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="T46" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="U46" t="n">
         <v>1.5</v>
       </c>
       <c r="V46" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="W46" t="n">
         <v>12.5</v>
       </c>
       <c r="X46" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="Y46" t="n">
         <v>10.25</v>
       </c>
       <c r="Z46" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AA46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB46" t="n">
         <v>23</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD46" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AE46" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AF46" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG46" t="n">
         <v>200</v>
@@ -8799,49 +8803,49 @@
         <v>9</v>
       </c>
       <c r="AK46" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL46" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AN46" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO46" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AP46" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ46" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AR46" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AS46" t="n">
         <v>175</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AU46" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV46" t="n">
         <v>45</v>
       </c>
       <c r="AW46" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AX46" t="n">
         <v>11.25</v>
       </c>
       <c r="AY46" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AZ46" t="n">
         <v>40</v>
@@ -8850,7 +8854,7 @@
         <v>60</v>
       </c>
       <c r="BB46" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC46" t="inlineStr"/>
       <c r="BD46" t="inlineStr"/>
@@ -8887,10 +8891,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H47" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I47" t="n">
         <v>3.65</v>
@@ -8899,46 +8903,46 @@
         <v>2.4</v>
       </c>
       <c r="K47" t="n">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="L47" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="M47" t="n">
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="O47" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P47" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="R47" t="n">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="S47" t="n">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="T47" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="U47" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="V47" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="W47" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X47" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="Y47" t="n">
         <v>8.25</v>
@@ -8947,31 +8951,31 @@
         <v>17</v>
       </c>
       <c r="AA47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB47" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AD47" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AE47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AG47" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AH47" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AI47" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ47" t="n">
         <v>12.5</v>
@@ -8980,55 +8984,55 @@
         <v>55</v>
       </c>
       <c r="AL47" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM47" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AO47" t="n">
         <v>9.25</v>
       </c>
       <c r="AP47" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AR47" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS47" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT47" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU47" t="n">
-        <v>6.8</v>
+        <v>6.6</v>
       </c>
       <c r="AV47" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AW47" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="AX47" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AY47" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ47" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA47" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB47" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC47" t="inlineStr"/>
       <c r="BD47" t="inlineStr"/>
@@ -9065,22 +9069,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.57</v>
+        <v>2.4</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I48" t="n">
-        <v>2.45</v>
+        <v>2.62</v>
       </c>
       <c r="J48" t="n">
-        <v>3.05</v>
+        <v>2.87</v>
       </c>
       <c r="K48" t="n">
         <v>2.27</v>
       </c>
       <c r="L48" t="n">
-        <v>2.95</v>
+        <v>3.1</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
@@ -9101,7 +9105,7 @@
         <v>2.3</v>
       </c>
       <c r="S48" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T48" t="n">
         <v>3.25</v>
@@ -9110,31 +9114,31 @@
         <v>1.47</v>
       </c>
       <c r="V48" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="W48" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X48" t="n">
-        <v>16.5</v>
+        <v>15</v>
       </c>
       <c r="Y48" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="Z48" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AA48" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AB48" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AC48" t="n">
         <v>9</v>
       </c>
       <c r="AD48" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE48" t="n">
         <v>11</v>
@@ -9143,40 +9147,40 @@
         <v>35</v>
       </c>
       <c r="AG48" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AH48" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI48" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AJ48" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK48" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AL48" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AM48" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN48" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AO48" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP48" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ48" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR48" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS48" t="n">
         <v>150</v>
@@ -9191,19 +9195,19 @@
         <v>40</v>
       </c>
       <c r="AW48" t="n">
-        <v>4.8</v>
+        <v>5</v>
       </c>
       <c r="AX48" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AY48" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ48" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA48" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB48" t="n">
         <v>150</v>
@@ -9879,16 +9883,16 @@
         <v>3.25</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="J53" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="K53" t="n">
         <v>1.98</v>
       </c>
       <c r="L53" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="M53" t="n">
         <v>1.09</v>
@@ -9897,10 +9901,10 @@
         <v>7.25</v>
       </c>
       <c r="O53" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P53" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Q53" t="n">
         <v>2.32</v>
@@ -9912,10 +9916,10 @@
         <v>1.5</v>
       </c>
       <c r="T53" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="U53" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V53" t="n">
         <v>1.53</v>
@@ -9924,22 +9928,22 @@
         <v>5</v>
       </c>
       <c r="X53" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Y53" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="Z53" t="n">
         <v>13</v>
       </c>
       <c r="AA53" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AC53" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD53" t="n">
         <v>6.6</v>
@@ -9952,37 +9956,37 @@
       </c>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AI53" t="n">
         <v>26</v>
       </c>
       <c r="AJ53" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AK53" t="n">
         <v>100</v>
       </c>
       <c r="AL53" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AM53" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AN53" t="n">
         <v>3.3</v>
       </c>
       <c r="AO53" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AP53" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ53" t="n">
         <v>32</v>
       </c>
       <c r="AR53" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS53" t="n">
         <v>400</v>
@@ -9997,16 +10001,16 @@
         <v>110</v>
       </c>
       <c r="AW53" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="AX53" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AY53" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ53" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BA53" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H2" t="n">
         <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.95</v>
@@ -762,16 +762,16 @@
         <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
         <v>4</v>
@@ -789,16 +789,16 @@
         <v>3</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -819,19 +819,19 @@
         <v>8.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
         <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ2" t="n">
         <v>21</v>
@@ -873,10 +873,10 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
         <v>3.4</v>
@@ -947,40 +947,40 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P3" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -992,10 +992,10 @@
         <v>17</v>
       </c>
       <c r="AB3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1007,7 +1007,7 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -1025,13 +1025,13 @@
         <v>26</v>
       </c>
       <c r="AM3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN3" t="n">
         <v>4.33</v>
       </c>
       <c r="AO3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP3" t="n">
         <v>21</v>
@@ -1043,13 +1043,13 @@
         <v>51</v>
       </c>
       <c r="AS3" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
         <v>3.5</v>
@@ -1129,16 +1129,16 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
         <v>3</v>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>3.2</v>
       </c>
       <c r="I5" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J5" t="n">
         <v>2.75</v>
@@ -1306,13 +1306,13 @@
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1327,10 +1327,10 @@
         <v>1.67</v>
       </c>
       <c r="S5" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U5" t="n">
         <v>1.95</v>
@@ -1354,7 +1354,7 @@
         <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC5" t="n">
         <v>8</v>
@@ -1378,7 +1378,7 @@
         <v>19</v>
       </c>
       <c r="AJ5" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
@@ -1408,7 +1408,7 @@
         <v>201</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU5" t="n">
         <v>8.5</v>
@@ -1491,10 +1491,10 @@
         <v>3.25</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1982,7 +1982,7 @@
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -2089,7 +2089,7 @@
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF9" t="n">
         <v>101</v>
@@ -2203,10 +2203,10 @@
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K10" t="n">
         <v>1.83</v>
@@ -2215,10 +2215,10 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O10" t="n">
         <v>1.62</v>
@@ -2254,7 +2254,7 @@
         <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
         <v>23</v>
@@ -2276,7 +2276,7 @@
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI10" t="n">
         <v>19</v>
@@ -2297,10 +2297,10 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -2318,13 +2318,13 @@
         <v>10</v>
       </c>
       <c r="AV10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
         <v>41</v>
@@ -2559,13 +2559,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
@@ -2574,7 +2574,7 @@
         <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M12" t="n">
         <v>1.03</v>
@@ -2688,7 +2688,7 @@
         <v>4.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2923,16 +2923,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
         <v>3.5</v>
       </c>
       <c r="I14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J14" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K14" t="n">
         <v>2.3</v>
@@ -3019,13 +3019,13 @@
         <v>15</v>
       </c>
       <c r="AM14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN14" t="n">
         <v>6</v>
       </c>
       <c r="AO14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP14" t="n">
         <v>26</v>
@@ -3058,7 +3058,7 @@
         <v>19</v>
       </c>
       <c r="AZ14" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA14" t="n">
         <v>51</v>
@@ -3105,52 +3105,52 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="S15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U15" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V15" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W15" t="n">
         <v>9</v>
@@ -3162,16 +3162,16 @@
         <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
@@ -3183,19 +3183,19 @@
         <v>51</v>
       </c>
       <c r="AG15" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>9.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>19</v>
@@ -3204,25 +3204,25 @@
         <v>29</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
         <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU15" t="n">
         <v>8</v>
@@ -3231,7 +3231,7 @@
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX15" t="n">
         <v>13</v>
@@ -3283,61 +3283,61 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.2</v>
+        <v>1.14</v>
       </c>
       <c r="H16" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J16" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="L16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M16" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O16" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P16" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="R16" t="n">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="S16" t="n">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="T16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="X16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
         <v>7.5</v>
@@ -3349,13 +3349,13 @@
         <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AD16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF16" t="n">
         <v>67</v>
@@ -3364,16 +3364,16 @@
         <v>301</v>
       </c>
       <c r="AH16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AJ16" t="n">
         <v>34</v>
       </c>
       <c r="AK16" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AL16" t="n">
         <v>81</v>
@@ -3391,16 +3391,16 @@
         <v>15</v>
       </c>
       <c r="AQ16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AR16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS16" t="n">
         <v>101</v>
       </c>
       <c r="AT16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="AU16" t="n">
         <v>10</v>
@@ -3409,7 +3409,7 @@
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AX16" t="n">
         <v>51</v>
@@ -3467,7 +3467,7 @@
         <v>5.5</v>
       </c>
       <c r="I17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="J17" t="n">
         <v>1.67</v>
@@ -3485,16 +3485,16 @@
         <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R17" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S17" t="n">
         <v>1.22</v>
@@ -3509,7 +3509,7 @@
         <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X17" t="n">
         <v>8</v>
@@ -3539,7 +3539,7 @@
         <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
         <v>29</v>
@@ -3560,7 +3560,7 @@
         <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO17" t="n">
         <v>6</v>
@@ -3572,7 +3572,7 @@
         <v>13</v>
       </c>
       <c r="AR17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS17" t="n">
         <v>81</v>
@@ -3581,7 +3581,7 @@
         <v>4</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3669,10 +3669,10 @@
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3821,46 +3821,46 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="H19" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="J19" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="K19" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="L19" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.16</v>
       </c>
       <c r="P19" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="R19" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="S19" t="n">
         <v>1.27</v>
       </c>
       <c r="T19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="U19" t="n">
         <v>2.1</v>
@@ -3881,13 +3881,13 @@
         <v>7.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD19" t="n">
         <v>13.5</v>
@@ -3902,22 +3902,22 @@
         <v>1250</v>
       </c>
       <c r="AH19" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI19" t="n">
+        <v>100</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>450</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>175</v>
+      </c>
+      <c r="AM19" t="n">
         <v>120</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>45</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>500</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>200</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>150</v>
       </c>
       <c r="AN19" t="n">
         <v>3.1</v>
@@ -3938,7 +3938,7 @@
         <v>200</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AU19" t="n">
         <v>9.5</v>
@@ -3947,19 +3947,19 @@
         <v>90</v>
       </c>
       <c r="AW19" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AX19" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AY19" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AZ19" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="BA19" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BB19" t="inlineStr"/>
       <c r="BC19" t="inlineStr"/>
@@ -4027,10 +4027,10 @@
         <v>3.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
         <v>1.44</v>
@@ -4141,10 +4141,10 @@
         <v>301</v>
       </c>
       <c r="BC20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="21">
@@ -4179,28 +4179,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J21" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
         <v>4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -4209,16 +4209,16 @@
         <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U21" t="n">
         <v>1.91</v>
@@ -4227,7 +4227,7 @@
         <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X21" t="n">
         <v>9.5</v>
@@ -4236,19 +4236,19 @@
         <v>9.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
       </c>
       <c r="AC21" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4260,13 +4260,13 @@
         <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
         <v>41</v>
@@ -4281,10 +4281,10 @@
         <v>4</v>
       </c>
       <c r="AO21" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -4296,22 +4296,22 @@
         <v>201</v>
       </c>
       <c r="AT21" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU21" t="n">
         <v>8.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX21" t="n">
         <v>21</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ21" t="n">
         <v>67</v>
@@ -4361,46 +4361,46 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="H22" t="n">
         <v>3.2</v>
       </c>
       <c r="I22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K22" t="n">
         <v>2.05</v>
       </c>
       <c r="L22" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U22" t="n">
         <v>1.83</v>
@@ -4409,7 +4409,7 @@
         <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
         <v>11</v>
@@ -4427,7 +4427,7 @@
         <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
         <v>6</v>
@@ -4439,7 +4439,7 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH22" t="n">
         <v>8.5</v>
@@ -4448,22 +4448,22 @@
         <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL22" t="n">
         <v>26</v>
       </c>
       <c r="AM22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN22" t="n">
         <v>4.33</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
         <v>26</v>
@@ -4478,16 +4478,16 @@
         <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU22" t="n">
         <v>8.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX22" t="n">
         <v>17</v>
@@ -4502,7 +4502,7 @@
         <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4573,10 +4573,10 @@
         <v>3.5</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R23" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4725,22 +4725,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H24" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J24" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K24" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M24" t="n">
         <v>1.07</v>
@@ -4773,7 +4773,7 @@
         <v>1.67</v>
       </c>
       <c r="W24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X24" t="n">
         <v>7</v>
@@ -4782,10 +4782,10 @@
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB24" t="n">
         <v>34</v>
@@ -4806,7 +4806,7 @@
         <v>1250</v>
       </c>
       <c r="AH24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI24" t="n">
         <v>23</v>
@@ -4824,16 +4824,16 @@
         <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
       </c>
       <c r="AQ24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR24" t="n">
         <v>51</v>
@@ -4845,13 +4845,13 @@
         <v>2.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV24" t="n">
         <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX24" t="n">
         <v>29</v>
@@ -4860,7 +4860,7 @@
         <v>41</v>
       </c>
       <c r="AZ24" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA24" t="n">
         <v>151</v>
@@ -4928,7 +4928,7 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -5089,7 +5089,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H26" t="n">
         <v>4.33</v>
@@ -5137,7 +5137,7 @@
         <v>2.2</v>
       </c>
       <c r="W26" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X26" t="n">
         <v>9</v>
@@ -5477,16 +5477,16 @@
         <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P28" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S28" t="n">
         <v>1.3</v>
@@ -5659,10 +5659,10 @@
         <v>13</v>
       </c>
       <c r="O29" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q29" t="n">
         <v>1.7</v>
@@ -5997,28 +5997,28 @@
         <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
         <v>2.22</v>
       </c>
       <c r="L31" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>2.95</v>
+        <v>2.92</v>
       </c>
       <c r="Q31" t="n">
         <v>1.88</v>
@@ -6042,7 +6042,7 @@
         <v>5.9</v>
       </c>
       <c r="X31" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Y31" t="n">
         <v>8.25</v>
@@ -6060,7 +6060,7 @@
         <v>9.25</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE31" t="n">
         <v>19.5</v>
@@ -6084,7 +6084,7 @@
         <v>150</v>
       </c>
       <c r="AL31" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM31" t="n">
         <v>75</v>
@@ -6093,10 +6093,10 @@
         <v>3.25</v>
       </c>
       <c r="AO31" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AP31" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AQ31" t="n">
         <v>21</v>
@@ -6108,7 +6108,7 @@
         <v>250</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AU31" t="n">
         <v>7.8</v>
@@ -6117,13 +6117,13 @@
         <v>75</v>
       </c>
       <c r="AW31" t="n">
-        <v>7.7</v>
+        <v>7.6</v>
       </c>
       <c r="AX31" t="n">
         <v>37</v>
       </c>
       <c r="AY31" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AZ31" t="n">
         <v>250</v>
@@ -6711,13 +6711,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H35" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I35" t="n">
         <v>4.5</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4.75</v>
       </c>
       <c r="J35" t="n">
         <v>2.1</v>
@@ -6762,19 +6762,19 @@
         <v>11</v>
       </c>
       <c r="X35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y35" t="n">
         <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA35" t="n">
         <v>12</v>
       </c>
       <c r="AB35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC35" t="n">
         <v>21</v>
@@ -6804,7 +6804,7 @@
         <v>51</v>
       </c>
       <c r="AL35" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM35" t="n">
         <v>29</v>
@@ -6819,10 +6819,10 @@
         <v>15</v>
       </c>
       <c r="AQ35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS35" t="n">
         <v>81</v>
@@ -6831,7 +6831,7 @@
         <v>3.75</v>
       </c>
       <c r="AU35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV35" t="n">
         <v>41</v>
@@ -6840,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="AX35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY35" t="n">
         <v>23</v>
@@ -6914,19 +6914,19 @@
         <v>1.02</v>
       </c>
       <c r="N36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P36" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R36" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S36" t="n">
         <v>1.22</v>
@@ -7081,7 +7081,7 @@
         <v>3.75</v>
       </c>
       <c r="I37" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="J37" t="n">
         <v>2.5</v>
@@ -7099,10 +7099,10 @@
         <v>13</v>
       </c>
       <c r="O37" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P37" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q37" t="n">
         <v>1.7</v>
@@ -7111,22 +7111,22 @@
         <v>2.1</v>
       </c>
       <c r="S37" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T37" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U37" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V37" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X37" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y37" t="n">
         <v>8.5</v>
@@ -7138,13 +7138,13 @@
         <v>15</v>
       </c>
       <c r="AB37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE37" t="n">
         <v>13</v>
@@ -7153,7 +7153,7 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH37" t="n">
         <v>13</v>
@@ -7174,31 +7174,31 @@
         <v>29</v>
       </c>
       <c r="AN37" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO37" t="n">
         <v>10</v>
       </c>
       <c r="AP37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ37" t="n">
         <v>34</v>
       </c>
       <c r="AR37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS37" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU37" t="n">
         <v>7.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW37" t="n">
         <v>5.5</v>
@@ -7207,13 +7207,13 @@
         <v>19</v>
       </c>
       <c r="AY37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ37" t="n">
         <v>51</v>
       </c>
       <c r="BA37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB37" t="n">
         <v>151</v>
@@ -7222,7 +7222,7 @@
         <v>351</v>
       </c>
       <c r="BD37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -7263,7 +7263,7 @@
         <v>3.9</v>
       </c>
       <c r="I38" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
         <v>2.3</v>
@@ -7272,7 +7272,7 @@
         <v>2.6</v>
       </c>
       <c r="L38" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M38" t="n">
         <v>1.02</v>
@@ -7299,16 +7299,16 @@
         <v>4</v>
       </c>
       <c r="U38" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V38" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W38" t="n">
         <v>13</v>
       </c>
       <c r="X38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
@@ -7323,7 +7323,7 @@
         <v>17</v>
       </c>
       <c r="AC38" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD38" t="n">
         <v>8.5</v>
@@ -7353,10 +7353,10 @@
         <v>26</v>
       </c>
       <c r="AM38" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN38" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO38" t="n">
         <v>9</v>
@@ -7371,7 +7371,7 @@
         <v>41</v>
       </c>
       <c r="AS38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT38" t="n">
         <v>4</v>
@@ -7383,7 +7383,7 @@
         <v>41</v>
       </c>
       <c r="AW38" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX38" t="n">
         <v>19</v>
@@ -7439,22 +7439,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I39" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K39" t="n">
         <v>2.4</v>
       </c>
       <c r="L39" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7463,10 +7463,10 @@
         <v>17</v>
       </c>
       <c r="O39" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P39" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
         <v>1.53</v>
@@ -7493,7 +7493,7 @@
         <v>19</v>
       </c>
       <c r="Y39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z39" t="n">
         <v>34</v>
@@ -7511,7 +7511,7 @@
         <v>7.5</v>
       </c>
       <c r="AE39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF39" t="n">
         <v>34</v>
@@ -7520,7 +7520,7 @@
         <v>101</v>
       </c>
       <c r="AH39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI39" t="n">
         <v>13</v>
@@ -7541,7 +7541,7 @@
         <v>5.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP39" t="n">
         <v>21</v>
@@ -7583,7 +7583,7 @@
         <v>101</v>
       </c>
       <c r="BC39" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD39" t="n">
         <v>151</v>
@@ -7827,16 +7827,16 @@
         <v>19</v>
       </c>
       <c r="O41" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P41" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R41" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S41" t="n">
         <v>1.25</v>
@@ -7985,22 +7985,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="H42" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="I42" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="J42" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K42" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L42" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
@@ -8015,10 +8015,10 @@
         <v>4.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R42" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S42" t="n">
         <v>1.3</v>
@@ -8036,16 +8036,16 @@
         <v>9</v>
       </c>
       <c r="X42" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y42" t="n">
         <v>8.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA42" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB42" t="n">
         <v>21</v>
@@ -8066,34 +8066,34 @@
         <v>151</v>
       </c>
       <c r="AH42" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI42" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ42" t="n">
         <v>15</v>
       </c>
       <c r="AK42" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM42" t="n">
         <v>34</v>
       </c>
       <c r="AN42" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO42" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP42" t="n">
         <v>17</v>
       </c>
       <c r="AQ42" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR42" t="n">
         <v>41</v>
@@ -8114,13 +8114,13 @@
         <v>6.5</v>
       </c>
       <c r="AX42" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY42" t="n">
         <v>26</v>
       </c>
       <c r="AZ42" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA42" t="n">
         <v>81</v>
@@ -8173,7 +8173,7 @@
         <v>3.8</v>
       </c>
       <c r="I43" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J43" t="n">
         <v>2.3</v>
@@ -8182,7 +8182,7 @@
         <v>2.38</v>
       </c>
       <c r="L43" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -8203,22 +8203,22 @@
         <v>2.25</v>
       </c>
       <c r="S43" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U43" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V43" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X43" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
@@ -8233,7 +8233,7 @@
         <v>21</v>
       </c>
       <c r="AC43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD43" t="n">
         <v>7.5</v>
@@ -8245,13 +8245,13 @@
         <v>41</v>
       </c>
       <c r="AG43" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ43" t="n">
         <v>15</v>
@@ -8260,7 +8260,7 @@
         <v>41</v>
       </c>
       <c r="AL43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM43" t="n">
         <v>34</v>
@@ -8284,13 +8284,13 @@
         <v>101</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU43" t="n">
         <v>7.5</v>
       </c>
       <c r="AV43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW43" t="n">
         <v>6</v>
@@ -8367,10 +8367,10 @@
         <v>3.6</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O44" t="n">
         <v>1.36</v>
@@ -8531,10 +8531,10 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H45" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I45" t="n">
         <v>5.5</v>
@@ -8543,10 +8543,10 @@
         <v>2.2</v>
       </c>
       <c r="K45" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M45" t="n">
         <v>1.05</v>
@@ -8561,10 +8561,10 @@
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R45" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S45" t="n">
         <v>1.4</v>
@@ -8579,43 +8579,43 @@
         <v>1.8</v>
       </c>
       <c r="W45" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X45" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y45" t="n">
         <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA45" t="n">
         <v>13</v>
       </c>
       <c r="AB45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD45" t="n">
         <v>7.5</v>
       </c>
       <c r="AE45" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF45" t="n">
         <v>51</v>
       </c>
       <c r="AG45" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH45" t="n">
         <v>13</v>
       </c>
       <c r="AI45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ45" t="n">
         <v>17</v>
@@ -8630,10 +8630,10 @@
         <v>41</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO45" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP45" t="n">
         <v>21</v>
@@ -8651,7 +8651,7 @@
         <v>2.75</v>
       </c>
       <c r="AU45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV45" t="n">
         <v>51</v>
@@ -8663,16 +8663,16 @@
         <v>29</v>
       </c>
       <c r="AY45" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ45" t="n">
         <v>101</v>
       </c>
       <c r="BA45" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB45" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC45" t="n">
         <v>81</v>
@@ -8716,16 +8716,16 @@
         <v>2.75</v>
       </c>
       <c r="H46" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I46" t="n">
         <v>2.25</v>
       </c>
       <c r="J46" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K46" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L46" t="n">
         <v>2.75</v>
@@ -8737,22 +8737,22 @@
         <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P46" t="n">
-        <v>4.25</v>
+        <v>4.2</v>
       </c>
       <c r="Q46" t="n">
         <v>1.57</v>
       </c>
       <c r="R46" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="S46" t="n">
         <v>1.3</v>
       </c>
       <c r="T46" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="U46" t="n">
         <v>1.5</v>
@@ -8761,7 +8761,7 @@
         <v>2.4</v>
       </c>
       <c r="W46" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="X46" t="n">
         <v>16.5</v>
@@ -8782,7 +8782,7 @@
         <v>9</v>
       </c>
       <c r="AD46" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AE46" t="n">
         <v>11.75</v>
@@ -8803,7 +8803,7 @@
         <v>9</v>
       </c>
       <c r="AK46" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL46" t="n">
         <v>16</v>
@@ -8818,7 +8818,7 @@
         <v>14</v>
       </c>
       <c r="AP46" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AQ46" t="n">
         <v>55</v>
@@ -8830,7 +8830,7 @@
         <v>175</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU46" t="n">
         <v>6.5</v>
@@ -9069,22 +9069,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H48" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I48" t="n">
-        <v>2.62</v>
+        <v>2.72</v>
       </c>
       <c r="J48" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="K48" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L48" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
@@ -9096,31 +9096,31 @@
         <v>1.18</v>
       </c>
       <c r="P48" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="Q48" t="n">
         <v>1.55</v>
       </c>
       <c r="R48" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="S48" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T48" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="U48" t="n">
         <v>1.47</v>
       </c>
       <c r="V48" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="W48" t="n">
         <v>12</v>
       </c>
       <c r="X48" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y48" t="n">
         <v>9.25</v>
@@ -9129,10 +9129,10 @@
         <v>27</v>
       </c>
       <c r="AA48" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AC48" t="n">
         <v>9</v>
@@ -9141,13 +9141,13 @@
         <v>7.3</v>
       </c>
       <c r="AE48" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF48" t="n">
         <v>35</v>
       </c>
       <c r="AG48" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AH48" t="n">
         <v>12</v>
@@ -9156,37 +9156,37 @@
         <v>16.5</v>
       </c>
       <c r="AJ48" t="n">
-        <v>9.75</v>
+        <v>10</v>
       </c>
       <c r="AK48" t="n">
         <v>32</v>
       </c>
       <c r="AL48" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM48" t="n">
         <v>22</v>
       </c>
       <c r="AN48" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="AO48" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AP48" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AQ48" t="n">
         <v>45</v>
       </c>
       <c r="AR48" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AS48" t="n">
         <v>150</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AU48" t="n">
         <v>6.2</v>
@@ -9198,19 +9198,19 @@
         <v>5</v>
       </c>
       <c r="AX48" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AZ48" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA48" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB48" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="BC48" t="n">
         <v>500</v>
@@ -9695,10 +9695,10 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H52" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I52" t="n">
         <v>4.75</v>
@@ -9710,7 +9710,7 @@
         <v>2.3</v>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M52" t="n">
         <v>1.04</v>
@@ -9761,7 +9761,7 @@
         <v>23</v>
       </c>
       <c r="AC52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD52" t="n">
         <v>8</v>
@@ -9779,10 +9779,10 @@
         <v>15</v>
       </c>
       <c r="AI52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ52" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK52" t="n">
         <v>51</v>
@@ -9803,7 +9803,7 @@
         <v>19</v>
       </c>
       <c r="AQ52" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR52" t="n">
         <v>41</v>
@@ -9815,7 +9815,7 @@
         <v>3.25</v>
       </c>
       <c r="AU52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV52" t="n">
         <v>51</v>
@@ -9824,13 +9824,13 @@
         <v>7</v>
       </c>
       <c r="AX52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY52" t="n">
         <v>34</v>
       </c>
       <c r="AZ52" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA52" t="n">
         <v>101</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD53"/>
+  <dimension ref="A1:BD54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -935,7 +935,7 @@
         <v>3.5</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -971,16 +971,16 @@
         <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="W3" t="n">
         <v>8</v>
       </c>
       <c r="X3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -1049,7 +1049,7 @@
         <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
@@ -1129,10 +1129,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.62</v>
@@ -1153,10 +1153,10 @@
         <v>2.2</v>
       </c>
       <c r="U4" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1171,19 +1171,19 @@
         <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
@@ -1309,10 +1309,10 @@
         <v>4.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.36</v>
@@ -1503,10 +1503,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>1.57</v>
@@ -1835,13 +1835,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1850,13 +1850,13 @@
         <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.5</v>
@@ -1901,7 +1901,7 @@
         <v>41</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD8" t="n">
         <v>6</v>
@@ -1964,7 +1964,7 @@
         <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
@@ -1982,7 +1982,7 @@
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
@@ -2035,10 +2035,10 @@
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
         <v>1.62</v>
@@ -2383,7 +2383,7 @@
         <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
@@ -2398,7 +2398,7 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
@@ -2407,10 +2407,10 @@
         <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R11" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S11" t="n">
         <v>1.29</v>
@@ -2428,7 +2428,7 @@
         <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
@@ -2449,7 +2449,7 @@
         <v>7.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF11" t="n">
         <v>34</v>
@@ -2458,13 +2458,13 @@
         <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI11" t="n">
         <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
@@ -2506,7 +2506,7 @@
         <v>4.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
         <v>17</v>
@@ -2953,10 +2953,10 @@
         <v>4.33</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R14" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S14" t="n">
         <v>1.33</v>
@@ -3105,19 +3105,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
         <v>3.1</v>
@@ -3135,10 +3135,10 @@
         <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R15" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S15" t="n">
         <v>1.4</v>
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X15" t="n">
         <v>15</v>
@@ -3165,7 +3165,7 @@
         <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB15" t="n">
         <v>29</v>
@@ -3177,16 +3177,16 @@
         <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
         <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3201,10 +3201,10 @@
         <v>19</v>
       </c>
       <c r="AM15" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
         <v>15</v>
@@ -3225,7 +3225,7 @@
         <v>2.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
@@ -3286,16 +3286,16 @@
         <v>1.14</v>
       </c>
       <c r="H16" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
         <v>1.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
         <v>11</v>
@@ -3304,7 +3304,7 @@
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O16" t="n">
         <v>1.08</v>
@@ -3313,10 +3313,10 @@
         <v>8</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="S16" t="n">
         <v>1.18</v>
@@ -3334,7 +3334,7 @@
         <v>12</v>
       </c>
       <c r="X16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y16" t="n">
         <v>11</v>
@@ -3349,10 +3349,10 @@
         <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AE16" t="n">
         <v>26</v>
@@ -3361,7 +3361,7 @@
         <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH16" t="n">
         <v>41</v>
@@ -3370,7 +3370,7 @@
         <v>67</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK16" t="n">
         <v>201</v>
@@ -3382,7 +3382,7 @@
         <v>67</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO16" t="n">
         <v>5</v>
@@ -3397,7 +3397,7 @@
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT16" t="n">
         <v>4.5</v>
@@ -3461,13 +3461,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H17" t="n">
         <v>5.5</v>
       </c>
       <c r="I17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="J17" t="n">
         <v>1.67</v>
@@ -3485,16 +3485,16 @@
         <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R17" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S17" t="n">
         <v>1.22</v>
@@ -3509,13 +3509,13 @@
         <v>2</v>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X17" t="n">
         <v>8</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
         <v>9</v>
@@ -3536,10 +3536,10 @@
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH17" t="n">
         <v>29</v>
@@ -3560,7 +3560,7 @@
         <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO17" t="n">
         <v>6</v>
@@ -3572,7 +3572,7 @@
         <v>13</v>
       </c>
       <c r="AR17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS17" t="n">
         <v>81</v>
@@ -3581,7 +3581,7 @@
         <v>4</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
@@ -3669,10 +3669,10 @@
         <v>3.4</v>
       </c>
       <c r="Q18" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R18" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3821,28 +3821,28 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="H19" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="I19" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="K19" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="L19" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="O19" t="n">
         <v>1.16</v>
@@ -3878,16 +3878,16 @@
         <v>10.25</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB19" t="n">
         <v>35</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AD19" t="n">
         <v>13.5</v>
@@ -3902,22 +3902,22 @@
         <v>1250</v>
       </c>
       <c r="AH19" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AJ19" t="n">
         <v>40</v>
       </c>
       <c r="AK19" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AL19" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AN19" t="n">
         <v>3.1</v>
@@ -3929,10 +3929,10 @@
         <v>15.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AR19" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS19" t="n">
         <v>200</v>
@@ -3947,19 +3947,19 @@
         <v>90</v>
       </c>
       <c r="AW19" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AY19" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AZ19" t="n">
         <v>500</v>
       </c>
       <c r="BA19" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BB19" t="inlineStr"/>
       <c r="BC19" t="inlineStr"/>
@@ -3997,13 +3997,13 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="H20" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I20" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J20" t="n">
         <v>2.63</v>
@@ -4018,7 +4018,7 @@
         <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.36</v>
@@ -4054,7 +4054,7 @@
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
         <v>17</v>
@@ -4063,7 +4063,7 @@
         <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD20" t="n">
         <v>6.5</v>
@@ -4075,7 +4075,7 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH20" t="n">
         <v>10</v>
@@ -4090,7 +4090,7 @@
         <v>41</v>
       </c>
       <c r="AL20" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM20" t="n">
         <v>41</v>
@@ -4108,7 +4108,7 @@
         <v>41</v>
       </c>
       <c r="AR20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS20" t="n">
         <v>201</v>
@@ -4135,7 +4135,7 @@
         <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB20" t="n">
         <v>301</v>
@@ -4364,10 +4364,10 @@
         <v>2.38</v>
       </c>
       <c r="H22" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="J22" t="n">
         <v>3.1</v>
@@ -4382,7 +4382,7 @@
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -4409,7 +4409,7 @@
         <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
         <v>11</v>
@@ -4427,10 +4427,10 @@
         <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4439,10 +4439,10 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
         <v>15</v>
@@ -4454,7 +4454,7 @@
         <v>34</v>
       </c>
       <c r="AL22" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
@@ -4567,16 +4567,16 @@
         <v>11</v>
       </c>
       <c r="O23" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R23" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S23" t="n">
         <v>1.4</v>
@@ -4725,16 +4725,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H24" t="n">
         <v>3.7</v>
       </c>
       <c r="I24" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
@@ -4767,16 +4767,16 @@
         <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W24" t="n">
         <v>5.5</v>
       </c>
       <c r="X24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y24" t="n">
         <v>9</v>
@@ -4800,7 +4800,7 @@
         <v>21</v>
       </c>
       <c r="AF24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG24" t="n">
         <v>1250</v>
@@ -4809,22 +4809,22 @@
         <v>11</v>
       </c>
       <c r="AI24" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK24" t="n">
         <v>51</v>
       </c>
       <c r="AL24" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM24" t="n">
         <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO24" t="n">
         <v>9</v>
@@ -4854,7 +4854,7 @@
         <v>7</v>
       </c>
       <c r="AX24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY24" t="n">
         <v>41</v>
@@ -5104,7 +5104,7 @@
         <v>2.4</v>
       </c>
       <c r="L26" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
@@ -5215,7 +5215,7 @@
         <v>41</v>
       </c>
       <c r="AW26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
         <v>23</v>
@@ -5635,28 +5635,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L29" t="n">
         <v>3.1</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O29" t="n">
         <v>1.2</v>
@@ -5665,10 +5665,10 @@
         <v>4.33</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R29" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S29" t="n">
         <v>1.33</v>
@@ -5701,7 +5701,7 @@
         <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD29" t="n">
         <v>7</v>
@@ -5713,13 +5713,13 @@
         <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH29" t="n">
         <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ29" t="n">
         <v>10</v>
@@ -5830,12 +5830,8 @@
       <c r="L30" t="n">
         <v>6.3</v>
       </c>
-      <c r="M30" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N30" t="n">
-        <v>9</v>
-      </c>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="O30" t="n">
         <v>1.3</v>
       </c>
@@ -6012,7 +6008,7 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>8.4</v>
+        <v>8.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.3</v>
@@ -6169,22 +6165,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
         <v>3.5</v>
       </c>
       <c r="J32" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
         <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M32" t="n">
         <v>1.08</v>
@@ -6226,7 +6222,7 @@
         <v>9.5</v>
       </c>
       <c r="Z32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA32" t="n">
         <v>19</v>
@@ -6235,7 +6231,7 @@
         <v>34</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
         <v>6</v>
@@ -6247,7 +6243,7 @@
         <v>51</v>
       </c>
       <c r="AG32" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH32" t="n">
         <v>9</v>
@@ -6262,7 +6258,7 @@
         <v>41</v>
       </c>
       <c r="AL32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM32" t="n">
         <v>41</v>
@@ -6271,7 +6267,7 @@
         <v>4</v>
       </c>
       <c r="AO32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP32" t="n">
         <v>26</v>
@@ -6295,7 +6291,7 @@
         <v>67</v>
       </c>
       <c r="AW32" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX32" t="n">
         <v>21</v>
@@ -6322,185 +6318,189 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>WUeNIOGk</t>
+          <t>ERlHjIYA</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>13/12/2024</t>
+          <t>12/12/2024</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>23:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>MEXICO - LIGA MX</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Hassania Agadir</t>
+          <t>Club America</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.4</v>
+        <v>1.95</v>
       </c>
       <c r="H33" t="n">
-        <v>2.7</v>
+        <v>3.2</v>
       </c>
       <c r="I33" t="n">
-        <v>2.25</v>
+        <v>4.33</v>
       </c>
       <c r="J33" t="n">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="K33" t="n">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="L33" t="n">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.14</v>
+        <v>1.07</v>
       </c>
       <c r="N33" t="n">
-        <v>5.5</v>
+        <v>9</v>
       </c>
       <c r="O33" t="n">
-        <v>1.57</v>
+        <v>1.36</v>
       </c>
       <c r="P33" t="n">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.88</v>
+        <v>2.2</v>
       </c>
       <c r="R33" t="n">
-        <v>1.4</v>
+        <v>1.65</v>
       </c>
       <c r="S33" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="T33" t="n">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="U33" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="V33" t="n">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="W33" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC33" t="n">
         <v>7.5</v>
       </c>
-      <c r="X33" t="n">
+      <c r="AD33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE33" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>401</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>15</v>
       </c>
-      <c r="Y33" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AD33" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AE33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH33" t="n">
+      <c r="AK33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO33" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>23</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW33" t="n">
         <v>6</v>
       </c>
-      <c r="AI33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK33" t="n">
+      <c r="AX33" t="n">
         <v>23</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN33" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO33" t="n">
-        <v>19</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>126</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AX33" t="n">
-        <v>17</v>
       </c>
       <c r="AY33" t="n">
         <v>34</v>
       </c>
       <c r="AZ33" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA33" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB33" t="n">
-        <v>351</v>
-      </c>
-      <c r="BC33" t="inlineStr"/>
-      <c r="BD33" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>rDqpPR04</t>
+          <t>WUeNIOGk</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6515,174 +6515,170 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Hassania Agadir</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>2.88</v>
       </c>
       <c r="I34" t="n">
-        <v>2.8</v>
+        <v>1.85</v>
       </c>
       <c r="J34" t="n">
+        <v>5</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="L34" t="n">
         <v>2.75</v>
       </c>
-      <c r="K34" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="L34" t="n">
-        <v>3.25</v>
-      </c>
       <c r="M34" t="n">
-        <v>1.02</v>
+        <v>1.13</v>
       </c>
       <c r="N34" t="n">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="O34" t="n">
-        <v>1.13</v>
+        <v>1.53</v>
       </c>
       <c r="P34" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R34" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V34" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W34" t="n">
+        <v>9</v>
+      </c>
+      <c r="X34" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC34" t="n">
         <v>6</v>
       </c>
-      <c r="Q34" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="R34" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="S34" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="T34" t="n">
+      <c r="AD34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>6</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW34" t="n">
         <v>3.75</v>
       </c>
-      <c r="U34" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V34" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W34" t="n">
-        <v>13</v>
-      </c>
-      <c r="X34" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE34" t="n">
+      <c r="AX34" t="n">
         <v>12</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AY34" t="n">
         <v>29</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AZ34" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA34" t="n">
         <v>81</v>
       </c>
-      <c r="AH34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ34" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>15</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>51</v>
-      </c>
       <c r="BB34" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC34" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD34" t="n">
-        <v>151</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="BC34" t="inlineStr"/>
+      <c r="BD34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Chy1Lq0T</t>
+          <t>rDqpPR04</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6702,31 +6698,31 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="H35" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="J35" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="K35" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L35" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M35" t="n">
         <v>1.02</v>
@@ -6741,10 +6737,10 @@
         <v>6</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R35" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S35" t="n">
         <v>1.25</v>
@@ -6753,73 +6749,73 @@
         <v>3.75</v>
       </c>
       <c r="U35" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V35" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W35" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="X35" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="Z35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA35" t="n">
         <v>15</v>
       </c>
-      <c r="AA35" t="n">
-        <v>12</v>
-      </c>
       <c r="AB35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC35" t="n">
         <v>21</v>
       </c>
       <c r="AD35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ35" t="n">
         <v>34</v>
-      </c>
-      <c r="AG35" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK35" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM35" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN35" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO35" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP35" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>23</v>
       </c>
       <c r="AR35" t="n">
         <v>41</v>
@@ -6837,25 +6833,25 @@
         <v>41</v>
       </c>
       <c r="AW35" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="AX35" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AY35" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AZ35" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="BA35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB35" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC35" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD35" t="n">
         <v>151</v>
@@ -6864,7 +6860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>nojyRmWi</t>
+          <t>Chy1Lq0T</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6884,31 +6880,31 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="H36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="I36" t="n">
         <v>4.5</v>
       </c>
-      <c r="I36" t="n">
-        <v>5.75</v>
-      </c>
       <c r="J36" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="K36" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
@@ -6929,34 +6925,34 @@
         <v>2.7</v>
       </c>
       <c r="S36" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V36" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W36" t="n">
         <v>11</v>
       </c>
       <c r="X36" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA36" t="n">
         <v>12</v>
       </c>
-      <c r="AA36" t="n">
-        <v>11</v>
-      </c>
       <c r="AB36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="n">
         <v>21</v>
@@ -6968,70 +6964,70 @@
         <v>13</v>
       </c>
       <c r="AF36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG36" t="n">
         <v>101</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AI36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ36" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AK36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL36" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM36" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN36" t="n">
         <v>4</v>
       </c>
       <c r="AO36" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP36" t="n">
         <v>15</v>
       </c>
       <c r="AQ36" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AR36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS36" t="n">
         <v>81</v>
       </c>
       <c r="AT36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV36" t="n">
         <v>41</v>
       </c>
       <c r="AW36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX36" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY36" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA36" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB36" t="n">
         <v>126</v>
@@ -7046,7 +7042,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SItWFNNj</t>
+          <t>nojyRmWi</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7066,85 +7062,85 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="H37" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="I37" t="n">
-        <v>3.7</v>
+        <v>5.75</v>
       </c>
       <c r="J37" t="n">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="K37" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="L37" t="n">
+        <v>5</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N37" t="n">
+        <v>19</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P37" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S37" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T37" t="n">
         <v>4</v>
       </c>
-      <c r="M37" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N37" t="n">
-        <v>13</v>
-      </c>
-      <c r="O37" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S37" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T37" t="n">
-        <v>3.25</v>
-      </c>
       <c r="U37" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V37" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W37" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="X37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y37" t="n">
         <v>8.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AA37" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AB37" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC37" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AD37" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AE37" t="n">
         <v>13</v>
@@ -7153,82 +7149,82 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AH37" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AI37" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AJ37" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AK37" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL37" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AM37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN37" t="n">
         <v>4</v>
       </c>
       <c r="AO37" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AP37" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ37" t="n">
         <v>19</v>
       </c>
-      <c r="AQ37" t="n">
+      <c r="AR37" t="n">
         <v>34</v>
       </c>
-      <c r="AR37" t="n">
-        <v>51</v>
-      </c>
       <c r="AS37" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="AU37" t="n">
         <v>7.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW37" t="n">
-        <v>5.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX37" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AY37" t="n">
         <v>26</v>
       </c>
       <c r="AZ37" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BA37" t="n">
         <v>81</v>
       </c>
       <c r="BB37" t="n">
+        <v>126</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>301</v>
+      </c>
+      <c r="BD37" t="n">
         <v>151</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>351</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>126</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>GQshN5VG</t>
+          <t>SItWFNNj</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7248,100 +7244,100 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="H38" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="J38" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K38" t="n">
         <v>2.3</v>
-      </c>
-      <c r="K38" t="n">
-        <v>2.6</v>
       </c>
       <c r="L38" t="n">
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N38" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="O38" t="n">
-        <v>1.11</v>
+        <v>1.22</v>
       </c>
       <c r="P38" t="n">
-        <v>6.5</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="R38" t="n">
-        <v>2.88</v>
+        <v>2.1</v>
       </c>
       <c r="S38" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="T38" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U38" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="V38" t="n">
-        <v>2.63</v>
+        <v>2.2</v>
       </c>
       <c r="W38" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Y38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z38" t="n">
         <v>17</v>
       </c>
       <c r="AA38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC38" t="n">
         <v>13</v>
       </c>
-      <c r="AB38" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC38" t="n">
+      <c r="AD38" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI38" t="n">
         <v>21</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>26</v>
       </c>
       <c r="AJ38" t="n">
         <v>13</v>
@@ -7353,55 +7349,55 @@
         <v>26</v>
       </c>
       <c r="AM38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN38" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO38" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP38" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ38" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AR38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS38" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AT38" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="AU38" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW38" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AX38" t="n">
         <v>19</v>
       </c>
       <c r="AY38" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ38" t="n">
         <v>51</v>
       </c>
       <c r="BA38" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="BB38" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC38" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD38" t="n">
         <v>151</v>
@@ -7410,7 +7406,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8EJIwRFc</t>
+          <t>GQshN5VG</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7430,133 +7426,133 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I39" t="n">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>2.3</v>
       </c>
       <c r="K39" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="L39" t="n">
-        <v>2.75</v>
+        <v>4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N39" t="n">
+        <v>21</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P39" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T39" t="n">
+        <v>4</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W39" t="n">
+        <v>13</v>
+      </c>
+      <c r="X39" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z39" t="n">
         <v>17</v>
       </c>
-      <c r="O39" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T39" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W39" t="n">
-        <v>15</v>
-      </c>
-      <c r="X39" t="n">
-        <v>19</v>
-      </c>
-      <c r="Y39" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z39" t="n">
-        <v>34</v>
-      </c>
       <c r="AA39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC39" t="n">
         <v>21</v>
       </c>
-      <c r="AB39" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC39" t="n">
-        <v>17</v>
-      </c>
       <c r="AD39" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE39" t="n">
         <v>11</v>
       </c>
       <c r="AF39" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG39" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH39" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AI39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>13</v>
       </c>
-      <c r="AJ39" t="n">
+      <c r="AK39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO39" t="n">
         <v>9</v>
       </c>
-      <c r="AK39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL39" t="n">
+      <c r="AP39" t="n">
         <v>15</v>
       </c>
-      <c r="AM39" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN39" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO39" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP39" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ39" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AR39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS39" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="AU39" t="n">
         <v>7</v>
@@ -7565,25 +7561,25 @@
         <v>41</v>
       </c>
       <c r="AW39" t="n">
-        <v>4.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX39" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AY39" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ39" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="BA39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB39" t="n">
         <v>101</v>
       </c>
       <c r="BC39" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD39" t="n">
         <v>151</v>
@@ -7592,7 +7588,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>8x25UMxp</t>
+          <t>8EJIwRFc</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7612,76 +7608,76 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.45</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I40" t="n">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K40" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L40" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
+        <v>17</v>
+      </c>
+      <c r="O40" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W40" t="n">
         <v>15</v>
       </c>
-      <c r="O40" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R40" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T40" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W40" t="n">
+      <c r="X40" t="n">
+        <v>19</v>
+      </c>
+      <c r="Y40" t="n">
         <v>11</v>
       </c>
-      <c r="X40" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>10</v>
-      </c>
       <c r="Z40" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AA40" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB40" t="n">
         <v>23</v>
@@ -7693,43 +7689,43 @@
         <v>7.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF40" t="n">
         <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH40" t="n">
         <v>12</v>
       </c>
       <c r="AI40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL40" t="n">
         <v>15</v>
       </c>
-      <c r="AJ40" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>26</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>19</v>
-      </c>
       <c r="AM40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN40" t="n">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AO40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR40" t="n">
         <v>51</v>
@@ -7738,7 +7734,7 @@
         <v>101</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU40" t="n">
         <v>7</v>
@@ -7747,25 +7743,25 @@
         <v>41</v>
       </c>
       <c r="AW40" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AX40" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AY40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB40" t="n">
         <v>101</v>
       </c>
       <c r="BC40" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD40" t="n">
         <v>151</v>
@@ -7774,7 +7770,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>GvNQy5pA</t>
+          <t>8x25UMxp</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7794,85 +7790,85 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Roda</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.83</v>
+        <v>2.45</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="I41" t="n">
-        <v>3.6</v>
+        <v>2.55</v>
       </c>
       <c r="J41" t="n">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="K41" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L41" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M41" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O41" t="n">
-        <v>1.13</v>
+        <v>1.18</v>
       </c>
       <c r="P41" t="n">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="R41" t="n">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="S41" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T41" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="U41" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="V41" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W41" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X41" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="Y41" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z41" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA41" t="n">
         <v>17</v>
       </c>
-      <c r="AA41" t="n">
-        <v>13</v>
-      </c>
       <c r="AB41" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AC41" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AD41" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE41" t="n">
         <v>12</v>
@@ -7881,46 +7877,46 @@
         <v>34</v>
       </c>
       <c r="AG41" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH41" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AI41" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AJ41" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AK41" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AL41" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AM41" t="n">
         <v>23</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO41" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AP41" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ41" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AR41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS41" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT41" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU41" t="n">
         <v>7</v>
@@ -7929,16 +7925,16 @@
         <v>41</v>
       </c>
       <c r="AW41" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AX41" t="n">
+        <v>13</v>
+      </c>
+      <c r="AY41" t="n">
         <v>19</v>
       </c>
-      <c r="AY41" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA41" t="n">
         <v>51</v>
@@ -7947,7 +7943,7 @@
         <v>101</v>
       </c>
       <c r="BC41" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD41" t="n">
         <v>151</v>
@@ -7956,7 +7952,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>C6GZZrFM</t>
+          <t>GvNQy5pA</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -7976,160 +7972,160 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Roda</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="H42" t="n">
         <v>4.2</v>
       </c>
       <c r="I42" t="n">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="J42" t="n">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="K42" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L42" t="n">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="M42" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N42" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O42" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P42" t="n">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="R42" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="S42" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="T42" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="U42" t="n">
-        <v>1.62</v>
+        <v>1.44</v>
       </c>
       <c r="V42" t="n">
-        <v>2.2</v>
+        <v>2.63</v>
       </c>
       <c r="W42" t="n">
+        <v>12</v>
+      </c>
+      <c r="X42" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y42" t="n">
         <v>9</v>
       </c>
-      <c r="X42" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y42" t="n">
+      <c r="Z42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD42" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA42" t="n">
+      <c r="AE42" t="n">
         <v>12</v>
       </c>
-      <c r="AB42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD42" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE42" t="n">
-        <v>13</v>
-      </c>
       <c r="AF42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG42" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="AH42" t="n">
         <v>17</v>
       </c>
       <c r="AI42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ42" t="n">
         <v>29</v>
       </c>
-      <c r="AJ42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK42" t="n">
+      <c r="AR42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ42" t="n">
         <v>51</v>
       </c>
-      <c r="AL42" t="n">
-        <v>34</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS42" t="n">
+      <c r="BA42" t="n">
+        <v>51</v>
+      </c>
+      <c r="BB42" t="n">
         <v>101</v>
       </c>
-      <c r="AT42" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>26</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>81</v>
-      </c>
-      <c r="BA42" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB42" t="n">
-        <v>151</v>
-      </c>
       <c r="BC42" t="n">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="BD42" t="n">
         <v>151</v>
@@ -8138,7 +8134,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SvI6S07d</t>
+          <t>C6GZZrFM</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8158,31 +8154,31 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="I43" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="J43" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K43" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L43" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -8197,10 +8193,10 @@
         <v>4.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R43" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S43" t="n">
         <v>1.3</v>
@@ -8209,25 +8205,25 @@
         <v>3.4</v>
       </c>
       <c r="U43" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V43" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X43" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB43" t="n">
         <v>21</v>
@@ -8236,7 +8232,7 @@
         <v>15</v>
       </c>
       <c r="AD43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE43" t="n">
         <v>13</v>
@@ -8245,37 +8241,37 @@
         <v>41</v>
       </c>
       <c r="AG43" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH43" t="n">
         <v>17</v>
       </c>
       <c r="AI43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ43" t="n">
         <v>15</v>
       </c>
       <c r="AK43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM43" t="n">
         <v>34</v>
       </c>
       <c r="AN43" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP43" t="n">
         <v>17</v>
       </c>
       <c r="AQ43" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AR43" t="n">
         <v>41</v>
@@ -8293,16 +8289,16 @@
         <v>41</v>
       </c>
       <c r="AW43" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX43" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY43" t="n">
         <v>26</v>
       </c>
       <c r="AZ43" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA43" t="n">
         <v>81</v>
@@ -8311,7 +8307,7 @@
         <v>151</v>
       </c>
       <c r="BC43" t="n">
-        <v>351</v>
+        <v>126</v>
       </c>
       <c r="BD43" t="n">
         <v>151</v>
@@ -8320,7 +8316,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>p2JppvKO</t>
+          <t>SvI6S07d</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8330,179 +8326,179 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Partick Thistle</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H44" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I44" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J44" t="n">
         <v>2.3</v>
       </c>
-      <c r="H44" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>3</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3</v>
-      </c>
       <c r="K44" t="n">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="L44" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
+        <v>15</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W44" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD44" t="n">
         <v>7.5</v>
       </c>
-      <c r="O44" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P44" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R44" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V44" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W44" t="n">
+      <c r="AE44" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU44" t="n">
         <v>7.5</v>
       </c>
-      <c r="X44" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z44" t="n">
+      <c r="AV44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX44" t="n">
         <v>21</v>
       </c>
-      <c r="AA44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>800</v>
-      </c>
-      <c r="AH44" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL44" t="n">
+      <c r="AY44" t="n">
         <v>26</v>
       </c>
-      <c r="AM44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR44" t="n">
+      <c r="AZ44" t="n">
         <v>67</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ44" t="n">
-        <v>51</v>
       </c>
       <c r="BA44" t="n">
         <v>81</v>
       </c>
       <c r="BB44" t="n">
-        <v>300</v>
+        <v>151</v>
       </c>
       <c r="BC44" t="n">
-        <v>81</v>
+        <v>351</v>
       </c>
       <c r="BD44" t="n">
-        <v>81</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>GYZAgiZg</t>
+          <t>p2JppvKO</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8512,143 +8508,143 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Partick Thistle</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="H45" t="n">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="I45" t="n">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="K45" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="W45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X45" t="n">
         <v>11</v>
       </c>
-      <c r="O45" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W45" t="n">
-        <v>7</v>
-      </c>
-      <c r="X45" t="n">
-        <v>7.5</v>
-      </c>
       <c r="Y45" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Z45" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AA45" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AB45" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AC45" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AD45" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AE45" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF45" t="n">
         <v>51</v>
       </c>
       <c r="AG45" t="n">
-        <v>301</v>
+        <v>800</v>
       </c>
       <c r="AH45" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO45" t="n">
         <v>13</v>
       </c>
-      <c r="AI45" t="n">
+      <c r="AP45" t="n">
         <v>26</v>
       </c>
-      <c r="AJ45" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>21</v>
-      </c>
       <c r="AQ45" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AR45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS45" t="n">
         <v>151</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU45" t="n">
         <v>8.5</v>
@@ -8657,22 +8653,22 @@
         <v>51</v>
       </c>
       <c r="AW45" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY45" t="n">
         <v>29</v>
       </c>
-      <c r="AY45" t="n">
-        <v>34</v>
-      </c>
       <c r="AZ45" t="n">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="BA45" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BB45" t="n">
-        <v>251</v>
+        <v>300</v>
       </c>
       <c r="BC45" t="n">
         <v>81</v>
@@ -8684,7 +8680,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>bLHb7vo1</t>
+          <t>GYZAgiZg</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8694,175 +8690,179 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G46" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H46" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I46" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L46" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M46" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N46" t="n">
+        <v>10</v>
+      </c>
+      <c r="O46" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R46" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T46" t="n">
         <v>2.75</v>
       </c>
-      <c r="H46" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="I46" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L46" t="n">
+      <c r="U46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W46" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT46" t="n">
         <v>2.75</v>
       </c>
-      <c r="M46" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N46" t="n">
-        <v>9</v>
-      </c>
-      <c r="O46" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="P46" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S46" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T46" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V46" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="W46" t="n">
-        <v>12</v>
-      </c>
-      <c r="X46" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>20</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>200</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>11</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>16</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>5</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>14</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>75</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>175</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>3.2</v>
-      </c>
       <c r="AU46" t="n">
-        <v>6.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV46" t="n">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="AW46" t="n">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="AX46" t="n">
-        <v>11.25</v>
+        <v>29</v>
       </c>
       <c r="AY46" t="n">
-        <v>16.5</v>
+        <v>34</v>
       </c>
       <c r="AZ46" t="n">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="BA46" t="n">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="BB46" t="n">
-        <v>175</v>
-      </c>
-      <c r="BC46" t="inlineStr"/>
-      <c r="BD46" t="inlineStr"/>
+        <v>301</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>81</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>81</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>jeEj90Gl</t>
+          <t>bLHb7vo1</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8882,157 +8882,157 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.87</v>
+        <v>2.75</v>
       </c>
       <c r="H47" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="I47" t="n">
-        <v>3.65</v>
+        <v>2.25</v>
       </c>
       <c r="J47" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="K47" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L47" t="n">
-        <v>3.95</v>
+        <v>2.75</v>
       </c>
       <c r="M47" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N47" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O47" t="n">
         <v>1.19</v>
       </c>
       <c r="P47" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R47" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="S47" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="T47" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="U47" t="n">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="V47" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="W47" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="X47" t="n">
-        <v>10.75</v>
+        <v>16.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>8.25</v>
+        <v>10.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="AA47" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="AB47" t="n">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AD47" t="n">
         <v>7.4</v>
       </c>
       <c r="AE47" t="n">
-        <v>12.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF47" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AV47" t="n">
         <v>45</v>
       </c>
-      <c r="AG47" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>14</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>55</v>
-      </c>
-      <c r="AL47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM47" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN47" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO47" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AP47" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ47" t="n">
-        <v>30</v>
-      </c>
-      <c r="AR47" t="n">
-        <v>50</v>
-      </c>
-      <c r="AS47" t="n">
-        <v>150</v>
-      </c>
-      <c r="AT47" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU47" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="AV47" t="n">
-        <v>50</v>
-      </c>
       <c r="AW47" t="n">
-        <v>5.8</v>
+        <v>4.5</v>
       </c>
       <c r="AX47" t="n">
-        <v>19.5</v>
+        <v>11.25</v>
       </c>
       <c r="AY47" t="n">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="AZ47" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="BA47" t="n">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="BB47" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BC47" t="inlineStr"/>
       <c r="BD47" t="inlineStr"/>
@@ -9040,7 +9040,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>dfdIR8WF</t>
+          <t>jeEj90Gl</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9050,7 +9050,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -9060,167 +9060,165 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.35</v>
+        <v>1.88</v>
       </c>
       <c r="H48" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I48" t="n">
-        <v>2.72</v>
+        <v>3.6</v>
       </c>
       <c r="J48" t="n">
-        <v>2.82</v>
+        <v>2.42</v>
       </c>
       <c r="K48" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L48" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="M48" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O48" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P48" t="n">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="Q48" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S48" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="T48" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U48" t="n">
         <v>1.55</v>
       </c>
-      <c r="R48" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="S48" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T48" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.47</v>
-      </c>
       <c r="V48" t="n">
-        <v>2.52</v>
+        <v>2.3</v>
       </c>
       <c r="W48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X48" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>20</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE48" t="n">
         <v>12</v>
       </c>
-      <c r="X48" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="Y48" t="n">
+      <c r="AF48" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>250</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>28</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="AO48" t="n">
         <v>9.25</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>27</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>35</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>175</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK48" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL48" t="n">
-        <v>20</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>22</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>11.75</v>
       </c>
       <c r="AP48" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ48" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="AR48" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AS48" t="n">
         <v>150</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU48" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="AV48" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AW48" t="n">
-        <v>5</v>
+        <v>5.8</v>
       </c>
       <c r="AX48" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="AY48" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ48" t="n">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="BA48" t="n">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="BB48" t="n">
-        <v>175</v>
-      </c>
-      <c r="BC48" t="n">
-        <v>500</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="BC48" t="inlineStr"/>
       <c r="BD48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>rNIOJ0rg</t>
+          <t>dfdIR8WF</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9230,179 +9228,177 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="H49" t="n">
-        <v>3.5</v>
+        <v>3.65</v>
       </c>
       <c r="I49" t="n">
-        <v>3.4</v>
+        <v>2.27</v>
       </c>
       <c r="J49" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="K49" t="n">
-        <v>2.05</v>
+        <v>2.32</v>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M49" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O49" t="n">
-        <v>1.36</v>
+        <v>1.17</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.1</v>
+        <v>1.53</v>
       </c>
       <c r="R49" t="n">
-        <v>1.7</v>
+        <v>2.35</v>
       </c>
       <c r="S49" t="n">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="T49" t="n">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="U49" t="n">
-        <v>1.83</v>
+        <v>1.47</v>
       </c>
       <c r="V49" t="n">
-        <v>1.83</v>
+        <v>2.5</v>
       </c>
       <c r="W49" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="X49" t="n">
-        <v>9.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y49" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="Z49" t="n">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="AA49" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AB49" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AC49" t="n">
         <v>9</v>
       </c>
       <c r="AD49" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>17</v>
+        <v>11.25</v>
       </c>
       <c r="AF49" t="n">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="AG49" t="n">
-        <v>351</v>
+        <v>200</v>
       </c>
       <c r="AH49" t="n">
-        <v>9</v>
+        <v>11.75</v>
       </c>
       <c r="AI49" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AJ49" t="n">
-        <v>12</v>
+        <v>9.25</v>
       </c>
       <c r="AK49" t="n">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="AL49" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AM49" t="n">
-        <v>41</v>
+        <v>19.5</v>
       </c>
       <c r="AN49" t="n">
-        <v>4</v>
+        <v>5.1</v>
       </c>
       <c r="AO49" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP49" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AQ49" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="AR49" t="n">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="AS49" t="n">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.63</v>
+        <v>3.3</v>
       </c>
       <c r="AU49" t="n">
-        <v>8.5</v>
+        <v>6.3</v>
       </c>
       <c r="AV49" t="n">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="AW49" t="n">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="AX49" t="n">
-        <v>21</v>
+        <v>11.25</v>
       </c>
       <c r="AY49" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AZ49" t="n">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="BA49" t="n">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="BB49" t="n">
-        <v>251</v>
+        <v>150</v>
       </c>
       <c r="BC49" t="n">
-        <v>276</v>
-      </c>
-      <c r="BD49" t="n">
-        <v>301</v>
-      </c>
+        <v>500</v>
+      </c>
+      <c r="BD49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Aeur7Nbm</t>
+          <t>rNIOJ0rg</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9422,160 +9418,160 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="H50" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="J50" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K50" t="n">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="L50" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O50" t="n">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q50" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R50" t="n">
         <v>1.7</v>
       </c>
-      <c r="R50" t="n">
-        <v>2.1</v>
-      </c>
       <c r="S50" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="T50" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="U50" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="V50" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="W50" t="n">
+        <v>7</v>
+      </c>
+      <c r="X50" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X50" t="n">
-        <v>12</v>
       </c>
       <c r="Y50" t="n">
         <v>9</v>
       </c>
       <c r="Z50" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA50" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE50" t="n">
         <v>17</v>
       </c>
-      <c r="AB50" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>12</v>
-      </c>
       <c r="AF50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG50" t="n">
-        <v>151</v>
+        <v>351</v>
       </c>
       <c r="AH50" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AI50" t="n">
         <v>17</v>
       </c>
       <c r="AJ50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK50" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL50" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM50" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN50" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO50" t="n">
         <v>12</v>
       </c>
       <c r="AP50" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ50" t="n">
         <v>41</v>
       </c>
       <c r="AR50" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>201</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV50" t="n">
         <v>51</v>
       </c>
-      <c r="AS50" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>41</v>
-      </c>
       <c r="AW50" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX50" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AY50" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ50" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA50" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="BB50" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC50" t="n">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="BD50" t="n">
         <v>301</v>
@@ -9584,7 +9580,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>M7OimMLG</t>
+          <t>Aeur7Nbm</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -9599,74 +9595,174 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Yeni Malatyaspor</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
-      <c r="AH51" t="inlineStr"/>
-      <c r="AI51" t="inlineStr"/>
-      <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="inlineStr"/>
-      <c r="AL51" t="inlineStr"/>
-      <c r="AM51" t="inlineStr"/>
-      <c r="AN51" t="inlineStr"/>
-      <c r="AO51" t="inlineStr"/>
-      <c r="AP51" t="inlineStr"/>
-      <c r="AQ51" t="inlineStr"/>
-      <c r="AR51" t="inlineStr"/>
-      <c r="AS51" t="inlineStr"/>
-      <c r="AT51" t="inlineStr"/>
-      <c r="AU51" t="inlineStr"/>
-      <c r="AV51" t="inlineStr"/>
-      <c r="AW51" t="inlineStr"/>
-      <c r="AX51" t="inlineStr"/>
-      <c r="AY51" t="inlineStr"/>
-      <c r="AZ51" t="inlineStr"/>
-      <c r="BA51" t="inlineStr"/>
-      <c r="BB51" t="inlineStr"/>
-      <c r="BC51" t="inlineStr"/>
-      <c r="BD51" t="inlineStr"/>
+          <t>Eyupspor</t>
+        </is>
+      </c>
+      <c r="G51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H51" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J51" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K51" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L51" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N51" t="n">
+        <v>13</v>
+      </c>
+      <c r="O51" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W51" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X51" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>23</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>67</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>MRK8uVJ7</t>
+          <t>M7OimMLG</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -9686,169 +9782,69 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
-        </is>
-      </c>
-      <c r="G52" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="H52" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I52" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K52" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L52" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M52" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N52" t="n">
-        <v>13</v>
-      </c>
-      <c r="O52" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P52" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R52" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T52" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="W52" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X52" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB52" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC52" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD52" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE52" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI52" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ52" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN52" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO52" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP52" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ52" t="n">
-        <v>23</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>34</v>
-      </c>
-      <c r="AZ52" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA52" t="n">
-        <v>101</v>
-      </c>
-      <c r="BB52" t="n">
-        <v>201</v>
-      </c>
-      <c r="BC52" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD52" t="n">
-        <v>151</v>
-      </c>
+          <t>Yeni Malatyaspor</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
+      <c r="AR52" t="inlineStr"/>
+      <c r="AS52" t="inlineStr"/>
+      <c r="AT52" t="inlineStr"/>
+      <c r="AU52" t="inlineStr"/>
+      <c r="AV52" t="inlineStr"/>
+      <c r="AW52" t="inlineStr"/>
+      <c r="AX52" t="inlineStr"/>
+      <c r="AY52" t="inlineStr"/>
+      <c r="AZ52" t="inlineStr"/>
+      <c r="BA52" t="inlineStr"/>
+      <c r="BB52" t="inlineStr"/>
+      <c r="BC52" t="inlineStr"/>
+      <c r="BD52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>W8WWqpte</t>
+          <t>MRK8uVJ7</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -9858,170 +9854,352 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>10:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Vorskla Poltava</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Livyi Bereg</t>
+          <t>Manisa FK</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.72</v>
+        <v>1.55</v>
       </c>
       <c r="H53" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K53" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N53" t="n">
+        <v>13</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T53" t="n">
         <v>3.25</v>
       </c>
-      <c r="I53" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="L53" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N53" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P53" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R53" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T53" t="n">
-        <v>2.25</v>
-      </c>
       <c r="U53" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="V53" t="n">
-        <v>1.53</v>
+        <v>1.91</v>
       </c>
       <c r="W53" t="n">
-        <v>5</v>
+        <v>7.5</v>
       </c>
       <c r="X53" t="n">
-        <v>6.7</v>
+        <v>8</v>
       </c>
       <c r="Y53" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z53" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA53" t="n">
         <v>13</v>
       </c>
-      <c r="AA53" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AB53" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="AC53" t="n">
-        <v>6.8</v>
+        <v>12</v>
       </c>
       <c r="AD53" t="n">
-        <v>6.6</v>
+        <v>8</v>
       </c>
       <c r="AE53" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="AF53" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG53" t="inlineStr"/>
+        <v>51</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>251</v>
+      </c>
       <c r="AH53" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AI53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ53" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK53" t="n">
-        <v>100</v>
+        <v>51</v>
       </c>
       <c r="AL53" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AM53" t="n">
-        <v>80</v>
+        <v>41</v>
       </c>
       <c r="AN53" t="n">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AO53" t="n">
-        <v>8.75</v>
+        <v>8</v>
       </c>
       <c r="AP53" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ53" t="n">
         <v>23</v>
       </c>
-      <c r="AQ53" t="n">
-        <v>32</v>
-      </c>
       <c r="AR53" t="n">
-        <v>90</v>
+        <v>41</v>
       </c>
       <c r="AS53" t="n">
-        <v>400</v>
+        <v>126</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.22</v>
+        <v>3.25</v>
       </c>
       <c r="AU53" t="n">
         <v>8.5</v>
       </c>
       <c r="AV53" t="n">
-        <v>110</v>
+        <v>51</v>
       </c>
       <c r="AW53" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="AX53" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AY53" t="n">
+        <v>34</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>W8WWqpte</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>13/12/2024</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>10:30</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>UKRAINE - PREMIER LEAGUE</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Vorskla Poltava</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Livyi Bereg</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I54" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="J54" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L54" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="M54" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N54" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="O54" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="R54" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S54" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T54" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V54" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W54" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="X54" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB54" t="n">
         <v>40</v>
       </c>
-      <c r="AZ53" t="n">
+      <c r="AC54" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>32</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>80</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>400</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>100</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>32</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ54" t="n">
         <v>200</v>
       </c>
-      <c r="BA53" t="n">
+      <c r="BA54" t="n">
         <v>300</v>
       </c>
-      <c r="BB53" t="n">
+      <c r="BB54" t="n">
         <v>81</v>
       </c>
-      <c r="BC53" t="n">
+      <c r="BC54" t="n">
         <v>81</v>
       </c>
-      <c r="BD53" t="n">
+      <c r="BD54" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BD54"/>
+  <dimension ref="A1:BD53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -750,16 +750,16 @@
         <v>1.42</v>
       </c>
       <c r="H2" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
         <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K2" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
         <v>7</v>
@@ -771,34 +771,34 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S2" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U2" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V2" t="n">
         <v>1.8</v>
       </c>
-      <c r="R2" t="n">
-        <v>2</v>
-      </c>
-      <c r="S2" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T2" t="n">
-        <v>3</v>
-      </c>
-      <c r="U2" t="n">
-        <v>2</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.75</v>
-      </c>
       <c r="W2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
@@ -813,19 +813,19 @@
         <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD2" t="n">
         <v>8.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
@@ -855,16 +855,16 @@
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -876,7 +876,7 @@
         <v>8.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -932,10 +932,10 @@
         <v>2.15</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="R3" t="n">
-        <v>1.99</v>
+        <v>1.98</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1129,10 +1129,10 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O4" t="n">
         <v>1.62</v>
@@ -1333,10 +1333,10 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="V5" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
@@ -1357,7 +1357,7 @@
         <v>29</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD5" t="n">
         <v>6</v>
@@ -1369,7 +1369,7 @@
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH5" t="n">
         <v>10</v>
@@ -1414,7 +1414,7 @@
         <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW5" t="n">
         <v>5.5</v>
@@ -1426,7 +1426,7 @@
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA5" t="n">
         <v>101</v>
@@ -1655,134 +1655,134 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="J7" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
       </c>
       <c r="L7" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U7" t="n">
         <v>2.63</v>
       </c>
-      <c r="M7" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N7" t="n">
+      <c r="V7" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="W7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X7" t="n">
+        <v>26</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>21</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>67</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AD7" t="n">
         <v>7</v>
       </c>
-      <c r="O7" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P7" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="W7" t="n">
-        <v>9</v>
-      </c>
-      <c r="X7" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AE7" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AF7" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="AI7" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN7" t="n">
         <v>7</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AO7" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AP7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR7" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="AS7" t="n">
         <v>501</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AU7" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AX7" t="n">
         <v>10</v>
-      </c>
-      <c r="AV7" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW7" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AX7" t="n">
-        <v>11</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1791,10 +1791,10 @@
         <v>41</v>
       </c>
       <c r="BA7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
@@ -2197,7 +2197,7 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
@@ -2279,13 +2279,13 @@
         <v>7.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ10" t="n">
         <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -2303,7 +2303,7 @@
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR10" t="n">
         <v>81</v>
@@ -2321,7 +2321,7 @@
         <v>101</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
         <v>26</v>
@@ -2377,10 +2377,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I11" t="n">
         <v>2.2</v>
@@ -2389,7 +2389,7 @@
         <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L11" t="n">
         <v>2.75</v>
@@ -2398,7 +2398,7 @@
         <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O11" t="n">
         <v>1.17</v>
@@ -2407,10 +2407,10 @@
         <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R11" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S11" t="n">
         <v>1.29</v>
@@ -2419,13 +2419,13 @@
         <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V11" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W11" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X11" t="n">
         <v>19</v>
@@ -2443,7 +2443,7 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD11" t="n">
         <v>7.5</v>
@@ -2473,7 +2473,7 @@
         <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN11" t="n">
         <v>5.5</v>
@@ -2482,10 +2482,10 @@
         <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2512,16 +2512,16 @@
         <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BC11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2559,85 +2559,85 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L12" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P12" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3</v>
+      </c>
+      <c r="U12" t="n">
         <v>1.67</v>
       </c>
-      <c r="R12" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.57</v>
-      </c>
       <c r="V12" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AA12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB12" t="n">
         <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH12" t="n">
         <v>11</v>
@@ -2646,22 +2646,22 @@
         <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -2676,34 +2676,34 @@
         <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2941,10 +2941,10 @@
         <v>2.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -3111,16 +3111,16 @@
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="J15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
         <v>15</v>
@@ -3165,7 +3165,7 @@
         <v>29</v>
       </c>
       <c r="AA15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
         <v>29</v>
@@ -3186,7 +3186,7 @@
         <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI15" t="n">
         <v>12</v>
@@ -3207,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>23</v>
@@ -3237,13 +3237,13 @@
         <v>13</v>
       </c>
       <c r="AY15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ15" t="n">
         <v>41</v>
       </c>
       <c r="BA15" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB15" t="n">
         <v>151</v>
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="H16" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="I16" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J16" t="n">
         <v>1.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
@@ -3325,10 +3325,10 @@
         <v>4.5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
         <v>12</v>
@@ -3340,46 +3340,46 @@
         <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC16" t="n">
         <v>26</v>
       </c>
       <c r="AD16" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
         <v>251</v>
       </c>
       <c r="AH16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AI16" t="n">
+        <v>51</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>151</v>
+      </c>
+      <c r="AL16" t="n">
         <v>67</v>
       </c>
-      <c r="AJ16" t="n">
-        <v>41</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>201</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>81</v>
-      </c>
       <c r="AM16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN16" t="n">
         <v>3.5</v>
@@ -3418,13 +3418,13 @@
         <v>41</v>
       </c>
       <c r="AZ16" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA16" t="n">
+        <v>151</v>
+      </c>
+      <c r="BB16" t="n">
         <v>251</v>
-      </c>
-      <c r="BA16" t="n">
-        <v>201</v>
-      </c>
-      <c r="BB16" t="n">
-        <v>301</v>
       </c>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
@@ -3639,40 +3639,40 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I18" t="n">
-        <v>4.75</v>
+        <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>2.38</v>
+        <v>2.6</v>
       </c>
       <c r="K18" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L18" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P18" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R18" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S18" t="n">
         <v>1.44</v>
@@ -3681,34 +3681,34 @@
         <v>2.63</v>
       </c>
       <c r="U18" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X18" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB18" t="n">
         <v>29</v>
       </c>
       <c r="AC18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE18" t="n">
         <v>17</v>
@@ -3717,37 +3717,37 @@
         <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP18" t="n">
         <v>21</v>
       </c>
       <c r="AQ18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR18" t="n">
         <v>51</v>
@@ -3765,19 +3765,19 @@
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
         <v>34</v>
       </c>
       <c r="AZ18" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA18" t="n">
         <v>101</v>
-      </c>
-      <c r="BA18" t="n">
-        <v>126</v>
       </c>
       <c r="BB18" t="n">
         <v>251</v>
@@ -3830,13 +3830,13 @@
         <v>12.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="K19" t="n">
         <v>2.72</v>
       </c>
       <c r="L19" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3860,7 +3860,7 @@
         <v>1.27</v>
       </c>
       <c r="T19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="U19" t="n">
         <v>2.1</v>
@@ -3881,7 +3881,7 @@
         <v>7.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB19" t="n">
         <v>35</v>
@@ -3914,7 +3914,7 @@
         <v>500</v>
       </c>
       <c r="AL19" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AM19" t="n">
         <v>150</v>
@@ -3929,19 +3929,19 @@
         <v>15.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AR19" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AS19" t="n">
         <v>200</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AV19" t="n">
         <v>90</v>
@@ -4015,16 +4015,16 @@
         <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
         <v>2.2</v>
@@ -4141,10 +4141,10 @@
         <v>301</v>
       </c>
       <c r="BC20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21">
@@ -4179,28 +4179,28 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="H21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I21" t="n">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -4221,25 +4221,25 @@
         <v>2.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W21" t="n">
         <v>6.5</v>
       </c>
       <c r="X21" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AA21" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
@@ -4248,7 +4248,7 @@
         <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE21" t="n">
         <v>17</v>
@@ -4260,31 +4260,31 @@
         <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>15</v>
       </c>
-      <c r="AJ21" t="n">
-        <v>13</v>
-      </c>
       <c r="AK21" t="n">
         <v>41</v>
       </c>
       <c r="AL21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO21" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -4305,22 +4305,22 @@
         <v>67</v>
       </c>
       <c r="AW21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY21" t="n">
         <v>34</v>
       </c>
       <c r="AZ21" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA21" t="n">
         <v>101</v>
       </c>
       <c r="BB21" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4361,28 +4361,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
         <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -4391,10 +4391,10 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
         <v>1.5</v>
@@ -4409,16 +4409,16 @@
         <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
@@ -4442,13 +4442,13 @@
         <v>301</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
         <v>34</v>
@@ -4469,7 +4469,7 @@
         <v>26</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
         <v>67</v>
@@ -4490,16 +4490,16 @@
         <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
         <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB22" t="n">
         <v>251</v>
@@ -4543,73 +4543,73 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H23" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
         <v>3.4</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O23" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P23" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="R23" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V23" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W23" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z23" t="n">
         <v>23</v>
       </c>
       <c r="AA23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC23" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
@@ -4621,16 +4621,16 @@
         <v>41</v>
       </c>
       <c r="AG23" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
         <v>29</v>
@@ -4639,7 +4639,7 @@
         <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN23" t="n">
         <v>4.5</v>
@@ -4648,28 +4648,28 @@
         <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV23" t="n">
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX23" t="n">
         <v>15</v>
@@ -4725,16 +4725,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J24" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
@@ -4743,43 +4743,43 @@
         <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P24" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R24" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z24" t="n">
         <v>12</v>
@@ -4791,46 +4791,46 @@
         <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
       </c>
       <c r="AF24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG24" t="n">
         <v>1250</v>
       </c>
       <c r="AH24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI24" t="n">
         <v>26</v>
       </c>
       <c r="AJ24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK24" t="n">
         <v>51</v>
       </c>
       <c r="AL24" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM24" t="n">
         <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
         <v>29</v>
@@ -4842,10 +4842,10 @@
         <v>201</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>67</v>
@@ -4854,7 +4854,7 @@
         <v>7</v>
       </c>
       <c r="AX24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY24" t="n">
         <v>41</v>
@@ -4910,55 +4910,55 @@
         <v>1.53</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>5.75</v>
+        <v>5.25</v>
       </c>
       <c r="J25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="R25" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T25" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U25" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V25" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X25" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y25" t="n">
         <v>8.5</v>
@@ -4967,88 +4967,88 @@
         <v>11</v>
       </c>
       <c r="AA25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH25" t="n">
         <v>15</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>1250</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>13</v>
       </c>
       <c r="AI25" t="n">
         <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK25" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM25" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO25" t="n">
         <v>8</v>
       </c>
       <c r="AP25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR25" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU25" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AV25" t="n">
         <v>51</v>
-      </c>
-      <c r="AS25" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT25" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU25" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV25" t="n">
-        <v>67</v>
       </c>
       <c r="AW25" t="n">
         <v>7.5</v>
       </c>
       <c r="AX25" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY25" t="n">
         <v>34</v>
       </c>
-      <c r="AY25" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ25" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA25" t="n">
         <v>126</v>
       </c>
-      <c r="BA25" t="n">
-        <v>151</v>
-      </c>
       <c r="BB25" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>
@@ -5092,7 +5092,7 @@
         <v>1.62</v>
       </c>
       <c r="H26" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I26" t="n">
         <v>4.75</v>
@@ -5110,34 +5110,34 @@
         <v>1.03</v>
       </c>
       <c r="N26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R26" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="S26" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="T26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="U26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W26" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="X26" t="n">
         <v>9</v>
@@ -5155,10 +5155,10 @@
         <v>21</v>
       </c>
       <c r="AC26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>15</v>
@@ -5170,7 +5170,7 @@
         <v>151</v>
       </c>
       <c r="AH26" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI26" t="n">
         <v>26</v>
@@ -5206,22 +5206,22 @@
         <v>101</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU26" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX26" t="n">
         <v>23</v>
       </c>
       <c r="AY26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ26" t="n">
         <v>81</v>
@@ -5292,7 +5292,7 @@
         <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O27" t="n">
         <v>1.18</v>
@@ -5477,16 +5477,16 @@
         <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P28" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R28" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S28" t="n">
         <v>1.3</v>
@@ -5635,28 +5635,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I29" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="J29" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K29" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L29" t="n">
         <v>3.1</v>
       </c>
       <c r="M29" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O29" t="n">
         <v>1.2</v>
@@ -5701,7 +5701,7 @@
         <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD29" t="n">
         <v>7</v>
@@ -5719,7 +5719,7 @@
         <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ29" t="n">
         <v>10</v>
@@ -5990,19 +5990,19 @@
         <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I31" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="K31" t="n">
         <v>2.22</v>
       </c>
       <c r="L31" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
@@ -6014,7 +6014,7 @@
         <v>1.3</v>
       </c>
       <c r="P31" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q31" t="n">
         <v>1.88</v>
@@ -6062,25 +6062,25 @@
         <v>19.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AG31" t="n">
         <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AI31" t="n">
         <v>40</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
         <v>150</v>
       </c>
       <c r="AL31" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AM31" t="n">
         <v>75</v>
@@ -6089,43 +6089,43 @@
         <v>3.25</v>
       </c>
       <c r="AO31" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AP31" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AR31" t="n">
         <v>50</v>
       </c>
       <c r="AS31" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AU31" t="n">
         <v>7.8</v>
       </c>
       <c r="AV31" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AW31" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AX31" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AY31" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AZ31" t="n">
         <v>250</v>
       </c>
       <c r="BA31" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB31" t="n">
         <v>500</v>
@@ -6165,40 +6165,40 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H32" t="n">
         <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K32" t="n">
         <v>2</v>
       </c>
       <c r="L32" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P32" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S32" t="n">
         <v>1.5</v>
@@ -6207,22 +6207,22 @@
         <v>2.5</v>
       </c>
       <c r="U32" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W32" t="n">
         <v>6.5</v>
       </c>
       <c r="X32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y32" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA32" t="n">
         <v>19</v>
@@ -6231,7 +6231,7 @@
         <v>34</v>
       </c>
       <c r="AC32" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD32" t="n">
         <v>6</v>
@@ -6246,10 +6246,10 @@
         <v>401</v>
       </c>
       <c r="AH32" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ32" t="n">
         <v>13</v>
@@ -6270,7 +6270,7 @@
         <v>12</v>
       </c>
       <c r="AP32" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ32" t="n">
         <v>41</v>
@@ -6300,13 +6300,13 @@
         <v>34</v>
       </c>
       <c r="AZ32" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA32" t="n">
         <v>101</v>
       </c>
       <c r="BB32" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC32" t="n">
         <v>81</v>
@@ -6318,189 +6318,185 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>ERlHjIYA</t>
+          <t>WUeNIOGk</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>12/12/2024</t>
+          <t>13/12/2024</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>23:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>MEXICO - LIGA MX</t>
+          <t>MOROCCO - BOTOLA PRO</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Club America</t>
+          <t>Hassania Agadir</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Monterrey</t>
+          <t>FUS Rabat</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1.95</v>
+        <v>5</v>
       </c>
       <c r="H33" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I33" t="n">
-        <v>4.33</v>
+        <v>1.75</v>
       </c>
       <c r="J33" t="n">
-        <v>2.63</v>
+        <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L33" t="n">
-        <v>4.75</v>
+        <v>2.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="O33" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="P33" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="R33" t="n">
-        <v>1.65</v>
+        <v>1.48</v>
       </c>
       <c r="S33" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T33" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U33" t="n">
-        <v>1.95</v>
+        <v>2.38</v>
       </c>
       <c r="V33" t="n">
-        <v>1.8</v>
+        <v>1.53</v>
       </c>
       <c r="W33" t="n">
+        <v>10</v>
+      </c>
+      <c r="X33" t="n">
+        <v>23</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AD33" t="n">
         <v>6.5</v>
       </c>
-      <c r="X33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Y33" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB33" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC33" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AD33" t="n">
+      <c r="AE33" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG33" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH33" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI33" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK33" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL33" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN33" t="n">
         <v>6</v>
       </c>
-      <c r="AE33" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF33" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>10</v>
-      </c>
-      <c r="AI33" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ33" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN33" t="n">
+      <c r="AO33" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ33" t="n">
+        <v>101</v>
+      </c>
+      <c r="AR33" t="n">
+        <v>151</v>
+      </c>
+      <c r="AS33" t="n">
+        <v>351</v>
+      </c>
+      <c r="AT33" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU33" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV33" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW33" t="n">
         <v>3.75</v>
       </c>
-      <c r="AO33" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP33" t="n">
-        <v>23</v>
-      </c>
-      <c r="AQ33" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AS33" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU33" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV33" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW33" t="n">
-        <v>6</v>
-      </c>
       <c r="AX33" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AY33" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ33" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA33" t="n">
         <v>81</v>
-      </c>
-      <c r="BA33" t="n">
-        <v>126</v>
       </c>
       <c r="BB33" t="n">
         <v>301</v>
       </c>
-      <c r="BC33" t="n">
-        <v>126</v>
-      </c>
-      <c r="BD33" t="n">
-        <v>126</v>
-      </c>
+      <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WUeNIOGk</t>
+          <t>rDqpPR04</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -6515,170 +6511,174 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>MOROCCO - BOTOLA PRO</t>
+          <t>NETHERLANDS - EERSTE DIVISIE</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Hassania Agadir</t>
+          <t>De Graafschap</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>FUS Rabat</t>
+          <t>Cambuur</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="H34" t="n">
-        <v>2.88</v>
+        <v>4</v>
       </c>
       <c r="I34" t="n">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="J34" t="n">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="K34" t="n">
-        <v>1.91</v>
+        <v>2.5</v>
       </c>
       <c r="L34" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="M34" t="n">
-        <v>1.13</v>
+        <v>1.02</v>
       </c>
       <c r="N34" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="O34" t="n">
-        <v>1.53</v>
+        <v>1.14</v>
       </c>
       <c r="P34" t="n">
-        <v>2.38</v>
+        <v>5.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>2.7</v>
+        <v>1.48</v>
       </c>
       <c r="R34" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S34" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U34" t="n">
         <v>1.44</v>
       </c>
-      <c r="S34" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="T34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U34" t="n">
-        <v>2.25</v>
-      </c>
       <c r="V34" t="n">
-        <v>1.57</v>
+        <v>2.63</v>
       </c>
       <c r="W34" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="X34" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z34" t="n">
         <v>21</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="AA34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP34" t="n">
         <v>17</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AQ34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS34" t="n">
+        <v>81</v>
+      </c>
+      <c r="AT34" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AU34" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ34" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA34" t="n">
         <v>51</v>
       </c>
-      <c r="AA34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AB34" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>6</v>
-      </c>
-      <c r="AD34" t="n">
-        <v>6</v>
-      </c>
-      <c r="AE34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG34" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH34" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AI34" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK34" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>41</v>
-      </c>
-      <c r="AQ34" t="n">
+      <c r="BB34" t="n">
         <v>101</v>
       </c>
-      <c r="AR34" t="n">
+      <c r="BC34" t="n">
+        <v>251</v>
+      </c>
+      <c r="BD34" t="n">
         <v>151</v>
       </c>
-      <c r="AS34" t="n">
-        <v>351</v>
-      </c>
-      <c r="AT34" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="AU34" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV34" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW34" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AX34" t="n">
-        <v>12</v>
-      </c>
-      <c r="AY34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ34" t="n">
-        <v>41</v>
-      </c>
-      <c r="BA34" t="n">
-        <v>81</v>
-      </c>
-      <c r="BB34" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC34" t="inlineStr"/>
-      <c r="BD34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>rDqpPR04</t>
+          <t>Chy1Lq0T</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -6698,37 +6698,37 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>De Graafschap</t>
+          <t>Den Bosch</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Cambuur</t>
+          <t>Jong PSV</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.2</v>
+        <v>1.62</v>
       </c>
       <c r="H35" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I35" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="J35" t="n">
-        <v>2.75</v>
+        <v>2.1</v>
       </c>
       <c r="K35" t="n">
         <v>2.5</v>
       </c>
       <c r="L35" t="n">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M35" t="n">
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O35" t="n">
         <v>1.13</v>
@@ -6737,10 +6737,10 @@
         <v>6</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R35" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S35" t="n">
         <v>1.25</v>
@@ -6749,25 +6749,25 @@
         <v>3.75</v>
       </c>
       <c r="U35" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V35" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W35" t="n">
+        <v>11</v>
+      </c>
+      <c r="X35" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z35" t="n">
         <v>13</v>
       </c>
-      <c r="X35" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="Z35" t="n">
-        <v>21</v>
-      </c>
       <c r="AA35" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AB35" t="n">
         <v>19</v>
@@ -6776,46 +6776,46 @@
         <v>21</v>
       </c>
       <c r="AD35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF35" t="n">
+        <v>34</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>101</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI35" t="n">
         <v>29</v>
       </c>
-      <c r="AG35" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH35" t="n">
+      <c r="AJ35" t="n">
         <v>15</v>
       </c>
-      <c r="AI35" t="n">
-        <v>19</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>11</v>
-      </c>
       <c r="AK35" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL35" t="n">
         <v>29</v>
       </c>
-      <c r="AL35" t="n">
-        <v>19</v>
-      </c>
       <c r="AM35" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AN35" t="n">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AO35" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AP35" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ35" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AR35" t="n">
         <v>41</v>
@@ -6827,31 +6827,31 @@
         <v>3.75</v>
       </c>
       <c r="AU35" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW35" t="n">
         <v>7</v>
       </c>
-      <c r="AV35" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW35" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AX35" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AY35" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AZ35" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="BA35" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB35" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC35" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD35" t="n">
         <v>151</v>
@@ -6860,7 +6860,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Chy1Lq0T</t>
+          <t>nojyRmWi</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -6880,31 +6880,31 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Den Bosch</t>
+          <t>Den Haag</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Jong PSV</t>
+          <t>Maastricht</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I36" t="n">
-        <v>4.5</v>
+        <v>5.75</v>
       </c>
       <c r="J36" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K36" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L36" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
@@ -6925,34 +6925,34 @@
         <v>2.7</v>
       </c>
       <c r="S36" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T36" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U36" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V36" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W36" t="n">
         <v>11</v>
       </c>
       <c r="X36" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
       </c>
       <c r="Z36" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA36" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="n">
         <v>21</v>
@@ -6964,70 +6964,70 @@
         <v>13</v>
       </c>
       <c r="AF36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG36" t="n">
         <v>101</v>
       </c>
       <c r="AH36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>19</v>
       </c>
-      <c r="AI36" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ36" t="n">
-        <v>15</v>
-      </c>
       <c r="AK36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL36" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AM36" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN36" t="n">
         <v>4</v>
       </c>
       <c r="AO36" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP36" t="n">
         <v>15</v>
       </c>
       <c r="AQ36" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AR36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS36" t="n">
         <v>81</v>
       </c>
       <c r="AT36" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV36" t="n">
         <v>41</v>
       </c>
       <c r="AW36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX36" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY36" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA36" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB36" t="n">
         <v>126</v>
@@ -7042,7 +7042,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>nojyRmWi</t>
+          <t>SItWFNNj</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -7062,85 +7062,85 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Den Haag</t>
+          <t>Eindhoven FC</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Maastricht</t>
+          <t>Venlo</t>
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="H37" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="I37" t="n">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="J37" t="n">
-        <v>1.95</v>
+        <v>2.5</v>
       </c>
       <c r="K37" t="n">
-        <v>2.63</v>
+        <v>2.3</v>
       </c>
       <c r="L37" t="n">
-        <v>5</v>
+        <v>4.33</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="O37" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="P37" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="R37" t="n">
-        <v>2.7</v>
+        <v>2.1</v>
       </c>
       <c r="S37" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="T37" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="U37" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V37" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W37" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="X37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y37" t="n">
         <v>8.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AA37" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AB37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC37" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AD37" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AE37" t="n">
         <v>13</v>
@@ -7149,22 +7149,22 @@
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH37" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AI37" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AJ37" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AK37" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AL37" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AM37" t="n">
         <v>34</v>
@@ -7173,49 +7173,49 @@
         <v>4</v>
       </c>
       <c r="AO37" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="AP37" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AQ37" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AR37" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AS37" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT37" t="n">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="AU37" t="n">
         <v>7.5</v>
       </c>
       <c r="AV37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>7.5</v>
+        <v>6</v>
       </c>
       <c r="AX37" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AY37" t="n">
         <v>26</v>
       </c>
       <c r="AZ37" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA37" t="n">
         <v>81</v>
       </c>
       <c r="BB37" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC37" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD37" t="n">
         <v>151</v>
@@ -7224,7 +7224,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SItWFNNj</t>
+          <t>GQshN5VG</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -7244,103 +7244,103 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Eindhoven FC</t>
+          <t>Excelsior</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Venlo</t>
+          <t>FC Volendam</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="H38" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="K38" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="L38" t="n">
         <v>4</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="N38" t="n">
+        <v>21</v>
+      </c>
+      <c r="O38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P38" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="T38" t="n">
+        <v>4</v>
+      </c>
+      <c r="U38" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W38" t="n">
         <v>13</v>
       </c>
-      <c r="O38" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P38" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R38" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S38" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T38" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U38" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W38" t="n">
+      <c r="X38" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y38" t="n">
         <v>9</v>
-      </c>
-      <c r="X38" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y38" t="n">
-        <v>8.5</v>
       </c>
       <c r="Z38" t="n">
         <v>17</v>
       </c>
       <c r="AA38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>29</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ38" t="n">
         <v>15</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD38" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF38" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG38" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AI38" t="n">
-        <v>21</v>
-      </c>
-      <c r="AJ38" t="n">
-        <v>13</v>
       </c>
       <c r="AK38" t="n">
         <v>41</v>
@@ -7349,55 +7349,55 @@
         <v>26</v>
       </c>
       <c r="AM38" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN38" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>67</v>
+      </c>
+      <c r="AT38" t="n">
         <v>4</v>
       </c>
-      <c r="AO38" t="n">
-        <v>10</v>
-      </c>
-      <c r="AP38" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ38" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR38" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS38" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT38" t="n">
-        <v>3.25</v>
-      </c>
       <c r="AU38" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV38" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW38" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AX38" t="n">
         <v>19</v>
       </c>
       <c r="AY38" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AZ38" t="n">
         <v>51</v>
       </c>
       <c r="BA38" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="BB38" t="n">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="BC38" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BD38" t="n">
         <v>151</v>
@@ -7406,7 +7406,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>GQshN5VG</t>
+          <t>8EJIwRFc</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -7426,133 +7426,133 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Excelsior</t>
+          <t>Jong AZ</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>FC Volendam</t>
+          <t>FC Emmen</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="I39" t="n">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="J39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K39" t="n">
         <v>2.3</v>
       </c>
-      <c r="K39" t="n">
-        <v>2.6</v>
-      </c>
       <c r="L39" t="n">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="P39" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="R39" t="n">
-        <v>2.88</v>
+        <v>2.25</v>
       </c>
       <c r="S39" t="n">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="T39" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="U39" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="V39" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W39" t="n">
         <v>13</v>
       </c>
       <c r="X39" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE39" t="n">
         <v>12</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="AF39" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ39" t="n">
         <v>9</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AK39" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL39" t="n">
         <v>17</v>
       </c>
-      <c r="AA39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB39" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC39" t="n">
+      <c r="AM39" t="n">
         <v>21</v>
       </c>
-      <c r="AD39" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE39" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF39" t="n">
-        <v>29</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>81</v>
-      </c>
-      <c r="AH39" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ39" t="n">
-        <v>13</v>
-      </c>
-      <c r="AK39" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM39" t="n">
-        <v>26</v>
-      </c>
       <c r="AN39" t="n">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="AO39" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AP39" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AQ39" t="n">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="AR39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS39" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AT39" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="AU39" t="n">
         <v>7</v>
@@ -7561,16 +7561,16 @@
         <v>41</v>
       </c>
       <c r="AW39" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AX39" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY39" t="n">
         <v>19</v>
       </c>
-      <c r="AY39" t="n">
-        <v>21</v>
-      </c>
       <c r="AZ39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA39" t="n">
         <v>51</v>
@@ -7579,7 +7579,7 @@
         <v>101</v>
       </c>
       <c r="BC39" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD39" t="n">
         <v>151</v>
@@ -7588,7 +7588,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>8EJIwRFc</t>
+          <t>8x25UMxp</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -7608,124 +7608,124 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Jong AZ</t>
+          <t>Oss</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>FC Emmen</t>
+          <t>Jong Ajax</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>2.45</v>
       </c>
       <c r="H40" t="n">
         <v>3.75</v>
       </c>
       <c r="I40" t="n">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="J40" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="L40" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U40" t="n">
         <v>1.53</v>
       </c>
-      <c r="R40" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T40" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V40" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W40" t="n">
+        <v>11</v>
+      </c>
+      <c r="X40" t="n">
         <v>15</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Y40" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AA40" t="n">
         <v>19</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA40" t="n">
-        <v>21</v>
       </c>
       <c r="AB40" t="n">
         <v>23</v>
       </c>
       <c r="AC40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD40" t="n">
         <v>7.5</v>
       </c>
       <c r="AE40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH40" t="n">
         <v>11</v>
       </c>
-      <c r="AF40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH40" t="n">
-        <v>12</v>
-      </c>
       <c r="AI40" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>10</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AO40" t="n">
         <v>13</v>
       </c>
-      <c r="AJ40" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL40" t="n">
-        <v>15</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>15</v>
-      </c>
       <c r="AP40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ40" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR40" t="n">
         <v>51</v>
@@ -7734,7 +7734,7 @@
         <v>101</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU40" t="n">
         <v>7</v>
@@ -7743,25 +7743,25 @@
         <v>41</v>
       </c>
       <c r="AW40" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AX40" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AY40" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ40" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA40" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB40" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC40" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD40" t="n">
         <v>151</v>
@@ -7770,7 +7770,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8x25UMxp</t>
+          <t>GvNQy5pA</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -7790,85 +7790,85 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Oss</t>
+          <t>Roda</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Jong Ajax</t>
+          <t>Dordrecht</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.45</v>
+        <v>1.83</v>
       </c>
       <c r="H41" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I41" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J41" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K41" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L41" t="n">
         <v>3.75</v>
       </c>
-      <c r="I41" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="J41" t="n">
-        <v>3</v>
-      </c>
-      <c r="K41" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L41" t="n">
-        <v>3.1</v>
-      </c>
       <c r="M41" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N41" t="n">
+        <v>19</v>
+      </c>
+      <c r="O41" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="P41" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="R41" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W41" t="n">
+        <v>12</v>
+      </c>
+      <c r="X41" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z41" t="n">
         <v>17</v>
       </c>
-      <c r="O41" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P41" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T41" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U41" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W41" t="n">
-        <v>11</v>
-      </c>
-      <c r="X41" t="n">
-        <v>15</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z41" t="n">
-        <v>23</v>
-      </c>
       <c r="AA41" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AB41" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AC41" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AD41" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE41" t="n">
         <v>12</v>
@@ -7877,46 +7877,46 @@
         <v>34</v>
       </c>
       <c r="AG41" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH41" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ41" t="n">
         <v>12</v>
       </c>
-      <c r="AI41" t="n">
-        <v>15</v>
-      </c>
-      <c r="AJ41" t="n">
-        <v>10</v>
-      </c>
       <c r="AK41" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AL41" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM41" t="n">
         <v>23</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO41" t="n">
-        <v>13</v>
+        <v>9.5</v>
       </c>
       <c r="AP41" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AQ41" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AR41" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS41" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT41" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AU41" t="n">
         <v>7</v>
@@ -7925,16 +7925,16 @@
         <v>41</v>
       </c>
       <c r="AW41" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX41" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AY41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ41" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA41" t="n">
         <v>51</v>
@@ -7943,7 +7943,7 @@
         <v>101</v>
       </c>
       <c r="BC41" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD41" t="n">
         <v>151</v>
@@ -7952,7 +7952,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>GvNQy5pA</t>
+          <t>C6GZZrFM</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -7972,160 +7972,160 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Roda</t>
+          <t>Telstar</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Dordrecht</t>
+          <t>Helmond</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.83</v>
+        <v>1.53</v>
       </c>
       <c r="H42" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I42" t="n">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="J42" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="K42" t="n">
         <v>2.5</v>
       </c>
       <c r="L42" t="n">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M42" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O42" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P42" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="R42" t="n">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="S42" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T42" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U42" t="n">
-        <v>1.44</v>
+        <v>1.67</v>
       </c>
       <c r="V42" t="n">
-        <v>2.63</v>
+        <v>2.1</v>
       </c>
       <c r="W42" t="n">
+        <v>9</v>
+      </c>
+      <c r="X42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z42" t="n">
         <v>12</v>
       </c>
-      <c r="X42" t="n">
+      <c r="AA42" t="n">
         <v>12</v>
       </c>
-      <c r="Y42" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z42" t="n">
+      <c r="AB42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC42" t="n">
         <v>17</v>
-      </c>
-      <c r="AA42" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC42" t="n">
-        <v>21</v>
       </c>
       <c r="AD42" t="n">
         <v>8.5</v>
       </c>
       <c r="AE42" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AF42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AH42" t="n">
         <v>17</v>
       </c>
       <c r="AI42" t="n">
+        <v>29</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>17</v>
+      </c>
+      <c r="AQ42" t="n">
         <v>21</v>
       </c>
-      <c r="AJ42" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM42" t="n">
-        <v>23</v>
-      </c>
-      <c r="AN42" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO42" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AP42" t="n">
-        <v>15</v>
-      </c>
-      <c r="AQ42" t="n">
+      <c r="AR42" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY42" t="n">
         <v>29</v>
       </c>
-      <c r="AR42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS42" t="n">
+      <c r="AZ42" t="n">
         <v>81</v>
       </c>
-      <c r="AT42" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="AU42" t="n">
-        <v>7</v>
-      </c>
-      <c r="AV42" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW42" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX42" t="n">
-        <v>19</v>
-      </c>
-      <c r="AY42" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ42" t="n">
-        <v>51</v>
-      </c>
       <c r="BA42" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BB42" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BC42" t="n">
-        <v>301</v>
+        <v>126</v>
       </c>
       <c r="BD42" t="n">
         <v>151</v>
@@ -8134,7 +8134,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>C6GZZrFM</t>
+          <t>SvI6S07d</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -8154,31 +8154,31 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Telstar</t>
+          <t>Vitesse</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Helmond</t>
+          <t>Jong Utrecht</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.62</v>
+        <v>1.75</v>
       </c>
       <c r="H43" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I43" t="n">
         <v>4.2</v>
       </c>
-      <c r="I43" t="n">
-        <v>4.75</v>
-      </c>
       <c r="J43" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K43" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L43" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -8193,10 +8193,10 @@
         <v>4.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R43" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S43" t="n">
         <v>1.3</v>
@@ -8205,25 +8205,25 @@
         <v>3.4</v>
       </c>
       <c r="U43" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V43" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="X43" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
       </c>
       <c r="Z43" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA43" t="n">
         <v>13</v>
-      </c>
-      <c r="AA43" t="n">
-        <v>12</v>
       </c>
       <c r="AB43" t="n">
         <v>21</v>
@@ -8232,7 +8232,7 @@
         <v>15</v>
       </c>
       <c r="AD43" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE43" t="n">
         <v>13</v>
@@ -8241,37 +8241,37 @@
         <v>41</v>
       </c>
       <c r="AG43" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH43" t="n">
         <v>17</v>
       </c>
       <c r="AI43" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ43" t="n">
         <v>15</v>
       </c>
       <c r="AK43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM43" t="n">
         <v>34</v>
       </c>
       <c r="AN43" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO43" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP43" t="n">
         <v>17</v>
       </c>
       <c r="AQ43" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AR43" t="n">
         <v>41</v>
@@ -8289,16 +8289,16 @@
         <v>41</v>
       </c>
       <c r="AW43" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX43" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY43" t="n">
         <v>26</v>
       </c>
       <c r="AZ43" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA43" t="n">
         <v>81</v>
@@ -8307,7 +8307,7 @@
         <v>151</v>
       </c>
       <c r="BC43" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD43" t="n">
         <v>151</v>
@@ -8316,7 +8316,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SvI6S07d</t>
+          <t>p2JppvKO</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -8326,179 +8326,179 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>16:45</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>NETHERLANDS - EERSTE DIVISIE</t>
+          <t>SCOTLAND - CHAMPIONSHIP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Vitesse</t>
+          <t>Livingston</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Jong Utrecht</t>
+          <t>Partick Thistle</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.75</v>
+        <v>2.35</v>
       </c>
       <c r="H44" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="J44" t="n">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="K44" t="n">
-        <v>2.38</v>
+        <v>2</v>
       </c>
       <c r="L44" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M44" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N44" t="n">
+        <v>8</v>
+      </c>
+      <c r="O44" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R44" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S44" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U44" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V44" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X44" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>21</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>800</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN44" t="n">
         <v>4.33</v>
       </c>
-      <c r="M44" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N44" t="n">
+      <c r="AO44" t="n">
         <v>15</v>
       </c>
-      <c r="O44" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P44" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S44" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T44" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U44" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V44" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W44" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X44" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y44" t="n">
+      <c r="AP44" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AU44" t="n">
         <v>8.5</v>
       </c>
-      <c r="Z44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD44" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE44" t="n">
-        <v>13</v>
-      </c>
-      <c r="AF44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG44" t="n">
-        <v>126</v>
-      </c>
-      <c r="AH44" t="n">
+      <c r="AV44" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX44" t="n">
         <v>17</v>
       </c>
-      <c r="AI44" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ44" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AL44" t="n">
+      <c r="AY44" t="n">
         <v>29</v>
       </c>
-      <c r="AM44" t="n">
-        <v>34</v>
-      </c>
-      <c r="AN44" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO44" t="n">
-        <v>9</v>
-      </c>
-      <c r="AP44" t="n">
-        <v>17</v>
-      </c>
-      <c r="AQ44" t="n">
-        <v>29</v>
-      </c>
-      <c r="AR44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS44" t="n">
-        <v>101</v>
-      </c>
-      <c r="AT44" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AU44" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV44" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW44" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY44" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ44" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA44" t="n">
         <v>81</v>
       </c>
       <c r="BB44" t="n">
-        <v>151</v>
+        <v>300</v>
       </c>
       <c r="BC44" t="n">
-        <v>351</v>
+        <v>81</v>
       </c>
       <c r="BD44" t="n">
-        <v>151</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>p2JppvKO</t>
+          <t>GYZAgiZg</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -8508,143 +8508,143 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16:45</t>
+          <t>16:30</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>SCOTLAND - CHAMPIONSHIP</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Livingston</t>
+          <t>Almeria</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Partick Thistle</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>2.3</v>
+        <v>1.62</v>
       </c>
       <c r="H45" t="n">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="J45" t="n">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="K45" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L45" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N45" t="n">
+        <v>11</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q45" t="n">
         <v>2</v>
       </c>
-      <c r="L45" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M45" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N45" t="n">
+      <c r="R45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V45" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="W45" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X45" t="n">
         <v>7.5</v>
       </c>
-      <c r="O45" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P45" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="W45" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="X45" t="n">
-        <v>11</v>
-      </c>
       <c r="Y45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>12</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC45" t="n">
         <v>10</v>
       </c>
-      <c r="Z45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>8</v>
-      </c>
       <c r="AD45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AE45" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF45" t="n">
         <v>51</v>
       </c>
       <c r="AG45" t="n">
-        <v>800</v>
+        <v>301</v>
       </c>
       <c r="AH45" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI45" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ45" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AK45" t="n">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="AL45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ45" t="n">
         <v>26</v>
       </c>
-      <c r="AM45" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>13</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>26</v>
-      </c>
-      <c r="AQ45" t="n">
-        <v>41</v>
-      </c>
       <c r="AR45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS45" t="n">
         <v>151</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU45" t="n">
         <v>8.5</v>
@@ -8653,22 +8653,22 @@
         <v>51</v>
       </c>
       <c r="AW45" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AX45" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AY45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ45" t="n">
-        <v>51</v>
+        <v>101</v>
       </c>
       <c r="BA45" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="BB45" t="n">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="BC45" t="n">
         <v>81</v>
@@ -8680,7 +8680,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>GYZAgiZg</t>
+          <t>bLHb7vo1</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -8690,179 +8690,175 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>16:30</t>
+          <t>15:30</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Lausanne Ouchy</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Thun</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1.62</v>
+        <v>2.75</v>
       </c>
       <c r="H46" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="I46" t="n">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="J46" t="n">
-        <v>2.2</v>
+        <v>3.2</v>
       </c>
       <c r="K46" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L46" t="n">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="M46" t="n">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="P46" t="n">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.98</v>
+        <v>1.57</v>
       </c>
       <c r="R46" t="n">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="S46" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="T46" t="n">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="U46" t="n">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="V46" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="W46" t="n">
+        <v>12</v>
+      </c>
+      <c r="X46" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>20</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>40</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>200</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>11</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>24</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>75</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>175</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AU46" t="n">
         <v>6.5</v>
       </c>
-      <c r="X46" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="Y46" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC46" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD46" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG46" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH46" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI46" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ46" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL46" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM46" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN46" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AO46" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP46" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ46" t="n">
-        <v>26</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>151</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>8.5</v>
-      </c>
       <c r="AV46" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="AW46" t="n">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="AX46" t="n">
-        <v>29</v>
+        <v>11.25</v>
       </c>
       <c r="AY46" t="n">
-        <v>34</v>
+        <v>16.5</v>
       </c>
       <c r="AZ46" t="n">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="BA46" t="n">
-        <v>126</v>
+        <v>60</v>
       </c>
       <c r="BB46" t="n">
-        <v>301</v>
-      </c>
-      <c r="BC46" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD46" t="n">
-        <v>81</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="BC46" t="inlineStr"/>
+      <c r="BD46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>bLHb7vo1</t>
+          <t>jeEj90Gl</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -8882,157 +8878,157 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Lausanne Ouchy</t>
+          <t>Schaffhausen</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Thun</t>
+          <t>Stade Nyonnais</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2.75</v>
+        <v>1.88</v>
       </c>
       <c r="H47" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I47" t="n">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="J47" t="n">
-        <v>3.2</v>
+        <v>2.42</v>
       </c>
       <c r="K47" t="n">
         <v>2.3</v>
       </c>
       <c r="L47" t="n">
-        <v>2.75</v>
+        <v>3.85</v>
       </c>
       <c r="M47" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="O47" t="n">
         <v>1.19</v>
       </c>
       <c r="P47" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S47" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="T47" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="U47" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="V47" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="W47" t="n">
-        <v>12</v>
+        <v>9.5</v>
       </c>
       <c r="X47" t="n">
-        <v>16.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y47" t="n">
-        <v>10.25</v>
+        <v>8.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="AA47" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB47" t="n">
         <v>20</v>
       </c>
-      <c r="AB47" t="n">
-        <v>23</v>
-      </c>
       <c r="AC47" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AD47" t="n">
         <v>7.4</v>
       </c>
       <c r="AE47" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF47" t="n">
         <v>40</v>
       </c>
       <c r="AG47" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH47" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AI47" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AJ47" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AK47" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="AL47" t="n">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="AM47" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AN47" t="n">
-        <v>5</v>
+        <v>4.05</v>
       </c>
       <c r="AO47" t="n">
-        <v>14</v>
+        <v>9.25</v>
       </c>
       <c r="AP47" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AR47" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AS47" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU47" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AV47" t="n">
         <v>45</v>
       </c>
       <c r="AW47" t="n">
-        <v>4.5</v>
+        <v>5.8</v>
       </c>
       <c r="AX47" t="n">
-        <v>11.25</v>
+        <v>18.5</v>
       </c>
       <c r="AY47" t="n">
-        <v>16.5</v>
+        <v>21</v>
       </c>
       <c r="AZ47" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="BA47" t="n">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="BB47" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="BC47" t="inlineStr"/>
       <c r="BD47" t="inlineStr"/>
@@ -9040,7 +9036,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>jeEj90Gl</t>
+          <t>dfdIR8WF</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -9050,7 +9046,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15:30</t>
+          <t>16:15</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -9060,165 +9056,167 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Schaffhausen</t>
+          <t>Xamax</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Stade Nyonnais</t>
+          <t>Aarau</t>
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.88</v>
+        <v>2.65</v>
       </c>
       <c r="H48" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I48" t="n">
-        <v>3.6</v>
+        <v>2.35</v>
       </c>
       <c r="J48" t="n">
-        <v>2.42</v>
+        <v>3.1</v>
       </c>
       <c r="K48" t="n">
         <v>2.3</v>
       </c>
       <c r="L48" t="n">
-        <v>3.85</v>
+        <v>2.82</v>
       </c>
       <c r="M48" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="O48" t="n">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="P48" t="n">
-        <v>4.1</v>
+        <v>4.45</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="R48" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="S48" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="T48" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="U48" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="V48" t="n">
-        <v>2.3</v>
+        <v>2.52</v>
       </c>
       <c r="W48" t="n">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="X48" t="n">
-        <v>10.5</v>
+        <v>17</v>
       </c>
       <c r="Y48" t="n">
-        <v>8.25</v>
+        <v>10</v>
       </c>
       <c r="Z48" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>9</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>175</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>5</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AP48" t="n">
         <v>17</v>
       </c>
-      <c r="AA48" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AE48" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF48" t="n">
-        <v>40</v>
-      </c>
-      <c r="AG48" t="n">
-        <v>250</v>
-      </c>
-      <c r="AH48" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AI48" t="n">
-        <v>23</v>
-      </c>
-      <c r="AJ48" t="n">
-        <v>12</v>
-      </c>
-      <c r="AK48" t="n">
+      <c r="AQ48" t="n">
         <v>50</v>
       </c>
-      <c r="AL48" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM48" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN48" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="AO48" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AP48" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AQ48" t="n">
-        <v>32</v>
-      </c>
       <c r="AR48" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AS48" t="n">
         <v>150</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="AU48" t="n">
-        <v>6.6</v>
+        <v>6.3</v>
       </c>
       <c r="AV48" t="n">
+        <v>40</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ48" t="n">
         <v>45</v>
       </c>
-      <c r="AW48" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AX48" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AY48" t="n">
-        <v>21</v>
-      </c>
-      <c r="AZ48" t="n">
-        <v>90</v>
-      </c>
       <c r="BA48" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="BB48" t="n">
-        <v>200</v>
-      </c>
-      <c r="BC48" t="inlineStr"/>
+        <v>150</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>500</v>
+      </c>
       <c r="BD48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>dfdIR8WF</t>
+          <t>rNIOJ0rg</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -9228,177 +9226,179 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>16:15</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SWITZERLAND - CHALLENGE LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Xamax</t>
+          <t>Bodrumspor</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Aarau</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="H49" t="n">
-        <v>3.65</v>
+        <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>2.27</v>
+        <v>3.2</v>
       </c>
       <c r="J49" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="K49" t="n">
-        <v>2.32</v>
+        <v>2.1</v>
       </c>
       <c r="L49" t="n">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="M49" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O49" t="n">
-        <v>1.17</v>
+        <v>1.36</v>
       </c>
       <c r="P49" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.53</v>
+        <v>2.1</v>
       </c>
       <c r="R49" t="n">
-        <v>2.35</v>
+        <v>1.7</v>
       </c>
       <c r="S49" t="n">
-        <v>1.29</v>
+        <v>1.44</v>
       </c>
       <c r="T49" t="n">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="U49" t="n">
-        <v>1.47</v>
+        <v>1.83</v>
       </c>
       <c r="V49" t="n">
-        <v>2.5</v>
+        <v>1.83</v>
       </c>
       <c r="W49" t="n">
-        <v>13</v>
+        <v>7.5</v>
       </c>
       <c r="X49" t="n">
-        <v>17.5</v>
+        <v>10</v>
       </c>
       <c r="Y49" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z49" t="n">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="AA49" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AB49" t="n">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="AC49" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD49" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>11.25</v>
+        <v>15</v>
       </c>
       <c r="AF49" t="n">
-        <v>35</v>
+        <v>51</v>
       </c>
       <c r="AG49" t="n">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="AH49" t="n">
-        <v>11.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ49" t="n">
-        <v>9.25</v>
+        <v>12</v>
       </c>
       <c r="AK49" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="AL49" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="AM49" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AN49" t="n">
-        <v>5.1</v>
+        <v>4.33</v>
       </c>
       <c r="AO49" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AP49" t="n">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="AQ49" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="AR49" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="AS49" t="n">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="AT49" t="n">
-        <v>3.3</v>
+        <v>2.63</v>
       </c>
       <c r="AU49" t="n">
-        <v>6.3</v>
+        <v>8</v>
       </c>
       <c r="AV49" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="AW49" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="AX49" t="n">
-        <v>11.25</v>
+        <v>19</v>
       </c>
       <c r="AY49" t="n">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="AZ49" t="n">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="BA49" t="n">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="BB49" t="n">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="BC49" t="n">
-        <v>500</v>
-      </c>
-      <c r="BD49" t="inlineStr"/>
+        <v>276</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>301</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>rNIOJ0rg</t>
+          <t>Aeur7Nbm</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -9418,160 +9418,160 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Bodrumspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H50" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I50" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L50" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M50" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N50" t="n">
+        <v>13</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R50" t="n">
         <v>2.05</v>
       </c>
-      <c r="L50" t="n">
-        <v>4</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N50" t="n">
-        <v>10</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P50" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.7</v>
-      </c>
       <c r="S50" t="n">
-        <v>1.44</v>
+        <v>1.33</v>
       </c>
       <c r="T50" t="n">
-        <v>2.63</v>
+        <v>3.25</v>
       </c>
       <c r="U50" t="n">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="V50" t="n">
-        <v>1.83</v>
+        <v>2.2</v>
       </c>
       <c r="W50" t="n">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="X50" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Y50" t="n">
         <v>9</v>
       </c>
       <c r="Z50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB50" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC50" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AD50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE50" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AF50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG50" t="n">
-        <v>351</v>
+        <v>151</v>
       </c>
       <c r="AH50" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AI50" t="n">
         <v>17</v>
       </c>
       <c r="AJ50" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK50" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL50" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM50" t="n">
         <v>29</v>
       </c>
-      <c r="AM50" t="n">
-        <v>41</v>
-      </c>
       <c r="AN50" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO50" t="n">
         <v>12</v>
       </c>
       <c r="AP50" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>51</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>17</v>
+      </c>
+      <c r="AY50" t="n">
         <v>23</v>
       </c>
-      <c r="AQ50" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR50" t="n">
+      <c r="AZ50" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA50" t="n">
         <v>67</v>
       </c>
-      <c r="AS50" t="n">
-        <v>201</v>
-      </c>
-      <c r="AT50" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU50" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV50" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW50" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY50" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ50" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA50" t="n">
-        <v>101</v>
-      </c>
       <c r="BB50" t="n">
+        <v>151</v>
+      </c>
+      <c r="BC50" t="n">
         <v>251</v>
-      </c>
-      <c r="BC50" t="n">
-        <v>276</v>
       </c>
       <c r="BD50" t="n">
         <v>301</v>
@@ -9580,7 +9580,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Aeur7Nbm</t>
+          <t>M7OimMLG</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -9595,174 +9595,74 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Adanaspor AS</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
-        </is>
-      </c>
-      <c r="G51" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H51" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="I51" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="J51" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N51" t="n">
-        <v>13</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P51" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R51" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T51" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U51" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V51" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="W51" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="X51" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>23</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>13</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>41</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>151</v>
-      </c>
-      <c r="AH51" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI51" t="n">
-        <v>17</v>
-      </c>
-      <c r="AJ51" t="n">
-        <v>11</v>
-      </c>
-      <c r="AK51" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL51" t="n">
-        <v>23</v>
-      </c>
-      <c r="AM51" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN51" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO51" t="n">
-        <v>12</v>
-      </c>
-      <c r="AP51" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ51" t="n">
-        <v>41</v>
-      </c>
-      <c r="AR51" t="n">
-        <v>51</v>
-      </c>
-      <c r="AS51" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT51" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU51" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV51" t="n">
-        <v>41</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY51" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA51" t="n">
-        <v>67</v>
-      </c>
-      <c r="BB51" t="n">
-        <v>151</v>
-      </c>
-      <c r="BC51" t="n">
-        <v>251</v>
-      </c>
-      <c r="BD51" t="n">
-        <v>301</v>
-      </c>
+          <t>Yeni Malatyaspor</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
+      <c r="AR51" t="inlineStr"/>
+      <c r="AS51" t="inlineStr"/>
+      <c r="AT51" t="inlineStr"/>
+      <c r="AU51" t="inlineStr"/>
+      <c r="AV51" t="inlineStr"/>
+      <c r="AW51" t="inlineStr"/>
+      <c r="AX51" t="inlineStr"/>
+      <c r="AY51" t="inlineStr"/>
+      <c r="AZ51" t="inlineStr"/>
+      <c r="BA51" t="inlineStr"/>
+      <c r="BB51" t="inlineStr"/>
+      <c r="BC51" t="inlineStr"/>
+      <c r="BD51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>M7OimMLG</t>
+          <t>MRK8uVJ7</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -9782,69 +9682,169 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Adanaspor AS</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Yeni Malatyaspor</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="inlineStr"/>
-      <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="inlineStr"/>
-      <c r="AJ52" t="inlineStr"/>
-      <c r="AK52" t="inlineStr"/>
-      <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="inlineStr"/>
-      <c r="AN52" t="inlineStr"/>
-      <c r="AO52" t="inlineStr"/>
-      <c r="AP52" t="inlineStr"/>
-      <c r="AQ52" t="inlineStr"/>
-      <c r="AR52" t="inlineStr"/>
-      <c r="AS52" t="inlineStr"/>
-      <c r="AT52" t="inlineStr"/>
-      <c r="AU52" t="inlineStr"/>
-      <c r="AV52" t="inlineStr"/>
-      <c r="AW52" t="inlineStr"/>
-      <c r="AX52" t="inlineStr"/>
-      <c r="AY52" t="inlineStr"/>
-      <c r="AZ52" t="inlineStr"/>
-      <c r="BA52" t="inlineStr"/>
-      <c r="BB52" t="inlineStr"/>
-      <c r="BC52" t="inlineStr"/>
-      <c r="BD52" t="inlineStr"/>
+          <t>Manisa FK</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="H52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J52" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L52" t="n">
+        <v>5</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N52" t="n">
+        <v>13</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V52" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="W52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="X52" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>251</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>126</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>51</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>26</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>81</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>101</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>201</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>126</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>126</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>MRK8uVJ7</t>
+          <t>W8WWqpte</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -9854,352 +9854,170 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>10:30</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>UKRAINE - PREMIER LEAGUE</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Vorskla Poltava</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Manisa FK</t>
+          <t>Livyi Bereg</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I53" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="J53" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N53" t="n">
+        <v>7.15</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R53" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V53" t="n">
         <v>1.55</v>
       </c>
-      <c r="H53" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I53" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="J53" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="L53" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="N53" t="n">
-        <v>13</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P53" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="R53" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S53" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="T53" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="U53" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.91</v>
-      </c>
       <c r="W53" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="X53" t="n">
-        <v>8</v>
+        <v>6.9</v>
       </c>
       <c r="Y53" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z53" t="n">
-        <v>12</v>
+        <v>13.5</v>
       </c>
       <c r="AA53" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="AB53" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>22</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>150</v>
+      </c>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>90</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>60</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP53" t="n">
         <v>23</v>
       </c>
-      <c r="AC53" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD53" t="n">
-        <v>8</v>
-      </c>
-      <c r="AE53" t="n">
-        <v>17</v>
-      </c>
-      <c r="AF53" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG53" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH53" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI53" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ53" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK53" t="n">
-        <v>51</v>
-      </c>
-      <c r="AL53" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM53" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN53" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AO53" t="n">
-        <v>8</v>
-      </c>
-      <c r="AP53" t="n">
-        <v>19</v>
-      </c>
       <c r="AQ53" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AR53" t="n">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="AS53" t="n">
-        <v>126</v>
+        <v>400</v>
       </c>
       <c r="AT53" t="n">
-        <v>3.25</v>
+        <v>2.22</v>
       </c>
       <c r="AU53" t="n">
         <v>8.5</v>
       </c>
       <c r="AV53" t="n">
-        <v>51</v>
+        <v>100</v>
       </c>
       <c r="AW53" t="n">
-        <v>7</v>
+        <v>6.1</v>
       </c>
       <c r="AX53" t="n">
         <v>29</v>
       </c>
       <c r="AY53" t="n">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="AZ53" t="n">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="BA53" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="BB53" t="n">
-        <v>201</v>
+        <v>81</v>
       </c>
       <c r="BC53" t="n">
-        <v>126</v>
+        <v>81</v>
       </c>
       <c r="BD53" t="n">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>W8WWqpte</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>13/12/2024</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>10:30</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>UKRAINE - PREMIER LEAGUE</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Vorskla Poltava</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Livyi Bereg</t>
-        </is>
-      </c>
-      <c r="G54" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="H54" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I54" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="K54" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="L54" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="M54" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N54" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O54" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="P54" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="R54" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S54" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T54" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U54" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V54" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="W54" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="X54" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="Y54" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AB54" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC54" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AD54" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE54" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF54" t="n">
-        <v>150</v>
-      </c>
-      <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AI54" t="n">
-        <v>26</v>
-      </c>
-      <c r="AJ54" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AK54" t="n">
-        <v>100</v>
-      </c>
-      <c r="AL54" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM54" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN54" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="AO54" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AP54" t="n">
-        <v>22</v>
-      </c>
-      <c r="AQ54" t="n">
-        <v>32</v>
-      </c>
-      <c r="AR54" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS54" t="n">
-        <v>400</v>
-      </c>
-      <c r="AT54" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AU54" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AV54" t="n">
-        <v>100</v>
-      </c>
-      <c r="AW54" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="AX54" t="n">
-        <v>32</v>
-      </c>
-      <c r="AY54" t="n">
-        <v>45</v>
-      </c>
-      <c r="AZ54" t="n">
-        <v>200</v>
-      </c>
-      <c r="BA54" t="n">
-        <v>300</v>
-      </c>
-      <c r="BB54" t="n">
-        <v>81</v>
-      </c>
-      <c r="BC54" t="n">
-        <v>81</v>
-      </c>
-      <c r="BD54" t="n">
         <v>81</v>
       </c>
     </row>

--- a/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
@@ -771,10 +771,10 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>1.73</v>
@@ -816,7 +816,7 @@
         <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -849,7 +849,7 @@
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
@@ -876,7 +876,7 @@
         <v>8.5</v>
       </c>
       <c r="AX2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -947,10 +947,10 @@
         <v>3.75</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -959,10 +959,10 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -977,7 +977,7 @@
         <v>2.05</v>
       </c>
       <c r="W3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>11</v>
@@ -986,7 +986,7 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA3" t="n">
         <v>17</v>
@@ -1135,16 +1135,16 @@
         <v>6</v>
       </c>
       <c r="O4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="P4" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="Q4" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="R4" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1315,16 +1315,16 @@
         <v>9</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S5" t="n">
         <v>1.44</v>
@@ -1664,7 +1664,7 @@
         <v>1.73</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="K7" t="n">
         <v>1.91</v>
@@ -1673,10 +1673,10 @@
         <v>2.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O7" t="n">
         <v>1.57</v>
@@ -1691,10 +1691,10 @@
         <v>1.4</v>
       </c>
       <c r="S7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="T7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="U7" t="n">
         <v>2.63</v>
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
         <v>67</v>
@@ -1721,13 +1721,13 @@
         <v>67</v>
       </c>
       <c r="AC7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
       </c>
       <c r="AE7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
         <v>126</v>
@@ -1746,7 +1746,7 @@
         <v>13</v>
       </c>
       <c r="AL7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1770,7 +1770,7 @@
         <v>501</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AU7" t="n">
         <v>11</v>
@@ -1788,7 +1788,7 @@
         <v>29</v>
       </c>
       <c r="AZ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA7" t="n">
         <v>81</v>
@@ -2377,19 +2377,19 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L11" t="n">
         <v>2.75</v>
@@ -2419,16 +2419,16 @@
         <v>3.5</v>
       </c>
       <c r="U11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
@@ -2443,13 +2443,13 @@
         <v>23</v>
       </c>
       <c r="AC11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD11" t="n">
         <v>7.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF11" t="n">
         <v>34</v>
@@ -2458,7 +2458,7 @@
         <v>101</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI11" t="n">
         <v>13</v>
@@ -2473,7 +2473,7 @@
         <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN11" t="n">
         <v>5.5</v>
@@ -2482,10 +2482,10 @@
         <v>15</v>
       </c>
       <c r="AP11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR11" t="n">
         <v>51</v>
@@ -2506,22 +2506,22 @@
         <v>4.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY11" t="n">
         <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BC11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD11" t="n">
         <v>151</v>
@@ -2741,10 +2741,10 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I13" t="n">
         <v>3.5</v>
@@ -2753,28 +2753,28 @@
         <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L13" t="n">
         <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R13" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="S13" t="n">
         <v>1.33</v>
@@ -2783,13 +2783,13 @@
         <v>3.25</v>
       </c>
       <c r="U13" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W13" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X13" t="n">
         <v>10</v>
@@ -2804,10 +2804,10 @@
         <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD13" t="n">
         <v>7.5</v>
@@ -2822,22 +2822,22 @@
         <v>151</v>
       </c>
       <c r="AH13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
         <v>21</v>
       </c>
       <c r="AJ13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK13" t="n">
         <v>41</v>
       </c>
       <c r="AL13" t="n">
+        <v>26</v>
+      </c>
+      <c r="AM13" t="n">
         <v>29</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>34</v>
       </c>
       <c r="AN13" t="n">
         <v>4</v>
@@ -2849,13 +2849,13 @@
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS13" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT13" t="n">
         <v>3.25</v>
@@ -2864,22 +2864,22 @@
         <v>7.5</v>
       </c>
       <c r="AV13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW13" t="n">
         <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY13" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ13" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA13" t="n">
         <v>67</v>
-      </c>
-      <c r="BA13" t="n">
-        <v>81</v>
       </c>
       <c r="BB13" t="n">
         <v>151</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="H15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.35</v>
+        <v>2.15</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3156,19 +3156,19 @@
         <v>10</v>
       </c>
       <c r="X15" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AB15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC15" t="n">
         <v>11</v>
@@ -3186,19 +3186,19 @@
         <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM15" t="n">
         <v>26</v>
@@ -3210,13 +3210,13 @@
         <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ15" t="n">
         <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS15" t="n">
         <v>151</v>
@@ -3225,16 +3225,16 @@
         <v>2.75</v>
       </c>
       <c r="AU15" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY15" t="n">
         <v>21</v>
@@ -3283,52 +3283,52 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="I16" t="n">
+        <v>15</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L16" t="n">
         <v>12</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="L16" t="n">
-        <v>10</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
       </c>
       <c r="N16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O16" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="P16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="R16" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="S16" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="T16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="W16" t="n">
         <v>12</v>
@@ -3337,94 +3337,94 @@
         <v>8</v>
       </c>
       <c r="Y16" t="n">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA16" t="n">
         <v>11</v>
       </c>
-      <c r="Z16" t="n">
-        <v>8</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>10</v>
-      </c>
       <c r="AB16" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC16" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AF16" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG16" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>41</v>
+      </c>
+      <c r="AK16" t="n">
         <v>251</v>
       </c>
-      <c r="AH16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>51</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>151</v>
-      </c>
       <c r="AL16" t="n">
+        <v>101</v>
+      </c>
+      <c r="AM16" t="n">
         <v>67</v>
       </c>
-      <c r="AM16" t="n">
-        <v>51</v>
-      </c>
       <c r="AN16" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO16" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AP16" t="n">
         <v>15</v>
       </c>
       <c r="AQ16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
       </c>
       <c r="AS16" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT16" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="AU16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX16" t="n">
         <v>51</v>
       </c>
       <c r="AY16" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ16" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BA16" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BB16" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
@@ -3639,88 +3639,88 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="H18" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I18" t="n">
         <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K18" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M18" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N18" t="n">
+        <v>13</v>
+      </c>
+      <c r="O18" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R18" t="n">
         <v>2.1</v>
       </c>
-      <c r="L18" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N18" t="n">
-        <v>9</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R18" t="n">
-        <v>1.75</v>
-      </c>
       <c r="S18" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T18" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X18" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Y18" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9</v>
       </c>
       <c r="Z18" t="n">
         <v>15</v>
       </c>
       <c r="AA18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB18" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE18" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AH18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI18" t="n">
         <v>21</v>
@@ -3732,19 +3732,19 @@
         <v>41</v>
       </c>
       <c r="AL18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM18" t="n">
         <v>34</v>
       </c>
-      <c r="AM18" t="n">
-        <v>41</v>
-      </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ18" t="n">
         <v>34</v>
@@ -3753,13 +3753,13 @@
         <v>51</v>
       </c>
       <c r="AS18" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3768,19 +3768,19 @@
         <v>6</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA18" t="n">
         <v>81</v>
       </c>
-      <c r="BA18" t="n">
-        <v>101</v>
-      </c>
       <c r="BB18" t="n">
-        <v>251</v>
+        <v>151</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3830,13 +3830,13 @@
         <v>12.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="K19" t="n">
         <v>2.72</v>
       </c>
       <c r="L19" t="n">
-        <v>8.75</v>
+        <v>9.25</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3860,7 +3860,7 @@
         <v>1.27</v>
       </c>
       <c r="T19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="U19" t="n">
         <v>2.1</v>
@@ -3878,13 +3878,13 @@
         <v>10.25</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB19" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC19" t="n">
         <v>10.25</v>
@@ -3905,16 +3905,16 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AJ19" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AK19" t="n">
         <v>500</v>
       </c>
       <c r="AL19" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="n">
         <v>150</v>
@@ -3929,25 +3929,25 @@
         <v>15.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AR19" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS19" t="n">
         <v>200</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AV19" t="n">
         <v>90</v>
       </c>
       <c r="AW19" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AX19" t="n">
         <v>70</v>
@@ -4015,22 +4015,22 @@
         <v>4.75</v>
       </c>
       <c r="M20" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S20" t="n">
         <v>1.44</v>
@@ -4141,7 +4141,7 @@
         <v>301</v>
       </c>
       <c r="BC20" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -4179,40 +4179,40 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="K21" t="n">
         <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P21" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
         <v>1.5</v>
@@ -4221,25 +4221,25 @@
         <v>2.5</v>
       </c>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="V21" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="W21" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="X21" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
@@ -4248,43 +4248,43 @@
         <v>8</v>
       </c>
       <c r="AD21" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH21" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK21" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
       </c>
       <c r="AN21" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="AO21" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AP21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -4302,25 +4302,25 @@
         <v>8.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX21" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ21" t="n">
+        <v>51</v>
+      </c>
+      <c r="BA21" t="n">
         <v>81</v>
       </c>
-      <c r="BA21" t="n">
-        <v>101</v>
-      </c>
       <c r="BB21" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC21" t="n">
         <v>81</v>
@@ -4361,40 +4361,40 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O22" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S22" t="n">
         <v>1.5</v>
@@ -4403,22 +4403,22 @@
         <v>2.5</v>
       </c>
       <c r="U22" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V22" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W22" t="n">
         <v>7</v>
       </c>
       <c r="X22" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y22" t="n">
         <v>10</v>
       </c>
-      <c r="Y22" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z22" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
@@ -4427,7 +4427,7 @@
         <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD22" t="n">
         <v>5.5</v>
@@ -4439,16 +4439,16 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK22" t="n">
         <v>34</v>
@@ -4463,19 +4463,19 @@
         <v>4.33</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP22" t="n">
         <v>26</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS22" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT22" t="n">
         <v>2.5</v>
@@ -4487,19 +4487,19 @@
         <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY22" t="n">
         <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
         <v>251</v>
@@ -4564,7 +4564,7 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
         <v>1.22</v>
@@ -4725,16 +4725,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I24" t="n">
         <v>5.25</v>
       </c>
       <c r="J24" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
@@ -4743,10 +4743,10 @@
         <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -4761,25 +4761,25 @@
         <v>1.67</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V24" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W24" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X24" t="n">
         <v>7</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
         <v>12</v>
@@ -4791,22 +4791,22 @@
         <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AD24" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
       </c>
       <c r="AF24" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG24" t="n">
         <v>1250</v>
       </c>
       <c r="AH24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI24" t="n">
         <v>26</v>
@@ -4824,13 +4824,13 @@
         <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
         <v>29</v>
@@ -4842,10 +4842,10 @@
         <v>201</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV24" t="n">
         <v>67</v>
@@ -4854,7 +4854,7 @@
         <v>7</v>
       </c>
       <c r="AX24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY24" t="n">
         <v>41</v>
@@ -4907,148 +4907,148 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I25" t="n">
-        <v>5.25</v>
+        <v>6</v>
       </c>
       <c r="J25" t="n">
         <v>2.1</v>
       </c>
       <c r="K25" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M25" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="P25" t="n">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.85</v>
+        <v>2.08</v>
       </c>
       <c r="R25" t="n">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="S25" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="T25" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="U25" t="n">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="V25" t="n">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="W25" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="X25" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y25" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC25" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>12</v>
       </c>
       <c r="AD25" t="n">
         <v>8</v>
       </c>
       <c r="AE25" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AF25" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL25" t="n">
         <v>51</v>
       </c>
-      <c r="AG25" t="n">
-        <v>301</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>29</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK25" t="n">
+      <c r="AM25" t="n">
         <v>51</v>
       </c>
-      <c r="AL25" t="n">
-        <v>41</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>41</v>
-      </c>
       <c r="AN25" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="AO25" t="n">
         <v>8</v>
       </c>
       <c r="AP25" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AT25" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="AU25" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AV25" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AW25" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX25" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AY25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ25" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="BA25" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="BB25" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC25" t="n">
         <v>81</v>
@@ -5119,10 +5119,10 @@
         <v>4.33</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S26" t="n">
         <v>1.3</v>
@@ -5271,40 +5271,40 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I27" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="J27" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="K27" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L27" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N27" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="O27" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P27" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="R27" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="S27" t="n">
         <v>1.3</v>
@@ -5313,34 +5313,34 @@
         <v>3.4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V27" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
         <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y27" t="n">
         <v>8.5</v>
       </c>
       <c r="Z27" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB27" t="n">
         <v>23</v>
       </c>
       <c r="AC27" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD27" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE27" t="n">
         <v>17</v>
@@ -5352,16 +5352,16 @@
         <v>201</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL27" t="n">
         <v>41</v>
@@ -5370,16 +5370,16 @@
         <v>41</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO27" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP27" t="n">
         <v>17</v>
       </c>
       <c r="AQ27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR27" t="n">
         <v>41</v>
@@ -5391,16 +5391,16 @@
         <v>3.4</v>
       </c>
       <c r="AU27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AX27" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY27" t="n">
         <v>34</v>
@@ -5409,7 +5409,7 @@
         <v>101</v>
       </c>
       <c r="BA27" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB27" t="n">
         <v>201</v>
@@ -5653,22 +5653,22 @@
         <v>3.1</v>
       </c>
       <c r="M29" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O29" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P29" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R29" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S29" t="n">
         <v>1.33</v>
@@ -5813,72 +5813,76 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H30" t="n">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="I30" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="K30" t="n">
-        <v>2.18</v>
+        <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>6.3</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
+        <v>6.6</v>
+      </c>
+      <c r="M30" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N30" t="n">
+        <v>8.949999999999999</v>
+      </c>
       <c r="O30" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="P30" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="Q30" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R30" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S30" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T30" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U30" t="n">
         <v>1.88</v>
       </c>
-      <c r="R30" t="n">
+      <c r="V30" t="n">
         <v>1.72</v>
       </c>
-      <c r="S30" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="T30" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="U30" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V30" t="n">
-        <v>1.7</v>
-      </c>
       <c r="W30" t="n">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="X30" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y30" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AA30" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AC30" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AD30" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE30" t="n">
         <v>18</v>
@@ -5890,67 +5894,67 @@
         <v>800</v>
       </c>
       <c r="AH30" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AI30" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AJ30" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK30" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AL30" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AM30" t="n">
         <v>75</v>
       </c>
       <c r="AN30" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO30" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AP30" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AQ30" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR30" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AS30" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT30" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="AU30" t="n">
-        <v>7.5</v>
+        <v>7.9</v>
       </c>
       <c r="AV30" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AW30" t="n">
         <v>8</v>
       </c>
       <c r="AX30" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AY30" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="AZ30" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BA30" t="n">
-        <v>250</v>
+        <v>350</v>
       </c>
       <c r="BB30" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC30" t="inlineStr"/>
       <c r="BD30" t="inlineStr"/>
@@ -5990,43 +5994,43 @@
         <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I31" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="J31" t="n">
-        <v>1.98</v>
+        <v>2.05</v>
       </c>
       <c r="K31" t="n">
-        <v>2.22</v>
+        <v>2.15</v>
       </c>
       <c r="L31" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M31" t="n">
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>8.5</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O31" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P31" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R31" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S31" t="n">
         <v>1.4</v>
       </c>
       <c r="T31" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="U31" t="n">
         <v>1.98</v>
@@ -6035,7 +6039,7 @@
         <v>1.65</v>
       </c>
       <c r="W31" t="n">
-        <v>5.9</v>
+        <v>6.1</v>
       </c>
       <c r="X31" t="n">
         <v>6.5</v>
@@ -6044,37 +6048,37 @@
         <v>8.25</v>
       </c>
       <c r="Z31" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AA31" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AB31" t="n">
         <v>30</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE31" t="n">
         <v>19.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AG31" t="n">
         <v>1000</v>
       </c>
       <c r="AH31" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AI31" t="n">
         <v>40</v>
       </c>
       <c r="AJ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="n">
         <v>150</v>
@@ -6086,46 +6090,46 @@
         <v>75</v>
       </c>
       <c r="AN31" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO31" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AP31" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR31" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AS31" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.65</v>
+        <v>2.47</v>
       </c>
       <c r="AU31" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AV31" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AW31" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AX31" t="n">
         <v>40</v>
       </c>
       <c r="AY31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AZ31" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BA31" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BB31" t="n">
         <v>500</v>
@@ -6183,22 +6187,22 @@
         <v>4.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N32" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O32" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P32" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R32" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S32" t="n">
         <v>1.5</v>
@@ -6350,19 +6354,19 @@
         <v>5</v>
       </c>
       <c r="H33" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I33" t="n">
         <v>1.75</v>
       </c>
       <c r="J33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K33" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L33" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M33" t="n">
         <v>1.11</v>
@@ -6377,10 +6381,10 @@
         <v>2.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R33" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S33" t="n">
         <v>1.57</v>
@@ -6389,13 +6393,13 @@
         <v>2.25</v>
       </c>
       <c r="U33" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V33" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X33" t="n">
         <v>23</v>
@@ -6413,7 +6417,7 @@
         <v>51</v>
       </c>
       <c r="AC33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD33" t="n">
         <v>6.5</v>
@@ -6437,7 +6441,7 @@
         <v>9.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL33" t="n">
         <v>19</v>
@@ -6446,16 +6450,16 @@
         <v>41</v>
       </c>
       <c r="AN33" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP33" t="n">
         <v>41</v>
       </c>
       <c r="AQ33" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR33" t="n">
         <v>151</v>
@@ -6467,28 +6471,28 @@
         <v>2.25</v>
       </c>
       <c r="AU33" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV33" t="n">
         <v>81</v>
       </c>
       <c r="AW33" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AX33" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AY33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ33" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA33" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB33" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC33" t="inlineStr"/>
       <c r="BD33" t="inlineStr"/>
@@ -6525,58 +6529,58 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="I34" t="n">
         <v>2.8</v>
       </c>
       <c r="J34" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K34" t="n">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="L34" t="n">
         <v>3.25</v>
       </c>
       <c r="M34" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="O34" t="n">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="P34" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.48</v>
+        <v>1.62</v>
       </c>
       <c r="R34" t="n">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="S34" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="T34" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="U34" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="V34" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W34" t="n">
+        <v>11</v>
+      </c>
+      <c r="X34" t="n">
         <v>13</v>
-      </c>
-      <c r="X34" t="n">
-        <v>15</v>
       </c>
       <c r="Y34" t="n">
         <v>9.5</v>
@@ -6585,31 +6589,31 @@
         <v>21</v>
       </c>
       <c r="AA34" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC34" t="n">
         <v>15</v>
       </c>
-      <c r="AB34" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC34" t="n">
-        <v>21</v>
-      </c>
       <c r="AD34" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AE34" t="n">
         <v>12</v>
       </c>
       <c r="AF34" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AG34" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AH34" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AI34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ34" t="n">
         <v>11</v>
@@ -6618,31 +6622,31 @@
         <v>29</v>
       </c>
       <c r="AL34" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN34" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AO34" t="n">
+        <v>12</v>
+      </c>
+      <c r="AP34" t="n">
         <v>19</v>
       </c>
-      <c r="AM34" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP34" t="n">
-        <v>17</v>
-      </c>
       <c r="AQ34" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS34" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AU34" t="n">
         <v>7</v>
@@ -6651,13 +6655,13 @@
         <v>41</v>
       </c>
       <c r="AW34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX34" t="n">
         <v>15</v>
       </c>
       <c r="AY34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ34" t="n">
         <v>41</v>
@@ -6666,10 +6670,10 @@
         <v>51</v>
       </c>
       <c r="BB34" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC34" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BD34" t="n">
         <v>151</v>
@@ -7071,58 +7075,58 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H37" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="I37" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J37" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K37" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L37" t="n">
         <v>4.33</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="R37" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S37" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T37" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U37" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V37" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W37" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X37" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y37" t="n">
         <v>8.5</v>
@@ -7134,28 +7138,28 @@
         <v>15</v>
       </c>
       <c r="AB37" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AC37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD37" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE37" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF37" t="n">
         <v>41</v>
       </c>
       <c r="AG37" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH37" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ37" t="n">
         <v>13</v>
@@ -7173,31 +7177,31 @@
         <v>4</v>
       </c>
       <c r="AO37" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR37" t="n">
         <v>51</v>
       </c>
       <c r="AS37" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AT37" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU37" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV37" t="n">
         <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX37" t="n">
         <v>21</v>
@@ -7212,13 +7216,13 @@
         <v>81</v>
       </c>
       <c r="BB37" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC37" t="n">
         <v>351</v>
       </c>
       <c r="BD37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38">
@@ -7438,58 +7442,58 @@
         <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I39" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="J39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L39" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
+        <v>17</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W39" t="n">
         <v>15</v>
       </c>
-      <c r="O39" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T39" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V39" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W39" t="n">
-        <v>13</v>
-      </c>
       <c r="X39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z39" t="n">
         <v>34</v>
@@ -7501,7 +7505,7 @@
         <v>26</v>
       </c>
       <c r="AC39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD39" t="n">
         <v>7.5</v>
@@ -7510,13 +7514,13 @@
         <v>12</v>
       </c>
       <c r="AF39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG39" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI39" t="n">
         <v>13</v>
@@ -7528,16 +7532,16 @@
         <v>21</v>
       </c>
       <c r="AL39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM39" t="n">
         <v>21</v>
       </c>
       <c r="AN39" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP39" t="n">
         <v>21</v>
@@ -7549,10 +7553,10 @@
         <v>51</v>
       </c>
       <c r="AS39" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU39" t="n">
         <v>7</v>
@@ -7564,16 +7568,16 @@
         <v>4.5</v>
       </c>
       <c r="AX39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB39" t="n">
         <v>101</v>
@@ -7620,7 +7624,7 @@
         <v>2.45</v>
       </c>
       <c r="H40" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I40" t="n">
         <v>2.55</v>
@@ -7629,7 +7633,7 @@
         <v>3</v>
       </c>
       <c r="K40" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L40" t="n">
         <v>3.1</v>
@@ -7638,34 +7642,34 @@
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O40" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P40" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="R40" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="S40" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U40" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V40" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X40" t="n">
         <v>15</v>
@@ -7677,13 +7681,13 @@
         <v>26</v>
       </c>
       <c r="AA40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC40" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD40" t="n">
         <v>7.5</v>
@@ -7692,13 +7696,13 @@
         <v>12</v>
       </c>
       <c r="AF40" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG40" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI40" t="n">
         <v>15</v>
@@ -7713,7 +7717,7 @@
         <v>19</v>
       </c>
       <c r="AM40" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN40" t="n">
         <v>4.75</v>
@@ -7734,7 +7738,7 @@
         <v>101</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU40" t="n">
         <v>7</v>
@@ -7749,7 +7753,7 @@
         <v>13</v>
       </c>
       <c r="AY40" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ40" t="n">
         <v>41</v>
@@ -7758,7 +7762,7 @@
         <v>51</v>
       </c>
       <c r="BB40" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC40" t="n">
         <v>351</v>
@@ -7820,7 +7824,7 @@
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O41" t="n">
         <v>1.13</v>
@@ -8169,7 +8173,7 @@
         <v>3.8</v>
       </c>
       <c r="I43" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J43" t="n">
         <v>2.3</v>
@@ -8178,7 +8182,7 @@
         <v>2.38</v>
       </c>
       <c r="L43" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -8193,10 +8197,10 @@
         <v>4.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="R43" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S43" t="n">
         <v>1.3</v>
@@ -8205,16 +8209,16 @@
         <v>3.4</v>
       </c>
       <c r="U43" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V43" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W43" t="n">
+        <v>9</v>
+      </c>
+      <c r="X43" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X43" t="n">
-        <v>10</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
@@ -8241,13 +8245,13 @@
         <v>41</v>
       </c>
       <c r="AG43" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH43" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI43" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ43" t="n">
         <v>15</v>
@@ -8256,7 +8260,7 @@
         <v>41</v>
       </c>
       <c r="AL43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM43" t="n">
         <v>34</v>
@@ -8345,28 +8349,28 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K44" t="n">
         <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O44" t="n">
         <v>1.36</v>
@@ -8387,10 +8391,10 @@
         <v>2.5</v>
       </c>
       <c r="U44" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V44" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W44" t="n">
         <v>7.5</v>
@@ -8402,7 +8406,7 @@
         <v>10</v>
       </c>
       <c r="Z44" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA44" t="n">
         <v>21</v>
@@ -8426,7 +8430,7 @@
         <v>800</v>
       </c>
       <c r="AH44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI44" t="n">
         <v>15</v>
@@ -8447,7 +8451,7 @@
         <v>4.33</v>
       </c>
       <c r="AO44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP44" t="n">
         <v>26</v>
@@ -8468,10 +8472,10 @@
         <v>8.5</v>
       </c>
       <c r="AV44" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW44" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX44" t="n">
         <v>17</v>
@@ -8527,58 +8531,58 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H45" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="I45" t="n">
         <v>5.5</v>
       </c>
       <c r="J45" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K45" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L45" t="n">
         <v>5.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="P45" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="Q45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U45" t="n">
         <v>2</v>
       </c>
-      <c r="R45" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.91</v>
-      </c>
       <c r="V45" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W45" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X45" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y45" t="n">
         <v>8.5</v>
@@ -8587,34 +8591,34 @@
         <v>12</v>
       </c>
       <c r="AA45" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB45" t="n">
         <v>29</v>
       </c>
       <c r="AC45" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AD45" t="n">
         <v>7</v>
       </c>
       <c r="AE45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG45" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH45" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ45" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK45" t="n">
         <v>51</v>
@@ -8623,34 +8627,34 @@
         <v>41</v>
       </c>
       <c r="AM45" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN45" t="n">
         <v>3.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR45" t="n">
         <v>51</v>
       </c>
       <c r="AS45" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV45" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW45" t="n">
         <v>7</v>
@@ -8659,16 +8663,16 @@
         <v>29</v>
       </c>
       <c r="AY45" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ45" t="n">
         <v>101</v>
       </c>
       <c r="BA45" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB45" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC45" t="n">
         <v>81</v>
@@ -8887,22 +8891,22 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="H47" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I47" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J47" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="K47" t="n">
         <v>2.3</v>
       </c>
       <c r="L47" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="M47" t="n">
         <v>1.04</v>
@@ -8914,13 +8918,13 @@
         <v>1.19</v>
       </c>
       <c r="P47" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="Q47" t="n">
         <v>1.6</v>
       </c>
       <c r="R47" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="S47" t="n">
         <v>1.31</v>
@@ -8929,25 +8933,25 @@
         <v>3.15</v>
       </c>
       <c r="U47" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V47" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="W47" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X47" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Y47" t="n">
         <v>8.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AA47" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AB47" t="n">
         <v>20</v>
@@ -8956,79 +8960,79 @@
         <v>8.75</v>
       </c>
       <c r="AD47" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AF47" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AG47" t="n">
         <v>250</v>
       </c>
       <c r="AH47" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AI47" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AJ47" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AL47" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AM47" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AN47" t="n">
-        <v>4.05</v>
+        <v>3.95</v>
       </c>
       <c r="AO47" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AP47" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AR47" t="n">
         <v>50</v>
       </c>
       <c r="AS47" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT47" t="n">
         <v>3.15</v>
       </c>
       <c r="AU47" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AV47" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AW47" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AX47" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AY47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ47" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA47" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="BB47" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC47" t="inlineStr"/>
       <c r="BD47" t="inlineStr"/>
@@ -9245,13 +9249,13 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H49" t="n">
         <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J49" t="n">
         <v>2.88</v>
@@ -9260,25 +9264,25 @@
         <v>2.1</v>
       </c>
       <c r="L49" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M49" t="n">
         <v>1.06</v>
       </c>
       <c r="N49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O49" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P49" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R49" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S49" t="n">
         <v>1.44</v>
@@ -9299,10 +9303,10 @@
         <v>10</v>
       </c>
       <c r="Y49" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA49" t="n">
         <v>19</v>
@@ -9329,7 +9333,7 @@
         <v>9.5</v>
       </c>
       <c r="AI49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ49" t="n">
         <v>12</v>
@@ -9380,7 +9384,7 @@
         <v>29</v>
       </c>
       <c r="AZ49" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA49" t="n">
         <v>81</v>
@@ -9427,91 +9431,91 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H50" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="I50" t="n">
         <v>3.1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K50" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L50" t="n">
         <v>3.6</v>
       </c>
       <c r="M50" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O50" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P50" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="R50" t="n">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S50" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T50" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U50" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V50" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W50" t="n">
+        <v>8</v>
+      </c>
+      <c r="X50" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y50" t="n">
         <v>9.5</v>
-      </c>
-      <c r="X50" t="n">
-        <v>12</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>9</v>
       </c>
       <c r="Z50" t="n">
         <v>21</v>
       </c>
       <c r="AA50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC50" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE50" t="n">
         <v>13</v>
       </c>
-      <c r="AD50" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>12</v>
-      </c>
       <c r="AF50" t="n">
         <v>41</v>
       </c>
       <c r="AG50" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH50" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ50" t="n">
         <v>11</v>
@@ -9523,7 +9527,7 @@
         <v>23</v>
       </c>
       <c r="AM50" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN50" t="n">
         <v>4.33</v>
@@ -9532,7 +9536,7 @@
         <v>12</v>
       </c>
       <c r="AP50" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ50" t="n">
         <v>41</v>
@@ -9541,16 +9545,16 @@
         <v>51</v>
       </c>
       <c r="AS50" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT50" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="AU50" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV50" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW50" t="n">
         <v>5</v>
@@ -9559,19 +9563,19 @@
         <v>17</v>
       </c>
       <c r="AY50" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ50" t="n">
         <v>51</v>
       </c>
       <c r="BA50" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB50" t="n">
         <v>151</v>
       </c>
       <c r="BC50" t="n">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="BD50" t="n">
         <v>301</v>
@@ -9691,58 +9695,58 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H52" t="n">
-        <v>3.75</v>
+        <v>4.1</v>
       </c>
       <c r="I52" t="n">
         <v>4.5</v>
       </c>
       <c r="J52" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="K52" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="L52" t="n">
         <v>5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N52" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="O52" t="n">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="R52" t="n">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="S52" t="n">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="T52" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="U52" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="V52" t="n">
-        <v>1.91</v>
+        <v>2.2</v>
       </c>
       <c r="W52" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="X52" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y52" t="n">
         <v>8.5</v>
@@ -9751,31 +9755,31 @@
         <v>13</v>
       </c>
       <c r="AA52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB52" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC52" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AD52" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE52" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>151</v>
+      </c>
+      <c r="AH52" t="n">
         <v>17</v>
       </c>
-      <c r="AF52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AG52" t="n">
-        <v>251</v>
-      </c>
-      <c r="AH52" t="n">
-        <v>13</v>
-      </c>
       <c r="AI52" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ52" t="n">
         <v>15</v>
@@ -9784,61 +9788,61 @@
         <v>51</v>
       </c>
       <c r="AL52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM52" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN52" t="n">
         <v>3.75</v>
       </c>
       <c r="AO52" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP52" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>41</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>101</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>23</v>
+      </c>
+      <c r="AY52" t="n">
         <v>26</v>
-      </c>
-      <c r="AR52" t="n">
-        <v>41</v>
-      </c>
-      <c r="AS52" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT52" t="n">
-        <v>3</v>
-      </c>
-      <c r="AU52" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV52" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW52" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX52" t="n">
-        <v>26</v>
-      </c>
-      <c r="AY52" t="n">
-        <v>29</v>
       </c>
       <c r="AZ52" t="n">
         <v>81</v>
       </c>
       <c r="BA52" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB52" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC52" t="n">
         <v>126</v>
       </c>
       <c r="BD52" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53">
@@ -9873,28 +9877,28 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="H53" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I53" t="n">
-        <v>4.65</v>
+        <v>4.85</v>
       </c>
       <c r="J53" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="K53" t="n">
         <v>1.98</v>
       </c>
       <c r="L53" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="M53" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N53" t="n">
-        <v>7.15</v>
+        <v>7.25</v>
       </c>
       <c r="O53" t="n">
         <v>1.47</v>
@@ -9903,7 +9907,7 @@
         <v>2.35</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="R53" t="n">
         <v>1.47</v>
@@ -9915,25 +9919,25 @@
         <v>2.27</v>
       </c>
       <c r="U53" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="V53" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="W53" t="n">
         <v>5</v>
       </c>
       <c r="X53" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="Y53" t="n">
         <v>9</v>
       </c>
       <c r="Z53" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AA53" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AB53" t="n">
         <v>45</v>
@@ -9942,7 +9946,7 @@
         <v>6.7</v>
       </c>
       <c r="AD53" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="AE53" t="n">
         <v>22</v>
@@ -9952,19 +9956,19 @@
       </c>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AI53" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AJ53" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AK53" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AL53" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM53" t="n">
         <v>80</v>
@@ -9973,22 +9977,22 @@
         <v>3.35</v>
       </c>
       <c r="AO53" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AP53" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ53" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AR53" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS53" t="n">
         <v>400</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="AU53" t="n">
         <v>8.5</v>
@@ -9997,10 +10001,10 @@
         <v>100</v>
       </c>
       <c r="AW53" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AX53" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AY53" t="n">
         <v>40</v>
@@ -10009,7 +10013,7 @@
         <v>200</v>
       </c>
       <c r="BA53" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BB53" t="n">
         <v>81</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="H2" t="n">
         <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
         <v>1.91</v>
@@ -762,7 +762,7 @@
         <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -771,10 +771,10 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P2" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q2" t="n">
         <v>1.73</v>
@@ -789,22 +789,22 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -816,19 +816,19 @@
         <v>13</v>
       </c>
       <c r="AD2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>301</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
@@ -846,7 +846,7 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO2" t="n">
         <v>6.5</v>
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K3" t="n">
         <v>2.2</v>
@@ -995,7 +995,7 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1049,16 +1049,16 @@
         <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
       </c>
       <c r="AW3" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
@@ -1129,22 +1129,22 @@
         <v>4</v>
       </c>
       <c r="M4" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P4" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="R4" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S4" t="n">
         <v>1.62</v>
@@ -1202,7 +1202,7 @@
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM4" t="n">
         <v>41</v>
@@ -1291,28 +1291,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H5" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I5" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1372,13 +1372,13 @@
         <v>301</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK5" t="n">
         <v>41</v>
@@ -1402,10 +1402,10 @@
         <v>41</v>
       </c>
       <c r="AR5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT5" t="n">
         <v>2.63</v>
@@ -1426,7 +1426,7 @@
         <v>34</v>
       </c>
       <c r="AZ5" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA5" t="n">
         <v>101</v>
@@ -1655,10 +1655,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
         <v>1.73</v>
@@ -1673,22 +1673,22 @@
         <v>2.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="R7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S7" t="n">
         <v>1.62</v>
@@ -1709,7 +1709,7 @@
         <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
         <v>67</v>
@@ -1730,17 +1730,17 @@
         <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AI7" t="n">
         <v>6.5</v>
       </c>
       <c r="AJ7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK7" t="n">
         <v>13</v>
@@ -1782,7 +1782,7 @@
         <v>3.4</v>
       </c>
       <c r="AX7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY7" t="n">
         <v>29</v>
@@ -1791,7 +1791,7 @@
         <v>34</v>
       </c>
       <c r="BA7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB7" t="n">
         <v>351</v>
@@ -1853,22 +1853,22 @@
         <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P8" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
         <v>1.57</v>
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L9" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.62</v>
@@ -2068,13 +2068,13 @@
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA9" t="n">
         <v>26</v>
@@ -2096,28 +2096,28 @@
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM9" t="n">
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>34</v>
@@ -2141,10 +2141,10 @@
         <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY9" t="n">
         <v>41</v>
@@ -2153,10 +2153,10 @@
         <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
         <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
         <v>1.83</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.14</v>
@@ -2245,19 +2245,19 @@
         <v>1.5</v>
       </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
@@ -2276,16 +2276,16 @@
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI10" t="n">
+        <v>19</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>17</v>
       </c>
-      <c r="AJ10" t="n">
-        <v>15</v>
-      </c>
       <c r="AK10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
@@ -2297,13 +2297,13 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>34</v>
       </c>
       <c r="AQ10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR10" t="n">
         <v>81</v>
@@ -2321,19 +2321,19 @@
         <v>101</v>
       </c>
       <c r="AW10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY10" t="n">
         <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB10" t="n">
         <v>501</v>
@@ -2377,13 +2377,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H11" t="n">
         <v>3.7</v>
       </c>
       <c r="I11" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
         <v>3.4</v>
@@ -2428,7 +2428,7 @@
         <v>13</v>
       </c>
       <c r="X11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y11" t="n">
         <v>11</v>
@@ -2464,7 +2464,7 @@
         <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
         <v>21</v>
@@ -2506,13 +2506,13 @@
         <v>4.5</v>
       </c>
       <c r="AX11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY11" t="n">
         <v>17</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA11" t="n">
         <v>51</v>
@@ -2559,79 +2559,79 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="J12" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="K12" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="L12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N12" t="n">
+        <v>13</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R12" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="T12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V12" t="n">
         <v>2.2</v>
       </c>
-      <c r="L12" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N12" t="n">
-        <v>11</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="T12" t="n">
-        <v>3</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2.1</v>
-      </c>
       <c r="W12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB12" t="n">
         <v>23</v>
       </c>
       <c r="AC12" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE12" t="n">
         <v>12</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>41</v>
@@ -2646,22 +2646,22 @@
         <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="AO12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP12" t="n">
         <v>21</v>
@@ -2676,34 +2676,34 @@
         <v>126</v>
       </c>
       <c r="AT12" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU12" t="n">
         <v>7.5</v>
       </c>
       <c r="AV12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>15</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA12" t="n">
         <v>51</v>
       </c>
-      <c r="AW12" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>23</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>51</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>67</v>
-      </c>
       <c r="BB12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC12" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2741,58 +2741,58 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="H13" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J13" t="n">
         <v>2.5</v>
       </c>
       <c r="K13" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O13" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="R13" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="S13" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="T13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U13" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
@@ -2804,25 +2804,25 @@
         <v>15</v>
       </c>
       <c r="AB13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE13" t="n">
         <v>15</v>
       </c>
-      <c r="AD13" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>13</v>
-      </c>
       <c r="AF13" t="n">
         <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AI13" t="n">
         <v>21</v>
@@ -2834,10 +2834,10 @@
         <v>41</v>
       </c>
       <c r="AL13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN13" t="n">
         <v>4</v>
@@ -2849,37 +2849,37 @@
         <v>19</v>
       </c>
       <c r="AQ13" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS13" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT13" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW13" t="n">
         <v>6</v>
       </c>
       <c r="AX13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA13" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB13" t="n">
         <v>151</v>
@@ -2941,10 +2941,10 @@
         <v>2.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -3461,40 +3461,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="H17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="J17" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="K17" t="n">
         <v>2.88</v>
       </c>
       <c r="L17" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="M17" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="P17" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R17" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="S17" t="n">
         <v>1.22</v>
@@ -3503,73 +3503,73 @@
         <v>4</v>
       </c>
       <c r="U17" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="V17" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="W17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y17" t="n">
         <v>9.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AA17" t="n">
         <v>10</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
         <v>21</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG17" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
         <v>51</v>
       </c>
       <c r="AJ17" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AK17" t="n">
-        <v>101</v>
+        <v>151</v>
       </c>
       <c r="AL17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM17" t="n">
         <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP17" t="n">
         <v>15</v>
       </c>
       <c r="AQ17" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3581,28 +3581,28 @@
         <v>4</v>
       </c>
       <c r="AU17" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AX17" t="n">
         <v>41</v>
       </c>
       <c r="AY17" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ17" t="n">
+        <v>201</v>
+      </c>
+      <c r="BA17" t="n">
         <v>151</v>
       </c>
-      <c r="BA17" t="n">
-        <v>126</v>
-      </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
@@ -3639,28 +3639,28 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H18" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
         <v>3.9</v>
       </c>
       <c r="J18" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K18" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L18" t="n">
         <v>4.33</v>
       </c>
       <c r="M18" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
         <v>1.2</v>
@@ -3669,25 +3669,25 @@
         <v>4.33</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R18" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="X18" t="n">
         <v>9.5</v>
@@ -3699,25 +3699,25 @@
         <v>15</v>
       </c>
       <c r="AA18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD18" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF18" t="n">
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH18" t="n">
         <v>13</v>
@@ -3747,19 +3747,19 @@
         <v>19</v>
       </c>
       <c r="AQ18" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS18" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AT18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
@@ -3771,7 +3771,7 @@
         <v>21</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
         <v>67</v>
@@ -3821,13 +3821,13 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="H19" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="I19" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="J19" t="n">
         <v>1.57</v>
@@ -3860,7 +3860,7 @@
         <v>1.27</v>
       </c>
       <c r="T19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="U19" t="n">
         <v>2.1</v>
@@ -3872,19 +3872,19 @@
         <v>7.2</v>
       </c>
       <c r="X19" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y19" t="n">
         <v>10.25</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC19" t="n">
         <v>10.25</v>
@@ -3893,7 +3893,7 @@
         <v>13.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF19" t="n">
         <v>150</v>
@@ -3905,7 +3905,7 @@
         <v>26</v>
       </c>
       <c r="AI19" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AJ19" t="n">
         <v>45</v>
@@ -3920,10 +3920,10 @@
         <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AP19" t="n">
         <v>15.5</v>
@@ -3932,16 +3932,16 @@
         <v>11.5</v>
       </c>
       <c r="AR19" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AS19" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AV19" t="n">
         <v>90</v>
@@ -3950,7 +3950,7 @@
         <v>11.75</v>
       </c>
       <c r="AX19" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AY19" t="n">
         <v>60</v>
@@ -3997,46 +3997,46 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="H20" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
       </c>
       <c r="L20" t="n">
-        <v>4.75</v>
+        <v>4.33</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="n">
         <v>1.91</v>
@@ -4048,25 +4048,25 @@
         <v>6.5</v>
       </c>
       <c r="X20" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
@@ -4078,13 +4078,13 @@
         <v>351</v>
       </c>
       <c r="AH20" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AJ20" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
         <v>41</v>
@@ -4096,10 +4096,10 @@
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP20" t="n">
         <v>23</v>
@@ -4108,13 +4108,13 @@
         <v>41</v>
       </c>
       <c r="AR20" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS20" t="n">
         <v>201</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
         <v>8.5</v>
@@ -4123,10 +4123,10 @@
         <v>67</v>
       </c>
       <c r="AW20" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY20" t="n">
         <v>34</v>
@@ -4138,7 +4138,7 @@
         <v>101</v>
       </c>
       <c r="BB20" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC20" t="n">
         <v>126</v>
@@ -4179,13 +4179,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J21" t="n">
         <v>3.1</v>
@@ -4197,10 +4197,10 @@
         <v>3.75</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N21" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O21" t="n">
         <v>1.36</v>
@@ -4209,10 +4209,10 @@
         <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S21" t="n">
         <v>1.5</v>
@@ -4230,13 +4230,13 @@
         <v>7</v>
       </c>
       <c r="X21" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y21" t="n">
         <v>10</v>
       </c>
-      <c r="Y21" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
@@ -4257,10 +4257,10 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI21" t="n">
         <v>15</v>
@@ -4272,7 +4272,7 @@
         <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
@@ -4287,7 +4287,7 @@
         <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR21" t="n">
         <v>67</v>
@@ -4302,13 +4302,13 @@
         <v>8.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW21" t="n">
         <v>5</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY21" t="n">
         <v>29</v>
@@ -4361,40 +4361,40 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H22" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J22" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="K22" t="n">
         <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="n">
         <v>1.5</v>
@@ -4412,13 +4412,13 @@
         <v>7</v>
       </c>
       <c r="X22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y22" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z22" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA22" t="n">
         <v>21</v>
@@ -4427,7 +4427,7 @@
         <v>34</v>
       </c>
       <c r="AC22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD22" t="n">
         <v>5.5</v>
@@ -4442,13 +4442,13 @@
         <v>351</v>
       </c>
       <c r="AH22" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ22" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
         <v>34</v>
@@ -4463,19 +4463,19 @@
         <v>4.33</v>
       </c>
       <c r="AO22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP22" t="n">
         <v>26</v>
       </c>
       <c r="AQ22" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR22" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT22" t="n">
         <v>2.5</v>
@@ -4487,19 +4487,19 @@
         <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY22" t="n">
         <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA22" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB22" t="n">
         <v>251</v>
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J23" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L23" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M23" t="n">
         <v>1.04</v>
@@ -4573,10 +4573,10 @@
         <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R23" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S23" t="n">
         <v>1.36</v>
@@ -4591,13 +4591,13 @@
         <v>2.2</v>
       </c>
       <c r="W23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
       </c>
       <c r="Y23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z23" t="n">
         <v>23</v>
@@ -4609,13 +4609,13 @@
         <v>26</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
@@ -4633,7 +4633,7 @@
         <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
@@ -4642,7 +4642,7 @@
         <v>26</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO23" t="n">
         <v>13</v>
@@ -4669,22 +4669,22 @@
         <v>51</v>
       </c>
       <c r="AW23" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX23" t="n">
         <v>15</v>
       </c>
       <c r="AY23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA23" t="n">
         <v>51</v>
       </c>
-      <c r="BA23" t="n">
-        <v>67</v>
-      </c>
       <c r="BB23" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4725,16 +4725,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I24" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J24" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
@@ -4743,10 +4743,10 @@
         <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
         <v>1.36</v>
@@ -4761,10 +4761,10 @@
         <v>1.67</v>
       </c>
       <c r="S24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U24" t="n">
         <v>2.2</v>
@@ -4776,13 +4776,13 @@
         <v>5.5</v>
       </c>
       <c r="X24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y24" t="n">
         <v>9</v>
       </c>
       <c r="Z24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="n">
         <v>15</v>
@@ -4791,10 +4791,10 @@
         <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE24" t="n">
         <v>21</v>
@@ -4806,7 +4806,7 @@
         <v>1250</v>
       </c>
       <c r="AH24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI24" t="n">
         <v>26</v>
@@ -4815,7 +4815,7 @@
         <v>17</v>
       </c>
       <c r="AK24" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL24" t="n">
         <v>41</v>
@@ -4827,7 +4827,7 @@
         <v>3.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP24" t="n">
         <v>23</v>
@@ -4842,7 +4842,7 @@
         <v>201</v>
       </c>
       <c r="AT24" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU24" t="n">
         <v>9.5</v>
@@ -4931,16 +4931,16 @@
         <v>10</v>
       </c>
       <c r="O25" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P25" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S25" t="n">
         <v>1.44</v>
@@ -5113,10 +5113,10 @@
         <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
         <v>1.7</v>
@@ -5271,13 +5271,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H27" t="n">
         <v>4.33</v>
       </c>
       <c r="I27" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J27" t="n">
         <v>2.05</v>
@@ -5289,10 +5289,10 @@
         <v>5.5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O27" t="n">
         <v>1.2</v>
@@ -5313,10 +5313,10 @@
         <v>3.4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W27" t="n">
         <v>8</v>
@@ -5361,7 +5361,7 @@
         <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL27" t="n">
         <v>41</v>
@@ -5391,7 +5391,7 @@
         <v>3.4</v>
       </c>
       <c r="AU27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
@@ -5453,13 +5453,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H28" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I28" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
         <v>2.1</v>
@@ -5468,7 +5468,7 @@
         <v>2.4</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -5495,16 +5495,16 @@
         <v>3.4</v>
       </c>
       <c r="U28" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V28" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
@@ -5516,7 +5516,7 @@
         <v>12</v>
       </c>
       <c r="AB28" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC28" t="n">
         <v>15</v>
@@ -5525,37 +5525,37 @@
         <v>8.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
         <v>29</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>51</v>
       </c>
       <c r="AL28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM28" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP28" t="n">
         <v>17</v>
@@ -5582,19 +5582,19 @@
         <v>7</v>
       </c>
       <c r="AX28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY28" t="n">
         <v>29</v>
       </c>
       <c r="AZ28" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA28" t="n">
         <v>101</v>
       </c>
       <c r="BB28" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC28" t="n">
         <v>81</v>
@@ -5635,22 +5635,22 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H29" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I29" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L29" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M29" t="n">
         <v>1.03</v>
@@ -5665,25 +5665,25 @@
         <v>4.5</v>
       </c>
       <c r="Q29" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="R29" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S29" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U29" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V29" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W29" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X29" t="n">
         <v>15</v>
@@ -5692,7 +5692,7 @@
         <v>10</v>
       </c>
       <c r="Z29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA29" t="n">
         <v>19</v>
@@ -5701,7 +5701,7 @@
         <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD29" t="n">
         <v>7</v>
@@ -5710,7 +5710,7 @@
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG29" t="n">
         <v>126</v>
@@ -5722,22 +5722,22 @@
         <v>15</v>
       </c>
       <c r="AJ29" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK29" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL29" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM29" t="n">
         <v>23</v>
       </c>
       <c r="AN29" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP29" t="n">
         <v>21</v>
@@ -5752,10 +5752,10 @@
         <v>126</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU29" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV29" t="n">
         <v>41</v>
@@ -5767,7 +5767,7 @@
         <v>13</v>
       </c>
       <c r="AY29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ29" t="n">
         <v>41</v>
@@ -5776,7 +5776,7 @@
         <v>51</v>
       </c>
       <c r="BB29" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC29" t="inlineStr"/>
       <c r="BD29" t="inlineStr"/>
@@ -5822,31 +5822,31 @@
         <v>7</v>
       </c>
       <c r="J30" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="K30" t="n">
         <v>2.1</v>
       </c>
       <c r="L30" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M30" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N30" t="n">
-        <v>8.949999999999999</v>
+        <v>9</v>
       </c>
       <c r="O30" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P30" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="R30" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S30" t="n">
         <v>1.4</v>
@@ -5855,28 +5855,28 @@
         <v>2.5</v>
       </c>
       <c r="U30" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="V30" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="W30" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="X30" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="Y30" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="Z30" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AA30" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AB30" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AC30" t="n">
         <v>9.5</v>
@@ -5894,10 +5894,10 @@
         <v>800</v>
       </c>
       <c r="AH30" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI30" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AJ30" t="n">
         <v>22</v>
@@ -5909,7 +5909,7 @@
         <v>90</v>
       </c>
       <c r="AM30" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN30" t="n">
         <v>3.2</v>
@@ -5918,10 +5918,10 @@
         <v>7.1</v>
       </c>
       <c r="AP30" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AQ30" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR30" t="n">
         <v>55</v>
@@ -5951,7 +5951,7 @@
         <v>350</v>
       </c>
       <c r="BA30" t="n">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="BB30" t="n">
         <v>500</v>
@@ -5991,13 +5991,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H31" t="n">
         <v>3.8</v>
       </c>
       <c r="I31" t="n">
-        <v>6.3</v>
+        <v>6.7</v>
       </c>
       <c r="J31" t="n">
         <v>2.05</v>
@@ -6012,31 +6012,31 @@
         <v>1.01</v>
       </c>
       <c r="N31" t="n">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="O31" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R31" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S31" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="T31" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="U31" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="V31" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W31" t="n">
         <v>6.1</v>
@@ -6045,7 +6045,7 @@
         <v>6.5</v>
       </c>
       <c r="Y31" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="Z31" t="n">
         <v>10</v>
@@ -6054,40 +6054,40 @@
         <v>12.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AC31" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD31" t="n">
         <v>7.6</v>
       </c>
       <c r="AE31" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AF31" t="n">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AG31" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AH31" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI31" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AJ31" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK31" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AL31" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM31" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AN31" t="n">
         <v>3.2</v>
@@ -6096,7 +6096,7 @@
         <v>7.1</v>
       </c>
       <c r="AP31" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ31" t="n">
         <v>22</v>
@@ -6105,34 +6105,34 @@
         <v>60</v>
       </c>
       <c r="AS31" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="AU31" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="AV31" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AW31" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AX31" t="n">
         <v>40</v>
       </c>
       <c r="AY31" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ31" t="n">
+        <v>250</v>
+      </c>
+      <c r="BA31" t="n">
         <v>300</v>
       </c>
-      <c r="BA31" t="n">
-        <v>350</v>
-      </c>
       <c r="BB31" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BC31" t="inlineStr"/>
       <c r="BD31" t="inlineStr"/>
@@ -6169,103 +6169,103 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I32" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="J32" t="n">
         <v>2.75</v>
       </c>
       <c r="K32" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="L32" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N32" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O32" t="n">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="P32" t="n">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.25</v>
+        <v>2.03</v>
       </c>
       <c r="R32" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="S32" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T32" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U32" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V32" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="W32" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="X32" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
       </c>
       <c r="Z32" t="n">
+        <v>19</v>
+      </c>
+      <c r="AA32" t="n">
         <v>17</v>
       </c>
-      <c r="AA32" t="n">
-        <v>19</v>
-      </c>
       <c r="AB32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE32" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF32" t="n">
         <v>51</v>
       </c>
       <c r="AG32" t="n">
-        <v>401</v>
+        <v>251</v>
       </c>
       <c r="AH32" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AJ32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK32" t="n">
         <v>41</v>
       </c>
       <c r="AL32" t="n">
+        <v>29</v>
+      </c>
+      <c r="AM32" t="n">
         <v>34</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>41</v>
       </c>
       <c r="AN32" t="n">
         <v>4</v>
@@ -6280,37 +6280,37 @@
         <v>41</v>
       </c>
       <c r="AR32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS32" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW32" t="n">
         <v>5.5</v>
       </c>
       <c r="AX32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AZ32" t="n">
+        <v>67</v>
+      </c>
+      <c r="BA32" t="n">
         <v>81</v>
       </c>
-      <c r="BA32" t="n">
-        <v>101</v>
-      </c>
       <c r="BB32" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="BC32" t="n">
         <v>81</v>
@@ -6351,22 +6351,22 @@
         </is>
       </c>
       <c r="G33" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H33" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I33" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J33" t="n">
         <v>5</v>
-      </c>
-      <c r="H33" t="n">
-        <v>3</v>
-      </c>
-      <c r="I33" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J33" t="n">
-        <v>5.5</v>
       </c>
       <c r="K33" t="n">
         <v>1.95</v>
       </c>
       <c r="L33" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="M33" t="n">
         <v>1.11</v>
@@ -6393,25 +6393,25 @@
         <v>2.25</v>
       </c>
       <c r="U33" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V33" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W33" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="X33" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="Y33" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z33" t="n">
         <v>51</v>
       </c>
       <c r="AA33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB33" t="n">
         <v>51</v>
@@ -6420,7 +6420,7 @@
         <v>6.5</v>
       </c>
       <c r="AD33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE33" t="n">
         <v>21</v>
@@ -6432,16 +6432,16 @@
         <v>351</v>
       </c>
       <c r="AH33" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ33" t="n">
         <v>9.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL33" t="n">
         <v>19</v>
@@ -6450,16 +6450,16 @@
         <v>41</v>
       </c>
       <c r="AN33" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AO33" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP33" t="n">
         <v>41</v>
       </c>
       <c r="AQ33" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR33" t="n">
         <v>151</v>
@@ -6471,22 +6471,22 @@
         <v>2.25</v>
       </c>
       <c r="AU33" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV33" t="n">
         <v>81</v>
       </c>
       <c r="AW33" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AX33" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AY33" t="n">
         <v>26</v>
       </c>
       <c r="AZ33" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA33" t="n">
         <v>67</v>
@@ -6529,13 +6529,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H34" t="n">
         <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J34" t="n">
         <v>2.88</v>
@@ -6544,7 +6544,7 @@
         <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
@@ -6664,7 +6664,7 @@
         <v>21</v>
       </c>
       <c r="AZ34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA34" t="n">
         <v>51</v>
@@ -6902,13 +6902,13 @@
         <v>5.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="L36" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
@@ -6917,34 +6917,34 @@
         <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P36" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R36" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S36" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="V36" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="W36" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X36" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
@@ -6959,22 +6959,22 @@
         <v>19</v>
       </c>
       <c r="AC36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD36" t="n">
         <v>9</v>
       </c>
       <c r="AE36" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF36" t="n">
         <v>41</v>
       </c>
       <c r="AG36" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI36" t="n">
         <v>34</v>
@@ -6983,25 +6983,25 @@
         <v>19</v>
       </c>
       <c r="AK36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL36" t="n">
         <v>41</v>
       </c>
       <c r="AM36" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP36" t="n">
         <v>15</v>
       </c>
       <c r="AQ36" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR36" t="n">
         <v>34</v>
@@ -7010,7 +7010,7 @@
         <v>81</v>
       </c>
       <c r="AT36" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU36" t="n">
         <v>7.5</v>
@@ -7025,7 +7025,7 @@
         <v>26</v>
       </c>
       <c r="AY36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ36" t="n">
         <v>81</v>
@@ -7034,10 +7034,10 @@
         <v>81</v>
       </c>
       <c r="BB36" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC36" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD36" t="n">
         <v>151</v>
@@ -7278,19 +7278,19 @@
         <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O38" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P38" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R38" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S38" t="n">
         <v>1.22</v>
@@ -7442,7 +7442,7 @@
         <v>3</v>
       </c>
       <c r="H39" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I39" t="n">
         <v>2.15</v>
@@ -7451,49 +7451,49 @@
         <v>3.5</v>
       </c>
       <c r="K39" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L39" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
+        <v>15</v>
+      </c>
+      <c r="O39" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R39" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S39" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U39" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V39" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W39" t="n">
+        <v>13</v>
+      </c>
+      <c r="X39" t="n">
         <v>17</v>
       </c>
-      <c r="O39" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="R39" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S39" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T39" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U39" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V39" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W39" t="n">
-        <v>15</v>
-      </c>
-      <c r="X39" t="n">
-        <v>19</v>
-      </c>
       <c r="Y39" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z39" t="n">
         <v>34</v>
@@ -7505,7 +7505,7 @@
         <v>26</v>
       </c>
       <c r="AC39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD39" t="n">
         <v>7.5</v>
@@ -7514,16 +7514,16 @@
         <v>12</v>
       </c>
       <c r="AF39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG39" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AH39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI39" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ39" t="n">
         <v>9</v>
@@ -7541,7 +7541,7 @@
         <v>5.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP39" t="n">
         <v>21</v>
@@ -7553,10 +7553,10 @@
         <v>51</v>
       </c>
       <c r="AS39" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU39" t="n">
         <v>7</v>
@@ -7571,13 +7571,13 @@
         <v>11</v>
       </c>
       <c r="AY39" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA39" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BB39" t="n">
         <v>101</v>
@@ -7803,13 +7803,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="J41" t="n">
         <v>2.4</v>
@@ -7818,13 +7818,13 @@
         <v>2.5</v>
       </c>
       <c r="L41" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O41" t="n">
         <v>1.13</v>
@@ -7851,16 +7851,16 @@
         <v>2.63</v>
       </c>
       <c r="W41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y41" t="n">
         <v>9</v>
       </c>
       <c r="Z41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA41" t="n">
         <v>13</v>
@@ -7878,10 +7878,10 @@
         <v>12</v>
       </c>
       <c r="AF41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG41" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="n">
         <v>17</v>
@@ -7902,10 +7902,10 @@
         <v>23</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO41" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP41" t="n">
         <v>15</v>
@@ -7932,7 +7932,7 @@
         <v>6</v>
       </c>
       <c r="AX41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY41" t="n">
         <v>21</v>
@@ -7947,7 +7947,7 @@
         <v>101</v>
       </c>
       <c r="BC41" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD41" t="n">
         <v>151</v>
@@ -7988,10 +7988,10 @@
         <v>1.53</v>
       </c>
       <c r="H42" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I42" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J42" t="n">
         <v>2.05</v>
@@ -8045,7 +8045,7 @@
         <v>12</v>
       </c>
       <c r="AA42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB42" t="n">
         <v>21</v>
@@ -8066,7 +8066,7 @@
         <v>151</v>
       </c>
       <c r="AH42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI42" t="n">
         <v>29</v>
@@ -8090,7 +8090,7 @@
         <v>7.5</v>
       </c>
       <c r="AP42" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ42" t="n">
         <v>21</v>
@@ -8111,7 +8111,7 @@
         <v>51</v>
       </c>
       <c r="AW42" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX42" t="n">
         <v>26</v>
@@ -8367,10 +8367,10 @@
         <v>3.6</v>
       </c>
       <c r="M44" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O44" t="n">
         <v>1.36</v>
@@ -8391,10 +8391,10 @@
         <v>2.5</v>
       </c>
       <c r="U44" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V44" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W44" t="n">
         <v>7.5</v>
@@ -8430,7 +8430,7 @@
         <v>800</v>
       </c>
       <c r="AH44" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI44" t="n">
         <v>15</v>
@@ -8472,7 +8472,7 @@
         <v>8.5</v>
       </c>
       <c r="AV44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW44" t="n">
         <v>5</v>
@@ -8531,34 +8531,34 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H45" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J45" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K45" t="n">
         <v>2.1</v>
       </c>
       <c r="L45" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M45" t="n">
         <v>1.07</v>
       </c>
       <c r="N45" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O45" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P45" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q45" t="n">
         <v>2.1</v>
@@ -8633,10 +8633,10 @@
         <v>3.5</v>
       </c>
       <c r="AO45" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ45" t="n">
         <v>29</v>
@@ -8666,7 +8666,7 @@
         <v>41</v>
       </c>
       <c r="AZ45" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA45" t="n">
         <v>151</v>
@@ -8713,22 +8713,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H46" t="n">
         <v>3.65</v>
       </c>
       <c r="I46" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J46" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="K46" t="n">
         <v>2.3</v>
       </c>
       <c r="L46" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="M46" t="n">
         <v>1.03</v>
@@ -8737,16 +8737,16 @@
         <v>9</v>
       </c>
       <c r="O46" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="P46" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="Q46" t="n">
         <v>1.57</v>
       </c>
       <c r="R46" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="S46" t="n">
         <v>1.3</v>
@@ -8758,25 +8758,25 @@
         <v>1.5</v>
       </c>
       <c r="V46" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="W46" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X46" t="n">
         <v>16.5</v>
       </c>
       <c r="Y46" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="Z46" t="n">
         <v>32</v>
       </c>
       <c r="AA46" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AB46" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC46" t="n">
         <v>9</v>
@@ -8785,28 +8785,28 @@
         <v>7.4</v>
       </c>
       <c r="AE46" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG46" t="n">
         <v>200</v>
       </c>
       <c r="AH46" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AI46" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ46" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AK46" t="n">
         <v>24</v>
       </c>
       <c r="AL46" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AM46" t="n">
         <v>21</v>
@@ -8815,16 +8815,16 @@
         <v>5</v>
       </c>
       <c r="AO46" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AQ46" t="n">
         <v>55</v>
       </c>
       <c r="AR46" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AS46" t="n">
         <v>175</v>
@@ -8833,22 +8833,22 @@
         <v>3.2</v>
       </c>
       <c r="AU46" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV46" t="n">
         <v>45</v>
       </c>
       <c r="AW46" t="n">
-        <v>4.5</v>
+        <v>4.55</v>
       </c>
       <c r="AX46" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AY46" t="n">
         <v>16.5</v>
       </c>
       <c r="AZ46" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA46" t="n">
         <v>60</v>
@@ -8891,19 +8891,19 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="H47" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I47" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J47" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="K47" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L47" t="n">
         <v>4.05</v>
@@ -8930,13 +8930,13 @@
         <v>1.31</v>
       </c>
       <c r="T47" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="U47" t="n">
         <v>1.57</v>
       </c>
       <c r="V47" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W47" t="n">
         <v>9.25</v>
@@ -8948,7 +8948,7 @@
         <v>8.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AA47" t="n">
         <v>13</v>
@@ -8960,7 +8960,7 @@
         <v>8.75</v>
       </c>
       <c r="AD47" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE47" t="n">
         <v>12.5</v>
@@ -8978,7 +8978,7 @@
         <v>24</v>
       </c>
       <c r="AJ47" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK47" t="n">
         <v>60</v>
@@ -8990,25 +8990,25 @@
         <v>30</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="AO47" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AP47" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AR47" t="n">
         <v>50</v>
       </c>
       <c r="AS47" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU47" t="n">
         <v>6.7</v>
@@ -9017,7 +9017,7 @@
         <v>50</v>
       </c>
       <c r="AW47" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="AX47" t="n">
         <v>20</v>
@@ -9026,7 +9026,7 @@
         <v>22</v>
       </c>
       <c r="AZ47" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BA47" t="n">
         <v>110</v>
@@ -9249,16 +9249,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="H49" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I49" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="J49" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K49" t="n">
         <v>2.1</v>
@@ -9267,28 +9267,28 @@
         <v>4</v>
       </c>
       <c r="M49" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N49" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O49" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P49" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q49" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="S49" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T49" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U49" t="n">
         <v>1.83</v>
@@ -9300,25 +9300,25 @@
         <v>7.5</v>
       </c>
       <c r="X49" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y49" t="n">
         <v>9</v>
       </c>
       <c r="Z49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA49" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB49" t="n">
         <v>29</v>
       </c>
       <c r="AC49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD49" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE49" t="n">
         <v>15</v>
@@ -9330,7 +9330,7 @@
         <v>251</v>
       </c>
       <c r="AH49" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI49" t="n">
         <v>17</v>
@@ -9339,34 +9339,34 @@
         <v>12</v>
       </c>
       <c r="AK49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM49" t="n">
         <v>34</v>
       </c>
       <c r="AN49" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ49" t="n">
         <v>41</v>
       </c>
       <c r="AR49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS49" t="n">
         <v>151</v>
       </c>
       <c r="AT49" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU49" t="n">
         <v>8</v>
@@ -9375,10 +9375,10 @@
         <v>51</v>
       </c>
       <c r="AW49" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX49" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY49" t="n">
         <v>29</v>
@@ -9431,22 +9431,22 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="H50" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I50" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J50" t="n">
         <v>3.1</v>
       </c>
-      <c r="J50" t="n">
-        <v>2.88</v>
-      </c>
       <c r="K50" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L50" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M50" t="n">
         <v>1.05</v>
@@ -9479,25 +9479,25 @@
         <v>2</v>
       </c>
       <c r="W50" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y50" t="n">
         <v>9.5</v>
       </c>
       <c r="Z50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA50" t="n">
         <v>19</v>
       </c>
       <c r="AB50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD50" t="n">
         <v>6.5</v>
@@ -9512,7 +9512,7 @@
         <v>201</v>
       </c>
       <c r="AH50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI50" t="n">
         <v>15</v>
@@ -9521,28 +9521,28 @@
         <v>11</v>
       </c>
       <c r="AK50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL50" t="n">
         <v>23</v>
       </c>
       <c r="AM50" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN50" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP50" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ50" t="n">
         <v>41</v>
       </c>
       <c r="AR50" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS50" t="n">
         <v>151</v>
@@ -9560,22 +9560,22 @@
         <v>5</v>
       </c>
       <c r="AX50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AY50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ50" t="n">
         <v>51</v>
       </c>
       <c r="BA50" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB50" t="n">
         <v>151</v>
       </c>
       <c r="BC50" t="n">
-        <v>276</v>
+        <v>251</v>
       </c>
       <c r="BD50" t="n">
         <v>301</v>
@@ -9877,13 +9877,13 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H53" t="n">
         <v>3.25</v>
       </c>
       <c r="I53" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
         <v>2.35</v>
@@ -9892,19 +9892,19 @@
         <v>1.98</v>
       </c>
       <c r="L53" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="M53" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N53" t="n">
-        <v>7.25</v>
+        <v>7.65</v>
       </c>
       <c r="O53" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="P53" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="Q53" t="n">
         <v>2.32</v>
@@ -9928,7 +9928,7 @@
         <v>5</v>
       </c>
       <c r="X53" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="Y53" t="n">
         <v>9</v>
@@ -9937,7 +9937,7 @@
         <v>13</v>
       </c>
       <c r="AA53" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB53" t="n">
         <v>45</v>
@@ -9956,10 +9956,10 @@
       </c>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="AI53" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AJ53" t="n">
         <v>17.5</v>
@@ -9974,7 +9974,7 @@
         <v>80</v>
       </c>
       <c r="AN53" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="AO53" t="n">
         <v>8.75</v>
@@ -10001,10 +10001,10 @@
         <v>100</v>
       </c>
       <c r="AW53" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AX53" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AY53" t="n">
         <v>40</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
@@ -750,16 +750,16 @@
         <v>1.38</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="I2" t="n">
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L2" t="n">
         <v>7.5</v>
@@ -777,10 +777,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -825,16 +825,16 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI2" t="n">
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
         <v>81</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AX2" t="n">
         <v>41</v>
@@ -995,7 +995,7 @@
         <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" t="n">
         <v>6.5</v>
@@ -1049,7 +1049,7 @@
         <v>2.75</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV3" t="n">
         <v>51</v>
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K4" t="n">
         <v>1.83</v>
@@ -1147,16 +1147,16 @@
         <v>1.4</v>
       </c>
       <c r="S4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="T4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W4" t="n">
         <v>6</v>
@@ -1165,10 +1165,10 @@
         <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA4" t="n">
         <v>29</v>
@@ -1183,7 +1183,7 @@
         <v>5.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
         <v>81</v>
@@ -1202,13 +1202,13 @@
         <v>34</v>
       </c>
       <c r="AL4" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO4" t="n">
         <v>17</v>
@@ -1223,10 +1223,10 @@
         <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AT4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AU4" t="n">
         <v>9.5</v>
@@ -1312,7 +1312,7 @@
         <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1420,7 +1420,7 @@
         <v>5.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY5" t="n">
         <v>34</v>
@@ -1485,7 +1485,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L6" t="n">
         <v>3.25</v>
@@ -1515,16 +1515,16 @@
         <v>2.25</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
@@ -1539,7 +1539,7 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1614,7 +1614,7 @@
         <v>81</v>
       </c>
       <c r="BB6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I7" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="J7" t="n">
         <v>6.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1679,37 +1679,37 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R7" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S7" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="T7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X7" t="n">
         <v>26</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
         <v>67</v>
@@ -1721,7 +1721,7 @@
         <v>67</v>
       </c>
       <c r="AC7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>
@@ -1743,10 +1743,10 @@
         <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
@@ -1758,7 +1758,7 @@
         <v>41</v>
       </c>
       <c r="AP7" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AQ7" t="n">
         <v>151</v>
@@ -1770,13 +1770,13 @@
         <v>501</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
         <v>3.4</v>
@@ -1785,7 +1785,7 @@
         <v>9.5</v>
       </c>
       <c r="AY7" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ7" t="n">
         <v>34</v>
@@ -1794,13 +1794,13 @@
         <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -2035,10 +2035,10 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
         <v>1.62</v>
@@ -2197,61 +2197,61 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L10" t="n">
+        <v>5</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N10" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W10" t="n">
         <v>5.5</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N10" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="W10" t="n">
-        <v>4.75</v>
       </c>
       <c r="X10" t="n">
         <v>7.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z10" t="n">
         <v>17</v>
@@ -2263,26 +2263,26 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI10" t="n">
         <v>19</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
         <v>51</v>
@@ -2297,10 +2297,10 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP10" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
@@ -2309,34 +2309,34 @@
         <v>81</v>
       </c>
       <c r="AS10" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW10" t="n">
         <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
         <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2771,10 +2771,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R13" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -3105,13 +3105,13 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H15" t="n">
         <v>3.5</v>
       </c>
       <c r="I15" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J15" t="n">
         <v>3.75</v>
@@ -3120,7 +3120,7 @@
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X15" t="n">
         <v>17</v>
@@ -3189,13 +3189,13 @@
         <v>8</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL15" t="n">
         <v>17</v>
@@ -3204,10 +3204,10 @@
         <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AP15" t="n">
         <v>26</v>
@@ -3461,40 +3461,40 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="H17" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="I17" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="K17" t="n">
         <v>2.88</v>
       </c>
       <c r="L17" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="M17" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="P17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="R17" t="n">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="S17" t="n">
         <v>1.22</v>
@@ -3503,28 +3503,28 @@
         <v>4</v>
       </c>
       <c r="U17" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V17" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W17" t="n">
         <v>10</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
         <v>10</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
         <v>21</v>
@@ -3533,7 +3533,7 @@
         <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
@@ -3542,19 +3542,19 @@
         <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AI17" t="n">
         <v>51</v>
       </c>
       <c r="AJ17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AL17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM17" t="n">
         <v>51</v>
@@ -3569,7 +3569,7 @@
         <v>15</v>
       </c>
       <c r="AQ17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR17" t="n">
         <v>29</v>
@@ -3581,13 +3581,13 @@
         <v>4</v>
       </c>
       <c r="AU17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV17" t="n">
         <v>51</v>
       </c>
       <c r="AW17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX17" t="n">
         <v>41</v>
@@ -3596,13 +3596,13 @@
         <v>41</v>
       </c>
       <c r="AZ17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BA17" t="n">
         <v>151</v>
       </c>
       <c r="BB17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
@@ -3639,40 +3639,40 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="H18" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I18" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J18" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K18" t="n">
         <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O18" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P18" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R18" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="S18" t="n">
         <v>1.33</v>
@@ -3681,16 +3681,16 @@
         <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
+        <v>8</v>
+      </c>
+      <c r="X18" t="n">
         <v>9</v>
-      </c>
-      <c r="X18" t="n">
-        <v>9.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
@@ -3702,7 +3702,7 @@
         <v>13</v>
       </c>
       <c r="AB18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC18" t="n">
         <v>13</v>
@@ -3711,37 +3711,37 @@
         <v>7.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF18" t="n">
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH18" t="n">
         <v>13</v>
       </c>
       <c r="AI18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
         <v>41</v>
       </c>
       <c r="AL18" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM18" t="n">
         <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO18" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP18" t="n">
         <v>19</v>
@@ -3753,28 +3753,28 @@
         <v>41</v>
       </c>
       <c r="AS18" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT18" t="n">
         <v>3.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
         <v>81</v>
@@ -3821,46 +3821,46 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="H19" t="n">
         <v>6.2</v>
       </c>
       <c r="I19" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
         <v>1.57</v>
       </c>
       <c r="K19" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="L19" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="O19" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P19" t="n">
-        <v>4.85</v>
+        <v>5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R19" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="S19" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="T19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="U19" t="n">
         <v>2.1</v>
@@ -3869,31 +3869,31 @@
         <v>1.65</v>
       </c>
       <c r="W19" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X19" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="Y19" t="n">
         <v>10.25</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AA19" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AB19" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="AD19" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AF19" t="n">
         <v>150</v>
@@ -3902,16 +3902,16 @@
         <v>1250</v>
       </c>
       <c r="AH19" t="n">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="AI19" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AJ19" t="n">
         <v>45</v>
       </c>
       <c r="AK19" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AL19" t="n">
         <v>200</v>
@@ -3920,34 +3920,34 @@
         <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AO19" t="n">
         <v>4.9</v>
       </c>
       <c r="AP19" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AR19" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AS19" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AV19" t="n">
         <v>90</v>
       </c>
       <c r="AW19" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AX19" t="n">
         <v>75</v>
@@ -3997,7 +3997,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H20" t="n">
         <v>3.2</v>
@@ -4006,10 +4006,10 @@
         <v>3.75</v>
       </c>
       <c r="J20" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K20" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
         <v>4.33</v>
@@ -4018,7 +4018,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -4027,10 +4027,10 @@
         <v>3</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R20" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S20" t="n">
         <v>1.5</v>
@@ -4039,10 +4039,10 @@
         <v>2.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W20" t="n">
         <v>6.5</v>
@@ -4063,7 +4063,7 @@
         <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD20" t="n">
         <v>6</v>
@@ -4075,7 +4075,7 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH20" t="n">
         <v>9.5</v>
@@ -4102,7 +4102,7 @@
         <v>12</v>
       </c>
       <c r="AP20" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ20" t="n">
         <v>41</v>
@@ -4138,7 +4138,7 @@
         <v>101</v>
       </c>
       <c r="BB20" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC20" t="n">
         <v>126</v>
@@ -4179,13 +4179,13 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J21" t="n">
         <v>3.1</v>
@@ -4209,10 +4209,10 @@
         <v>3</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R21" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S21" t="n">
         <v>1.5</v>
@@ -4230,13 +4230,13 @@
         <v>7</v>
       </c>
       <c r="X21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y21" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA21" t="n">
         <v>21</v>
@@ -4257,10 +4257,10 @@
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH21" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
         <v>15</v>
@@ -4272,7 +4272,7 @@
         <v>34</v>
       </c>
       <c r="AL21" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM21" t="n">
         <v>41</v>
@@ -4287,7 +4287,7 @@
         <v>26</v>
       </c>
       <c r="AQ21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AR21" t="n">
         <v>67</v>
@@ -4302,13 +4302,13 @@
         <v>8.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW21" t="n">
         <v>5</v>
       </c>
       <c r="AX21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY21" t="n">
         <v>29</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H23" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I23" t="n">
         <v>2.7</v>
@@ -4555,7 +4555,7 @@
         <v>3.1</v>
       </c>
       <c r="K23" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L23" t="n">
         <v>3.25</v>
@@ -4564,19 +4564,19 @@
         <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O23" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P23" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="R23" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="S23" t="n">
         <v>1.36</v>
@@ -4600,7 +4600,7 @@
         <v>10</v>
       </c>
       <c r="Z23" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA23" t="n">
         <v>19</v>
@@ -4609,7 +4609,7 @@
         <v>26</v>
       </c>
       <c r="AC23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
@@ -4657,7 +4657,7 @@
         <v>51</v>
       </c>
       <c r="AS23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT23" t="n">
         <v>3</v>
@@ -4681,10 +4681,10 @@
         <v>41</v>
       </c>
       <c r="BA23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB23" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC23" t="n">
         <v>81</v>
@@ -4728,7 +4728,7 @@
         <v>1.62</v>
       </c>
       <c r="H24" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I24" t="n">
         <v>5.5</v>
@@ -4743,22 +4743,22 @@
         <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N24" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O24" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R24" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S24" t="n">
         <v>1.44</v>
@@ -4767,19 +4767,19 @@
         <v>2.63</v>
       </c>
       <c r="U24" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V24" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W24" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X24" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z24" t="n">
         <v>11</v>
@@ -4791,7 +4791,7 @@
         <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
         <v>7.5</v>
@@ -4800,7 +4800,7 @@
         <v>21</v>
       </c>
       <c r="AF24" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG24" t="n">
         <v>1250</v>
@@ -4815,7 +4815,7 @@
         <v>17</v>
       </c>
       <c r="AK24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL24" t="n">
         <v>41</v>
@@ -4824,13 +4824,13 @@
         <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO24" t="n">
         <v>8.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
         <v>29</v>
@@ -4845,7 +4845,7 @@
         <v>2.63</v>
       </c>
       <c r="AU24" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>67</v>
@@ -4907,19 +4907,19 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="H25" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J25" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L25" t="n">
         <v>7</v>
@@ -4928,55 +4928,55 @@
         <v>1.06</v>
       </c>
       <c r="N25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="R25" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="S25" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W25" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X25" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y25" t="n">
         <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB25" t="n">
         <v>34</v>
       </c>
       <c r="AC25" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD25" t="n">
         <v>8.5</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>23</v>
@@ -4988,7 +4988,7 @@
         <v>351</v>
       </c>
       <c r="AH25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
         <v>34</v>
@@ -4997,7 +4997,7 @@
         <v>21</v>
       </c>
       <c r="AK25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="n">
         <v>51</v>
@@ -5009,28 +5009,28 @@
         <v>3.25</v>
       </c>
       <c r="AO25" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>23</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>26</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW25" t="n">
         <v>8</v>
@@ -5089,22 +5089,22 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H26" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I26" t="n">
-        <v>4.75</v>
+        <v>5.25</v>
       </c>
       <c r="J26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="K26" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L26" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M26" t="n">
         <v>1.03</v>
@@ -5113,67 +5113,67 @@
         <v>15</v>
       </c>
       <c r="O26" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P26" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R26" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S26" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V26" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W26" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y26" t="n">
         <v>8.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA26" t="n">
         <v>12</v>
       </c>
       <c r="AB26" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC26" t="n">
         <v>15</v>
       </c>
       <c r="AD26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE26" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF26" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG26" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH26" t="n">
         <v>15</v>
       </c>
       <c r="AI26" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ26" t="n">
         <v>15</v>
@@ -5182,13 +5182,13 @@
         <v>51</v>
       </c>
       <c r="AL26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO26" t="n">
         <v>8</v>
@@ -5206,7 +5206,7 @@
         <v>101</v>
       </c>
       <c r="AT26" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU26" t="n">
         <v>8</v>
@@ -5215,10 +5215,10 @@
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY26" t="n">
         <v>29</v>
@@ -5227,10 +5227,10 @@
         <v>81</v>
       </c>
       <c r="BA26" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB26" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC26" t="n">
         <v>81</v>
@@ -5295,16 +5295,16 @@
         <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R27" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S27" t="n">
         <v>1.3</v>
@@ -5313,13 +5313,13 @@
         <v>3.4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V27" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X27" t="n">
         <v>8</v>
@@ -5337,7 +5337,7 @@
         <v>23</v>
       </c>
       <c r="AC27" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD27" t="n">
         <v>8.5</v>
@@ -5361,7 +5361,7 @@
         <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL27" t="n">
         <v>41</v>
@@ -5391,7 +5391,7 @@
         <v>3.4</v>
       </c>
       <c r="AU27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
@@ -5453,22 +5453,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J28" t="n">
         <v>2.1</v>
       </c>
       <c r="K28" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L28" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -5483,16 +5483,16 @@
         <v>4.33</v>
       </c>
       <c r="Q28" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R28" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S28" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T28" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U28" t="n">
         <v>1.73</v>
@@ -5501,10 +5501,10 @@
         <v>2</v>
       </c>
       <c r="W28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
@@ -5522,25 +5522,25 @@
         <v>15</v>
       </c>
       <c r="AD28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF28" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG28" t="n">
         <v>201</v>
       </c>
       <c r="AH28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK28" t="n">
         <v>51</v>
@@ -5552,10 +5552,10 @@
         <v>41</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AP28" t="n">
         <v>17</v>
@@ -5570,7 +5570,7 @@
         <v>101</v>
       </c>
       <c r="AT28" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU28" t="n">
         <v>8</v>
@@ -5582,13 +5582,13 @@
         <v>7</v>
       </c>
       <c r="AX28" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY28" t="n">
         <v>29</v>
       </c>
       <c r="AZ28" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA28" t="n">
         <v>101</v>
@@ -5991,85 +5991,85 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="H31" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I31" t="n">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="J31" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="K31" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L31" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="M31" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N31" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O31" t="n">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="P31" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q31" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R31" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="S31" t="n">
         <v>1.39</v>
       </c>
       <c r="T31" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="U31" t="n">
-        <v>1.91</v>
+        <v>1.78</v>
       </c>
       <c r="V31" t="n">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="W31" t="n">
-        <v>6.1</v>
+        <v>7</v>
       </c>
       <c r="X31" t="n">
-        <v>6.5</v>
+        <v>7.3</v>
       </c>
       <c r="Y31" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="Z31" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA31" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="AB31" t="n">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="AC31" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AD31" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AE31" t="n">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="AF31" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AG31" t="n">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="AH31" t="n">
         <v>17</v>
@@ -6078,46 +6078,46 @@
         <v>45</v>
       </c>
       <c r="AJ31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AK31" t="n">
-        <v>175</v>
+        <v>120</v>
       </c>
       <c r="AL31" t="n">
         <v>75</v>
       </c>
       <c r="AM31" t="n">
+        <v>65</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>16</v>
+      </c>
+      <c r="AQ31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AR31" t="n">
+        <v>50</v>
+      </c>
+      <c r="AS31" t="n">
+        <v>200</v>
+      </c>
+      <c r="AT31" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AV31" t="n">
         <v>70</v>
       </c>
-      <c r="AN31" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="AO31" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AP31" t="n">
-        <v>18</v>
-      </c>
-      <c r="AQ31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AR31" t="n">
-        <v>60</v>
-      </c>
-      <c r="AS31" t="n">
-        <v>250</v>
-      </c>
-      <c r="AT31" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="AU31" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AV31" t="n">
-        <v>80</v>
-      </c>
       <c r="AW31" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AX31" t="n">
         <v>40</v>
@@ -6126,13 +6126,13 @@
         <v>40</v>
       </c>
       <c r="AZ31" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BA31" t="n">
         <v>300</v>
       </c>
       <c r="BB31" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="BC31" t="inlineStr"/>
       <c r="BD31" t="inlineStr"/>
@@ -6187,22 +6187,22 @@
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N32" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P32" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.03</v>
+        <v>2.1</v>
       </c>
       <c r="R32" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="S32" t="n">
         <v>1.44</v>
@@ -6369,10 +6369,10 @@
         <v>2.63</v>
       </c>
       <c r="M33" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N33" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O33" t="n">
         <v>1.5</v>
@@ -6535,7 +6535,7 @@
         <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="J34" t="n">
         <v>2.88</v>
@@ -6544,7 +6544,7 @@
         <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
@@ -6664,7 +6664,7 @@
         <v>21</v>
       </c>
       <c r="AZ34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BA34" t="n">
         <v>51</v>
@@ -6717,13 +6717,13 @@
         <v>4.33</v>
       </c>
       <c r="I35" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J35" t="n">
         <v>2.1</v>
       </c>
       <c r="K35" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L35" t="n">
         <v>4.5</v>
@@ -6819,10 +6819,10 @@
         <v>15</v>
       </c>
       <c r="AQ35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR35" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AS35" t="n">
         <v>81</v>
@@ -6840,7 +6840,7 @@
         <v>7</v>
       </c>
       <c r="AX35" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY35" t="n">
         <v>23</v>
@@ -6896,10 +6896,10 @@
         <v>1.5</v>
       </c>
       <c r="H36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I36" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
         <v>2</v>
@@ -6962,7 +6962,7 @@
         <v>19</v>
       </c>
       <c r="AD36" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE36" t="n">
         <v>15</v>
@@ -6983,7 +6983,7 @@
         <v>19</v>
       </c>
       <c r="AK36" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL36" t="n">
         <v>41</v>
@@ -7075,16 +7075,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H37" t="n">
         <v>3.6</v>
       </c>
       <c r="I37" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J37" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K37" t="n">
         <v>2.2</v>
@@ -7093,10 +7093,10 @@
         <v>4.33</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
@@ -7132,16 +7132,16 @@
         <v>8.5</v>
       </c>
       <c r="Z37" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA37" t="n">
         <v>15</v>
       </c>
       <c r="AB37" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD37" t="n">
         <v>7</v>
@@ -7150,7 +7150,7 @@
         <v>15</v>
       </c>
       <c r="AF37" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG37" t="n">
         <v>201</v>
@@ -7159,7 +7159,7 @@
         <v>12</v>
       </c>
       <c r="AI37" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ37" t="n">
         <v>13</v>
@@ -7189,7 +7189,7 @@
         <v>51</v>
       </c>
       <c r="AS37" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT37" t="n">
         <v>3</v>
@@ -7201,13 +7201,13 @@
         <v>51</v>
       </c>
       <c r="AW37" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX37" t="n">
         <v>21</v>
       </c>
       <c r="AY37" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ37" t="n">
         <v>67</v>
@@ -7260,7 +7260,7 @@
         <v>1.8</v>
       </c>
       <c r="H38" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
@@ -7299,13 +7299,13 @@
         <v>4</v>
       </c>
       <c r="U38" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V38" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W38" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X38" t="n">
         <v>12</v>
@@ -7317,7 +7317,7 @@
         <v>17</v>
       </c>
       <c r="AA38" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB38" t="n">
         <v>17</v>
@@ -7338,13 +7338,13 @@
         <v>81</v>
       </c>
       <c r="AH38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI38" t="n">
         <v>26</v>
       </c>
       <c r="AJ38" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK38" t="n">
         <v>41</v>
@@ -7371,7 +7371,7 @@
         <v>41</v>
       </c>
       <c r="AS38" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AT38" t="n">
         <v>4</v>
@@ -7803,13 +7803,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="H41" t="n">
         <v>4.1</v>
       </c>
       <c r="I41" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J41" t="n">
         <v>2.4</v>
@@ -7818,7 +7818,7 @@
         <v>2.5</v>
       </c>
       <c r="L41" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
@@ -7827,16 +7827,16 @@
         <v>19</v>
       </c>
       <c r="O41" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P41" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R41" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S41" t="n">
         <v>1.25</v>
@@ -7851,10 +7851,10 @@
         <v>2.63</v>
       </c>
       <c r="W41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X41" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y41" t="n">
         <v>9</v>
@@ -7878,10 +7878,10 @@
         <v>12</v>
       </c>
       <c r="AF41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG41" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH41" t="n">
         <v>17</v>
@@ -7902,10 +7902,10 @@
         <v>23</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO41" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP41" t="n">
         <v>15</v>
@@ -7947,7 +7947,7 @@
         <v>101</v>
       </c>
       <c r="BC41" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD41" t="n">
         <v>151</v>
@@ -7988,7 +7988,7 @@
         <v>1.53</v>
       </c>
       <c r="H42" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I42" t="n">
         <v>5.5</v>
@@ -8015,10 +8015,10 @@
         <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R42" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S42" t="n">
         <v>1.29</v>
@@ -8045,7 +8045,7 @@
         <v>12</v>
       </c>
       <c r="AA42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB42" t="n">
         <v>21</v>
@@ -8108,7 +8108,7 @@
         <v>8</v>
       </c>
       <c r="AV42" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW42" t="n">
         <v>7.5</v>
@@ -8167,46 +8167,46 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I43" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="J43" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L43" t="n">
         <v>4.33</v>
       </c>
-      <c r="J43" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K43" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L43" t="n">
-        <v>4.5</v>
-      </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R43" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S43" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="T43" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="U43" t="n">
         <v>1.62</v>
@@ -8233,10 +8233,10 @@
         <v>21</v>
       </c>
       <c r="AC43" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD43" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE43" t="n">
         <v>13</v>
@@ -8260,7 +8260,7 @@
         <v>41</v>
       </c>
       <c r="AL43" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM43" t="n">
         <v>34</v>
@@ -8269,7 +8269,7 @@
         <v>4</v>
       </c>
       <c r="AO43" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP43" t="n">
         <v>17</v>
@@ -8284,13 +8284,13 @@
         <v>101</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AU43" t="n">
         <v>7.5</v>
       </c>
       <c r="AV43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW43" t="n">
         <v>6</v>
@@ -8349,13 +8349,13 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J44" t="n">
         <v>3</v>
@@ -8364,7 +8364,7 @@
         <v>2</v>
       </c>
       <c r="L44" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M44" t="n">
         <v>1.06</v>
@@ -8397,10 +8397,10 @@
         <v>1.8</v>
       </c>
       <c r="W44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X44" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y44" t="n">
         <v>10</v>
@@ -8427,22 +8427,22 @@
         <v>51</v>
       </c>
       <c r="AG44" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH44" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AI44" t="n">
         <v>15</v>
       </c>
       <c r="AJ44" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK44" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL44" t="n">
         <v>29</v>
-      </c>
-      <c r="AL44" t="n">
-        <v>26</v>
       </c>
       <c r="AM44" t="n">
         <v>41</v>
@@ -8478,7 +8478,7 @@
         <v>5</v>
       </c>
       <c r="AX44" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY44" t="n">
         <v>29</v>
@@ -8549,16 +8549,16 @@
         <v>6</v>
       </c>
       <c r="M45" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N45" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q45" t="n">
         <v>2.1</v>
@@ -8891,19 +8891,19 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H47" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I47" t="n">
         <v>3.8</v>
       </c>
-      <c r="I47" t="n">
-        <v>3.85</v>
-      </c>
       <c r="J47" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="K47" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="L47" t="n">
         <v>4.05</v>
@@ -8912,37 +8912,37 @@
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="P47" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="T47" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U47" t="n">
         <v>1.6</v>
       </c>
-      <c r="R47" t="n">
+      <c r="V47" t="n">
         <v>2.22</v>
       </c>
-      <c r="S47" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="T47" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V47" t="n">
-        <v>2.25</v>
-      </c>
       <c r="W47" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="X47" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Y47" t="n">
         <v>8.25</v>
@@ -8954,34 +8954,34 @@
         <v>13</v>
       </c>
       <c r="AB47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AD47" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AE47" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AF47" t="n">
         <v>45</v>
       </c>
       <c r="AG47" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH47" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AI47" t="n">
         <v>24</v>
       </c>
       <c r="AJ47" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL47" t="n">
         <v>30</v>
@@ -8993,40 +8993,40 @@
         <v>3.9</v>
       </c>
       <c r="AO47" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AP47" t="n">
         <v>15.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AR47" t="n">
         <v>50</v>
       </c>
       <c r="AS47" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AU47" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="AV47" t="n">
         <v>50</v>
       </c>
       <c r="AW47" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AX47" t="n">
         <v>20</v>
       </c>
       <c r="AY47" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ47" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BA47" t="n">
         <v>110</v>
@@ -9072,7 +9072,7 @@
         <v>2.65</v>
       </c>
       <c r="H48" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I48" t="n">
         <v>2.35</v>
@@ -9081,40 +9081,40 @@
         <v>3.1</v>
       </c>
       <c r="K48" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L48" t="n">
-        <v>2.82</v>
+        <v>2.8</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O48" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P48" t="n">
-        <v>4.45</v>
+        <v>4.55</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R48" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S48" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="T48" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="U48" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="V48" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="W48" t="n">
         <v>13</v>
@@ -9135,25 +9135,25 @@
         <v>21</v>
       </c>
       <c r="AC48" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD48" t="n">
-        <v>7.5</v>
+        <v>7.6</v>
       </c>
       <c r="AE48" t="n">
         <v>11</v>
       </c>
       <c r="AF48" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AG48" t="n">
         <v>175</v>
       </c>
       <c r="AH48" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ48" t="n">
         <v>9.25</v>
@@ -9165,7 +9165,7 @@
         <v>16.5</v>
       </c>
       <c r="AM48" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN48" t="n">
         <v>5</v>
@@ -9186,28 +9186,28 @@
         <v>150</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="AU48" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AV48" t="n">
         <v>40</v>
       </c>
       <c r="AW48" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AX48" t="n">
         <v>11.75</v>
       </c>
       <c r="AY48" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AZ48" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA48" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="BB48" t="n">
         <v>150</v>
@@ -9273,16 +9273,16 @@
         <v>11</v>
       </c>
       <c r="O49" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P49" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R49" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S49" t="n">
         <v>1.4</v>
@@ -9434,7 +9434,7 @@
         <v>2.38</v>
       </c>
       <c r="H50" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I50" t="n">
         <v>2.88</v>
@@ -9461,10 +9461,10 @@
         <v>3.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R50" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S50" t="n">
         <v>1.4</v>
@@ -9494,7 +9494,7 @@
         <v>19</v>
       </c>
       <c r="AB50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC50" t="n">
         <v>11</v>
@@ -9512,7 +9512,7 @@
         <v>201</v>
       </c>
       <c r="AH50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI50" t="n">
         <v>15</v>
@@ -9551,7 +9551,7 @@
         <v>2.75</v>
       </c>
       <c r="AU50" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV50" t="n">
         <v>51</v>
@@ -9877,37 +9877,37 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="H53" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I53" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="J53" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L53" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="M53" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N53" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O53" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="P53" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q53" t="n">
         <v>2.35</v>
-      </c>
-      <c r="K53" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="L53" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M53" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N53" t="n">
-        <v>7.65</v>
-      </c>
-      <c r="O53" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P53" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>2.32</v>
       </c>
       <c r="R53" t="n">
         <v>1.47</v>
@@ -9916,56 +9916,56 @@
         <v>1.5</v>
       </c>
       <c r="T53" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="U53" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="V53" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="W53" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="X53" t="n">
-        <v>6.7</v>
+        <v>7.1</v>
       </c>
       <c r="Y53" t="n">
         <v>9</v>
       </c>
       <c r="Z53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA53" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AB53" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AC53" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="AD53" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="AE53" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF53" t="n">
         <v>150</v>
       </c>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AI53" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AJ53" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AK53" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL53" t="n">
         <v>65</v>
@@ -9974,16 +9974,16 @@
         <v>80</v>
       </c>
       <c r="AN53" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AO53" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AP53" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ53" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AR53" t="n">
         <v>80</v>
@@ -9992,22 +9992,22 @@
         <v>400</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU53" t="n">
         <v>8.5</v>
       </c>
       <c r="AV53" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AW53" t="n">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="AX53" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AY53" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AZ53" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="H2" t="n">
         <v>5</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="J2" t="n">
         <v>1.83</v>
@@ -807,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB2" t="n">
         <v>26</v>
@@ -837,7 +837,7 @@
         <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>3.3</v>
       </c>
       <c r="I3" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -1022,7 +1022,7 @@
         <v>34</v>
       </c>
       <c r="AL3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM3" t="n">
         <v>34</v>
@@ -1058,7 +1058,7 @@
         <v>5</v>
       </c>
       <c r="AX3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY3" t="n">
         <v>26</v>
@@ -1067,7 +1067,7 @@
         <v>51</v>
       </c>
       <c r="BA3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB3" t="n">
         <v>151</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.83</v>
@@ -1165,10 +1165,10 @@
         <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA4" t="n">
         <v>29</v>
@@ -1196,7 +1196,7 @@
         <v>13</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK4" t="n">
         <v>34</v>
@@ -1208,7 +1208,7 @@
         <v>51</v>
       </c>
       <c r="AN4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO4" t="n">
         <v>17</v>
@@ -1223,7 +1223,7 @@
         <v>101</v>
       </c>
       <c r="AS4" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT4" t="n">
         <v>2.1</v>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
         <v>2.63</v>
@@ -1333,16 +1333,16 @@
         <v>2.63</v>
       </c>
       <c r="U5" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W5" t="n">
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1390,7 +1390,7 @@
         <v>41</v>
       </c>
       <c r="AN5" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO5" t="n">
         <v>11</v>
@@ -1417,7 +1417,7 @@
         <v>51</v>
       </c>
       <c r="AW5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX5" t="n">
         <v>23</v>
@@ -1435,7 +1435,7 @@
         <v>251</v>
       </c>
       <c r="BC5" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1853,10 +1853,10 @@
         <v>4.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O8" t="n">
         <v>1.44</v>
@@ -1982,7 +1982,7 @@
         <v>126</v>
       </c>
       <c r="BD8" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="9">
@@ -2035,16 +2035,16 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="P9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q9" t="n">
         <v>3.1</v>
@@ -2559,22 +2559,22 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H12" t="n">
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L12" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M12" t="n">
         <v>1.04</v>
@@ -2601,22 +2601,22 @@
         <v>3.25</v>
       </c>
       <c r="U12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W12" t="n">
+        <v>11</v>
+      </c>
+      <c r="X12" t="n">
+        <v>15</v>
+      </c>
+      <c r="Y12" t="n">
         <v>10</v>
       </c>
-      <c r="X12" t="n">
-        <v>13</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA12" t="n">
         <v>19</v>
@@ -2625,7 +2625,7 @@
         <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
@@ -2637,7 +2637,7 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH12" t="n">
         <v>11</v>
@@ -2652,10 +2652,10 @@
         <v>26</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN12" t="n">
         <v>4.75</v>
@@ -2679,7 +2679,7 @@
         <v>3.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV12" t="n">
         <v>41</v>
@@ -2688,7 +2688,7 @@
         <v>4.75</v>
       </c>
       <c r="AX12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AY12" t="n">
         <v>21</v>
@@ -2741,28 +2741,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H13" t="n">
         <v>3.5</v>
       </c>
       <c r="I13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J13" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="K13" t="n">
         <v>2.25</v>
       </c>
       <c r="L13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
         <v>1.25</v>
@@ -2771,10 +2771,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R13" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S13" t="n">
         <v>1.36</v>
@@ -2792,7 +2792,7 @@
         <v>8</v>
       </c>
       <c r="X13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y13" t="n">
         <v>8.5</v>
@@ -2813,7 +2813,7 @@
         <v>7</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
         <v>41</v>
@@ -2825,7 +2825,7 @@
         <v>12</v>
       </c>
       <c r="AI13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
         <v>13</v>
@@ -2861,13 +2861,13 @@
         <v>3</v>
       </c>
       <c r="AU13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV13" t="n">
         <v>51</v>
       </c>
       <c r="AW13" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX13" t="n">
         <v>21</v>
@@ -2923,22 +2923,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I14" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="J14" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K14" t="n">
         <v>2.3</v>
       </c>
       <c r="L14" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2971,19 +2971,19 @@
         <v>2.2</v>
       </c>
       <c r="W14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z14" t="n">
         <v>41</v>
       </c>
       <c r="AA14" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AB14" t="n">
         <v>34</v>
@@ -3007,16 +3007,16 @@
         <v>9</v>
       </c>
       <c r="AI14" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM14" t="n">
         <v>21</v>
@@ -3052,19 +3052,19 @@
         <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AY14" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ14" t="n">
         <v>29</v>
       </c>
       <c r="BA14" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB14" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC14" t="n">
         <v>81</v>
@@ -3105,43 +3105,43 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J15" t="n">
         <v>3.75</v>
       </c>
       <c r="K15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="L15" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.9</v>
+        <v>2.03</v>
       </c>
       <c r="R15" t="n">
-        <v>1.9</v>
+        <v>1.78</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T15" t="n">
         <v>2.75</v>
@@ -3153,7 +3153,7 @@
         <v>2</v>
       </c>
       <c r="W15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X15" t="n">
         <v>17</v>
@@ -3171,16 +3171,16 @@
         <v>34</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF15" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG15" t="n">
         <v>201</v>
@@ -3189,13 +3189,13 @@
         <v>8</v>
       </c>
       <c r="AI15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ15" t="n">
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL15" t="n">
         <v>17</v>
@@ -3204,10 +3204,10 @@
         <v>26</v>
       </c>
       <c r="AN15" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AP15" t="n">
         <v>26</v>
@@ -3219,7 +3219,7 @@
         <v>81</v>
       </c>
       <c r="AS15" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT15" t="n">
         <v>2.75</v>
@@ -3319,7 +3319,7 @@
         <v>3.6</v>
       </c>
       <c r="S16" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="T16" t="n">
         <v>5</v>
@@ -3485,19 +3485,19 @@
         <v>21</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R17" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S17" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="T17" t="n">
         <v>4</v>
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H18" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K18" t="n">
         <v>2.3</v>
       </c>
       <c r="L18" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3675,19 +3675,19 @@
         <v>2.08</v>
       </c>
       <c r="S18" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="T18" t="n">
         <v>3.25</v>
       </c>
       <c r="U18" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="W18" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="X18" t="n">
         <v>9</v>
@@ -3717,7 +3717,7 @@
         <v>41</v>
       </c>
       <c r="AG18" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH18" t="n">
         <v>13</v>
@@ -3726,7 +3726,7 @@
         <v>23</v>
       </c>
       <c r="AJ18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK18" t="n">
         <v>41</v>
@@ -3738,7 +3738,7 @@
         <v>34</v>
       </c>
       <c r="AN18" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO18" t="n">
         <v>9</v>
@@ -3759,22 +3759,22 @@
         <v>3.25</v>
       </c>
       <c r="AU18" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY18" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ18" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA18" t="n">
         <v>81</v>
@@ -3821,22 +3821,22 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="H19" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="I19" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="K19" t="n">
         <v>2.75</v>
       </c>
       <c r="L19" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
@@ -3863,28 +3863,28 @@
         <v>3.6</v>
       </c>
       <c r="U19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="V19" t="n">
         <v>1.65</v>
       </c>
       <c r="W19" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="X19" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Y19" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AA19" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AB19" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC19" t="n">
         <v>10.5</v>
@@ -3893,7 +3893,7 @@
         <v>14</v>
       </c>
       <c r="AE19" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AF19" t="n">
         <v>150</v>
@@ -3908,28 +3908,28 @@
         <v>150</v>
       </c>
       <c r="AJ19" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AK19" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AL19" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AM19" t="n">
         <v>150</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="AO19" t="n">
-        <v>4.9</v>
+        <v>4.85</v>
       </c>
       <c r="AP19" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AR19" t="n">
         <v>35</v>
@@ -3941,7 +3941,7 @@
         <v>3.6</v>
       </c>
       <c r="AU19" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AV19" t="n">
         <v>90</v>
@@ -3950,7 +3950,7 @@
         <v>12.5</v>
       </c>
       <c r="AX19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AY19" t="n">
         <v>60</v>
@@ -4018,7 +4018,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -4033,7 +4033,7 @@
         <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T20" t="n">
         <v>2.5</v>
@@ -4215,7 +4215,7 @@
         <v>1.67</v>
       </c>
       <c r="S21" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T21" t="n">
         <v>2.5</v>
@@ -4397,7 +4397,7 @@
         <v>1.65</v>
       </c>
       <c r="S22" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T22" t="n">
         <v>2.5</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J23" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M23" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -4573,25 +4573,25 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="R23" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="S23" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T23" t="n">
         <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V23" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X23" t="n">
         <v>13</v>
@@ -4603,19 +4603,19 @@
         <v>26</v>
       </c>
       <c r="AA23" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB23" t="n">
         <v>26</v>
       </c>
       <c r="AC23" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
@@ -4624,10 +4624,10 @@
         <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ23" t="n">
         <v>10</v>
@@ -4645,16 +4645,16 @@
         <v>4.75</v>
       </c>
       <c r="AO23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ23" t="n">
         <v>41</v>
       </c>
       <c r="AR23" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS23" t="n">
         <v>151</v>
@@ -4675,7 +4675,7 @@
         <v>15</v>
       </c>
       <c r="AY23" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ23" t="n">
         <v>41</v>
@@ -4725,16 +4725,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H24" t="n">
         <v>3.9</v>
       </c>
       <c r="I24" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="J24" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K24" t="n">
         <v>2.1</v>
@@ -4743,10 +4743,10 @@
         <v>6</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O24" t="n">
         <v>1.33</v>
@@ -4761,10 +4761,10 @@
         <v>1.73</v>
       </c>
       <c r="S24" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T24" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U24" t="n">
         <v>2.1</v>
@@ -4776,10 +4776,10 @@
         <v>6</v>
       </c>
       <c r="X24" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z24" t="n">
         <v>11</v>
@@ -4791,7 +4791,7 @@
         <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD24" t="n">
         <v>7.5</v>
@@ -4809,28 +4809,28 @@
         <v>12</v>
       </c>
       <c r="AI24" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ24" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK24" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL24" t="n">
         <v>51</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>41</v>
       </c>
       <c r="AM24" t="n">
         <v>51</v>
       </c>
       <c r="AN24" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO24" t="n">
         <v>8.5</v>
       </c>
       <c r="AP24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ24" t="n">
         <v>29</v>
@@ -4845,7 +4845,7 @@
         <v>2.63</v>
       </c>
       <c r="AU24" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV24" t="n">
         <v>67</v>
@@ -4907,43 +4907,43 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="H25" t="n">
         <v>4.1</v>
       </c>
       <c r="I25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
         <v>2.25</v>
       </c>
       <c r="L25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N25" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="S25" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="T25" t="n">
         <v>2.75</v>
@@ -4964,7 +4964,7 @@
         <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA25" t="n">
         <v>13</v>
@@ -5009,31 +5009,31 @@
         <v>3.25</v>
       </c>
       <c r="AO25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT25" t="n">
         <v>2.75</v>
       </c>
       <c r="AU25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV25" t="n">
         <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX25" t="n">
         <v>41</v>
@@ -5277,10 +5277,10 @@
         <v>4.33</v>
       </c>
       <c r="I27" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J27" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="K27" t="n">
         <v>2.4</v>
@@ -5355,13 +5355,13 @@
         <v>17</v>
       </c>
       <c r="AI27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ27" t="n">
         <v>17</v>
       </c>
       <c r="AK27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL27" t="n">
         <v>41</v>
@@ -5635,109 +5635,109 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H29" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I29" t="n">
-        <v>2.35</v>
+        <v>2.55</v>
       </c>
       <c r="J29" t="n">
         <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L29" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M29" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N29" t="n">
+        <v>11</v>
+      </c>
+      <c r="O29" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="S29" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="T29" t="n">
         <v>3</v>
       </c>
-      <c r="M29" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N29" t="n">
-        <v>15</v>
-      </c>
-      <c r="O29" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="P29" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R29" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="S29" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="T29" t="n">
-        <v>3.4</v>
-      </c>
       <c r="U29" t="n">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="V29" t="n">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="W29" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="X29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y29" t="n">
         <v>10</v>
       </c>
       <c r="Z29" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AA29" t="n">
         <v>19</v>
       </c>
       <c r="AB29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC29" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AD29" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE29" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF29" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AG29" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ29" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL29" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AM29" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN29" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO29" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP29" t="n">
         <v>21</v>
@@ -5749,36 +5749,38 @@
         <v>51</v>
       </c>
       <c r="AS29" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT29" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="AU29" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV29" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AW29" t="n">
         <v>4.75</v>
       </c>
       <c r="AX29" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AY29" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ29" t="n">
         <v>41</v>
       </c>
       <c r="BA29" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB29" t="n">
-        <v>101</v>
-      </c>
-      <c r="BC29" t="inlineStr"/>
+        <v>151</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>351</v>
+      </c>
       <c r="BD29" t="inlineStr"/>
     </row>
     <row r="30">
@@ -6172,19 +6174,19 @@
         <v>2.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I32" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J32" t="n">
         <v>2.75</v>
       </c>
       <c r="K32" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L32" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
@@ -6193,34 +6195,34 @@
         <v>9</v>
       </c>
       <c r="O32" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P32" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R32" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S32" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T32" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U32" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="V32" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="W32" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
@@ -6229,16 +6231,16 @@
         <v>19</v>
       </c>
       <c r="AA32" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB32" t="n">
         <v>29</v>
       </c>
       <c r="AC32" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD32" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE32" t="n">
         <v>15</v>
@@ -6247,7 +6249,7 @@
         <v>51</v>
       </c>
       <c r="AG32" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH32" t="n">
         <v>10</v>
@@ -6256,16 +6258,16 @@
         <v>17</v>
       </c>
       <c r="AJ32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK32" t="n">
         <v>41</v>
       </c>
       <c r="AL32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN32" t="n">
         <v>4</v>
@@ -6280,16 +6282,16 @@
         <v>41</v>
       </c>
       <c r="AR32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS32" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT32" t="n">
         <v>2.63</v>
       </c>
       <c r="AU32" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV32" t="n">
         <v>51</v>
@@ -6298,7 +6300,7 @@
         <v>5.5</v>
       </c>
       <c r="AX32" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY32" t="n">
         <v>29</v>
@@ -6307,10 +6309,10 @@
         <v>67</v>
       </c>
       <c r="BA32" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB32" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC32" t="n">
         <v>81</v>
@@ -6529,13 +6531,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J34" t="n">
         <v>2.88</v>
@@ -6586,7 +6588,7 @@
         <v>9.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA34" t="n">
         <v>17</v>
@@ -6628,7 +6630,7 @@
         <v>23</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO34" t="n">
         <v>12</v>
@@ -6962,7 +6964,7 @@
         <v>19</v>
       </c>
       <c r="AD36" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE36" t="n">
         <v>15</v>
@@ -7075,13 +7077,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="H37" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I37" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J37" t="n">
         <v>2.5</v>
@@ -7093,10 +7095,10 @@
         <v>4.33</v>
       </c>
       <c r="M37" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O37" t="n">
         <v>1.25</v>
@@ -7105,10 +7107,10 @@
         <v>3.75</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R37" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S37" t="n">
         <v>1.36</v>
@@ -7126,7 +7128,7 @@
         <v>8</v>
       </c>
       <c r="X37" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y37" t="n">
         <v>8.5</v>
@@ -7180,7 +7182,7 @@
         <v>10</v>
       </c>
       <c r="AP37" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AQ37" t="n">
         <v>34</v>
@@ -7475,7 +7477,7 @@
         <v>2.25</v>
       </c>
       <c r="S39" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="T39" t="n">
         <v>3.4</v>
@@ -7657,7 +7659,7 @@
         <v>2.4</v>
       </c>
       <c r="S40" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T40" t="n">
         <v>3.5</v>
@@ -7827,10 +7829,10 @@
         <v>19</v>
       </c>
       <c r="O41" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P41" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q41" t="n">
         <v>1.48</v>
@@ -7839,7 +7841,7 @@
         <v>2.6</v>
       </c>
       <c r="S41" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T41" t="n">
         <v>3.75</v>
@@ -8000,7 +8002,7 @@
         <v>2.5</v>
       </c>
       <c r="L42" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
         <v>1.03</v>
@@ -8009,34 +8011,34 @@
         <v>17</v>
       </c>
       <c r="O42" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P42" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R42" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S42" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="T42" t="n">
         <v>3.5</v>
       </c>
       <c r="U42" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V42" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W42" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="X42" t="n">
         <v>9</v>
-      </c>
-      <c r="X42" t="n">
-        <v>8.5</v>
       </c>
       <c r="Y42" t="n">
         <v>8.5</v>
@@ -8045,7 +8047,7 @@
         <v>12</v>
       </c>
       <c r="AA42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB42" t="n">
         <v>21</v>
@@ -8069,7 +8071,7 @@
         <v>19</v>
       </c>
       <c r="AI42" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ42" t="n">
         <v>17</v>
@@ -8081,7 +8083,7 @@
         <v>41</v>
       </c>
       <c r="AM42" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN42" t="n">
         <v>3.75</v>
@@ -8099,19 +8101,19 @@
         <v>41</v>
       </c>
       <c r="AS42" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT42" t="n">
         <v>3.5</v>
       </c>
       <c r="AU42" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV42" t="n">
         <v>41</v>
       </c>
       <c r="AW42" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX42" t="n">
         <v>26</v>
@@ -8123,7 +8125,7 @@
         <v>81</v>
       </c>
       <c r="BA42" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB42" t="n">
         <v>151</v>
@@ -8167,46 +8169,46 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H43" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I43" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J43" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K43" t="n">
         <v>2.38</v>
       </c>
-      <c r="K43" t="n">
-        <v>2.3</v>
-      </c>
       <c r="L43" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M43" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P43" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R43" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S43" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="T43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="U43" t="n">
         <v>1.62</v>
@@ -8233,10 +8235,10 @@
         <v>21</v>
       </c>
       <c r="AC43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD43" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE43" t="n">
         <v>13</v>
@@ -8260,7 +8262,7 @@
         <v>41</v>
       </c>
       <c r="AL43" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM43" t="n">
         <v>34</v>
@@ -8269,7 +8271,7 @@
         <v>4</v>
       </c>
       <c r="AO43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP43" t="n">
         <v>17</v>
@@ -8284,13 +8286,13 @@
         <v>101</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AU43" t="n">
         <v>7.5</v>
       </c>
       <c r="AV43" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW43" t="n">
         <v>6</v>
@@ -8367,10 +8369,10 @@
         <v>3.75</v>
       </c>
       <c r="M44" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O44" t="n">
         <v>1.36</v>
@@ -8379,13 +8381,13 @@
         <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R44" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S44" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="T44" t="n">
         <v>2.5</v>
@@ -8427,7 +8429,7 @@
         <v>51</v>
       </c>
       <c r="AG44" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AH44" t="n">
         <v>9</v>
@@ -8567,10 +8569,10 @@
         <v>1.7</v>
       </c>
       <c r="S45" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="T45" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="U45" t="n">
         <v>2</v>
@@ -8716,55 +8718,55 @@
         <v>2.7</v>
       </c>
       <c r="H46" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I46" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="J46" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K46" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L46" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="M46" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O46" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P46" t="n">
-        <v>4.25</v>
+        <v>4.05</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="R46" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="S46" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="T46" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="U46" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V46" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="W46" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="X46" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y46" t="n">
         <v>10</v>
@@ -8773,28 +8775,28 @@
         <v>32</v>
       </c>
       <c r="AA46" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AB46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AC46" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD46" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="AE46" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF46" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AG46" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AH46" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AI46" t="n">
         <v>13.5</v>
@@ -8803,55 +8805,55 @@
         <v>9.25</v>
       </c>
       <c r="AK46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL46" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AM46" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN46" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="AO46" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AP46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ46" t="n">
         <v>55</v>
       </c>
       <c r="AR46" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AS46" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT46" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AU46" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV46" t="n">
         <v>45</v>
       </c>
       <c r="AW46" t="n">
-        <v>4.55</v>
+        <v>4.5</v>
       </c>
       <c r="AX46" t="n">
         <v>11.75</v>
       </c>
       <c r="AY46" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AZ46" t="n">
         <v>45</v>
       </c>
       <c r="BA46" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB46" t="n">
         <v>175</v>
@@ -9249,22 +9251,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H49" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="I49" t="n">
         <v>3.6</v>
       </c>
-      <c r="I49" t="n">
-        <v>3.4</v>
-      </c>
       <c r="J49" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K49" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L49" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M49" t="n">
         <v>1.05</v>
@@ -9291,10 +9293,10 @@
         <v>2.75</v>
       </c>
       <c r="U49" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V49" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W49" t="n">
         <v>7.5</v>
@@ -9312,10 +9314,10 @@
         <v>17</v>
       </c>
       <c r="AB49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC49" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD49" t="n">
         <v>7</v>
@@ -9333,7 +9335,7 @@
         <v>10</v>
       </c>
       <c r="AI49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ49" t="n">
         <v>12</v>
@@ -9357,7 +9359,7 @@
         <v>21</v>
       </c>
       <c r="AQ49" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR49" t="n">
         <v>51</v>
@@ -9431,13 +9433,13 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="H50" t="n">
         <v>3.4</v>
       </c>
       <c r="I50" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="J50" t="n">
         <v>3.1</v>
@@ -9446,43 +9448,43 @@
         <v>2.2</v>
       </c>
       <c r="L50" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O50" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P50" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.93</v>
+        <v>1.83</v>
       </c>
       <c r="R50" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="S50" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T50" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U50" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="V50" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="W50" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y50" t="n">
         <v>9.5</v>
@@ -9497,7 +9499,7 @@
         <v>26</v>
       </c>
       <c r="AC50" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD50" t="n">
         <v>6.5</v>
@@ -9509,7 +9511,7 @@
         <v>41</v>
       </c>
       <c r="AG50" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH50" t="n">
         <v>10</v>
@@ -9524,7 +9526,7 @@
         <v>29</v>
       </c>
       <c r="AL50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM50" t="n">
         <v>29</v>
@@ -9536,19 +9538,19 @@
         <v>13</v>
       </c>
       <c r="AP50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ50" t="n">
         <v>41</v>
       </c>
       <c r="AR50" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS50" t="n">
         <v>151</v>
       </c>
       <c r="AT50" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU50" t="n">
         <v>7.5</v>
@@ -9725,10 +9727,10 @@
         <v>5</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="R52" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="S52" t="n">
         <v>1.29</v>
@@ -9877,137 +9879,137 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.78</v>
+        <v>1.9</v>
       </c>
       <c r="H53" t="n">
-        <v>3.2</v>
+        <v>2.95</v>
       </c>
       <c r="I53" t="n">
-        <v>4.6</v>
+        <v>4.45</v>
       </c>
       <c r="J53" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="K53" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="L53" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="M53" t="n">
-        <v>1.09</v>
+        <v>1.14</v>
       </c>
       <c r="N53" t="n">
-        <v>7.4</v>
+        <v>5.5</v>
       </c>
       <c r="O53" t="n">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
       <c r="P53" t="n">
-        <v>2.32</v>
+        <v>2.15</v>
       </c>
       <c r="Q53" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="R53" t="n">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="S53" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T53" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="U53" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V53" t="n">
         <v>1.5</v>
       </c>
-      <c r="T53" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="U53" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="V53" t="n">
-        <v>1.55</v>
-      </c>
       <c r="W53" t="n">
-        <v>5.1</v>
+        <v>4.75</v>
       </c>
       <c r="X53" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="Y53" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z53" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AA53" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AB53" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AC53" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="AD53" t="n">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AE53" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF53" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AG53" t="inlineStr"/>
       <c r="AH53" t="n">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI53" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AJ53" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK53" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AL53" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM53" t="n">
         <v>80</v>
       </c>
       <c r="AN53" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AO53" t="n">
-        <v>9</v>
+        <v>10.25</v>
       </c>
       <c r="AP53" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ53" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AR53" t="n">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="AS53" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="AT53" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="AU53" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AV53" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AW53" t="n">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="AX53" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AY53" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AZ53" t="n">
         <v>200</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="I2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="K2" t="n">
         <v>2.5</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -777,10 +777,10 @@
         <v>4.33</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="R2" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -789,10 +789,10 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -807,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB2" t="n">
         <v>26</v>
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,13 +846,13 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
         <v>6.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ2" t="n">
         <v>19</v>
@@ -873,7 +873,7 @@
         <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AX2" t="n">
         <v>41</v>
@@ -932,10 +932,10 @@
         <v>2.25</v>
       </c>
       <c r="H3" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -944,13 +944,13 @@
         <v>2.2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O3" t="n">
         <v>1.29</v>
@@ -959,28 +959,28 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S3" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="V3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -1007,7 +1007,7 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH3" t="n">
         <v>11</v>
@@ -1016,7 +1016,7 @@
         <v>17</v>
       </c>
       <c r="AJ3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK3" t="n">
         <v>34</v>
@@ -1025,7 +1025,7 @@
         <v>23</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN3" t="n">
         <v>4.33</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
@@ -1061,7 +1061,7 @@
         <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ3" t="n">
         <v>51</v>
@@ -1076,7 +1076,7 @@
         <v>501</v>
       </c>
       <c r="BD3" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>1.83</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1171,7 +1171,7 @@
         <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1180,7 +1180,7 @@
         <v>5.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>21</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
@@ -1235,13 +1235,13 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
         <v>67</v>
@@ -1294,25 +1294,25 @@
         <v>1.91</v>
       </c>
       <c r="H5" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J5" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
         <v>1.33</v>
@@ -1348,7 +1348,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1384,7 +1384,7 @@
         <v>41</v>
       </c>
       <c r="AL5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM5" t="n">
         <v>41</v>
@@ -1414,7 +1414,7 @@
         <v>8.5</v>
       </c>
       <c r="AV5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW5" t="n">
         <v>6</v>
@@ -1435,7 +1435,7 @@
         <v>251</v>
       </c>
       <c r="BC5" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BD5" t="n">
         <v>151</v>
@@ -1664,13 +1664,13 @@
         <v>1.67</v>
       </c>
       <c r="J7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
         <v>1.95</v>
       </c>
       <c r="L7" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1706,10 +1706,10 @@
         <v>10</v>
       </c>
       <c r="X7" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="Y7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
         <v>67</v>
@@ -1752,13 +1752,13 @@
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO7" t="n">
         <v>41</v>
       </c>
       <c r="AP7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ7" t="n">
         <v>151</v>
@@ -1782,7 +1782,7 @@
         <v>3.4</v>
       </c>
       <c r="AX7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY7" t="n">
         <v>26</v>
@@ -1835,13 +1835,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H8" t="n">
         <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
@@ -1850,7 +1850,7 @@
         <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1865,10 +1865,10 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R8" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S8" t="n">
         <v>1.57</v>
@@ -1877,10 +1877,10 @@
         <v>2.25</v>
       </c>
       <c r="U8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V8" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W8" t="n">
         <v>6</v>
@@ -1892,7 +1892,7 @@
         <v>9.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA8" t="n">
         <v>21</v>
@@ -1964,7 +1964,7 @@
         <v>5.5</v>
       </c>
       <c r="AX8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
@@ -2041,10 +2041,10 @@
         <v>5.5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="P9" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Q9" t="n">
         <v>3.1</v>
@@ -2068,7 +2068,7 @@
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
@@ -2099,7 +2099,7 @@
         <v>6.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
@@ -2117,7 +2117,7 @@
         <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>34</v>
@@ -2153,7 +2153,7 @@
         <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB9" t="n">
         <v>451</v>
@@ -2197,13 +2197,13 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J10" t="n">
         <v>2.75</v>
@@ -2212,7 +2212,7 @@
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -2233,10 +2233,10 @@
         <v>1.44</v>
       </c>
       <c r="S10" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="T10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="U10" t="n">
         <v>2.25</v>
@@ -2245,7 +2245,7 @@
         <v>1.57</v>
       </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X10" t="n">
         <v>7.5</v>
@@ -2263,10 +2263,10 @@
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AD10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2276,13 +2276,13 @@
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AI10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
         <v>51</v>
@@ -2312,10 +2312,10 @@
         <v>301</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV10" t="n">
         <v>81</v>
@@ -2324,7 +2324,7 @@
         <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY10" t="n">
         <v>41</v>
@@ -2565,13 +2565,13 @@
         <v>3.5</v>
       </c>
       <c r="I12" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L12" t="n">
         <v>3.1</v>
@@ -2625,7 +2625,7 @@
         <v>23</v>
       </c>
       <c r="AC12" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
@@ -2637,7 +2637,7 @@
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH12" t="n">
         <v>11</v>
@@ -2679,7 +2679,7 @@
         <v>3.25</v>
       </c>
       <c r="AU12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AV12" t="n">
         <v>41</v>
@@ -2923,22 +2923,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H14" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I14" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="J14" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K14" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L14" t="n">
         <v>2.3</v>
-      </c>
-      <c r="L14" t="n">
-        <v>2.38</v>
       </c>
       <c r="M14" t="n">
         <v>1.04</v>
@@ -2965,22 +2965,22 @@
         <v>3.25</v>
       </c>
       <c r="U14" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V14" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W14" t="n">
         <v>15</v>
       </c>
       <c r="X14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y14" t="n">
         <v>15</v>
       </c>
       <c r="Z14" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA14" t="n">
         <v>34</v>
@@ -2992,7 +2992,7 @@
         <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE14" t="n">
         <v>13</v>
@@ -3004,16 +3004,16 @@
         <v>151</v>
       </c>
       <c r="AH14" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AI14" t="n">
         <v>9</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>9.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
         <v>13</v>
@@ -3022,10 +3022,10 @@
         <v>21</v>
       </c>
       <c r="AN14" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP14" t="n">
         <v>26</v>
@@ -3052,13 +3052,13 @@
         <v>4</v>
       </c>
       <c r="AX14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY14" t="n">
         <v>17</v>
       </c>
       <c r="AZ14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA14" t="n">
         <v>41</v>
@@ -3135,13 +3135,13 @@
         <v>3.4</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R15" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S15" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T15" t="n">
         <v>2.75</v>
@@ -3313,13 +3313,13 @@
         <v>9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="R16" t="n">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="S16" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="T16" t="n">
         <v>5</v>
@@ -3497,7 +3497,7 @@
         <v>2.88</v>
       </c>
       <c r="S17" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="T17" t="n">
         <v>4</v>
@@ -3639,22 +3639,22 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H18" t="n">
         <v>3.75</v>
       </c>
       <c r="I18" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="J18" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K18" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L18" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="M18" t="n">
         <v>1.04</v>
@@ -3675,28 +3675,28 @@
         <v>2.08</v>
       </c>
       <c r="S18" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="T18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U18" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V18" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W18" t="n">
+        <v>8</v>
+      </c>
+      <c r="X18" t="n">
         <v>8.5</v>
-      </c>
-      <c r="X18" t="n">
-        <v>9</v>
       </c>
       <c r="Y18" t="n">
         <v>8.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
         <v>13</v>
@@ -3705,7 +3705,7 @@
         <v>23</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="n">
         <v>7.5</v>
@@ -3714,10 +3714,10 @@
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH18" t="n">
         <v>13</v>
@@ -3726,19 +3726,19 @@
         <v>23</v>
       </c>
       <c r="AJ18" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL18" t="n">
         <v>34</v>
       </c>
       <c r="AM18" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO18" t="n">
         <v>9</v>
@@ -3750,37 +3750,37 @@
         <v>29</v>
       </c>
       <c r="AR18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AS18" t="n">
         <v>126</v>
       </c>
       <c r="AT18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AU18" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV18" t="n">
         <v>51</v>
       </c>
       <c r="AW18" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY18" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ18" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA18" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB18" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BC18" t="n">
         <v>81</v>
@@ -3821,76 +3821,76 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="H19" t="n">
-        <v>6.4</v>
+        <v>6.8</v>
       </c>
       <c r="I19" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="J19" t="n">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="K19" t="n">
-        <v>2.75</v>
+        <v>2.95</v>
       </c>
       <c r="L19" t="n">
-        <v>9.75</v>
+        <v>10.5</v>
       </c>
       <c r="M19" t="n">
         <v>1.03</v>
       </c>
       <c r="N19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="O19" t="n">
-        <v>1.15</v>
+        <v>1.12</v>
       </c>
       <c r="P19" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="R19" t="n">
-        <v>2.57</v>
+        <v>2.85</v>
       </c>
       <c r="S19" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="T19" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="U19" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="V19" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="W19" t="n">
+        <v>8</v>
+      </c>
+      <c r="X19" t="n">
         <v>7.2</v>
       </c>
-      <c r="X19" t="n">
-        <v>6.6</v>
-      </c>
       <c r="Y19" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="Z19" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AA19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AB19" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC19" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD19" t="n">
-        <v>14</v>
+        <v>15.5</v>
       </c>
       <c r="AE19" t="n">
         <v>32</v>
@@ -3908,52 +3908,52 @@
         <v>150</v>
       </c>
       <c r="AJ19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AK19" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AL19" t="n">
         <v>250</v>
       </c>
       <c r="AM19" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AN19" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="AO19" t="n">
-        <v>4.85</v>
+        <v>4.65</v>
       </c>
       <c r="AP19" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AQ19" t="n">
-        <v>11</v>
+        <v>9.75</v>
       </c>
       <c r="AR19" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="AS19" t="n">
-        <v>200</v>
+        <v>175</v>
       </c>
       <c r="AT19" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AU19" t="n">
         <v>9.75</v>
       </c>
       <c r="AV19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AX19" t="n">
         <v>90</v>
       </c>
-      <c r="AW19" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AX19" t="n">
-        <v>80</v>
-      </c>
       <c r="AY19" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AZ19" t="n">
         <v>500</v>
@@ -4003,10 +4003,10 @@
         <v>3.2</v>
       </c>
       <c r="I20" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J20" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K20" t="n">
         <v>2</v>
@@ -4018,7 +4018,7 @@
         <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O20" t="n">
         <v>1.4</v>
@@ -4033,7 +4033,7 @@
         <v>1.62</v>
       </c>
       <c r="S20" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
         <v>2.5</v>
@@ -4081,7 +4081,7 @@
         <v>9.5</v>
       </c>
       <c r="AI20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AJ20" t="n">
         <v>13</v>
@@ -4179,22 +4179,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -4203,28 +4203,28 @@
         <v>9</v>
       </c>
       <c r="O21" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R21" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T21" t="n">
         <v>2.5</v>
       </c>
       <c r="U21" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="V21" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="W21" t="n">
         <v>7</v>
@@ -4251,13 +4251,13 @@
         <v>6</v>
       </c>
       <c r="AE21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF21" t="n">
         <v>51</v>
       </c>
       <c r="AG21" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH21" t="n">
         <v>9</v>
@@ -4302,7 +4302,7 @@
         <v>8.5</v>
       </c>
       <c r="AV21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW21" t="n">
         <v>5</v>
@@ -4314,10 +4314,10 @@
         <v>29</v>
       </c>
       <c r="AZ21" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA21" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB21" t="n">
         <v>251</v>
@@ -4361,28 +4361,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H22" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I22" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L22" t="n">
         <v>4</v>
       </c>
       <c r="M22" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -4391,22 +4391,22 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R22" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S22" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="T22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V22" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W22" t="n">
         <v>7</v>
@@ -4421,16 +4421,16 @@
         <v>21</v>
       </c>
       <c r="AA22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB22" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC22" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4439,10 +4439,10 @@
         <v>51</v>
       </c>
       <c r="AG22" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI22" t="n">
         <v>17</v>
@@ -4451,7 +4451,7 @@
         <v>13</v>
       </c>
       <c r="AK22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL22" t="n">
         <v>29</v>
@@ -4460,13 +4460,13 @@
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO22" t="n">
         <v>13</v>
       </c>
       <c r="AP22" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ22" t="n">
         <v>41</v>
@@ -4478,13 +4478,13 @@
         <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU22" t="n">
         <v>8.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW22" t="n">
         <v>5</v>
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
@@ -4579,10 +4579,10 @@
         <v>1.98</v>
       </c>
       <c r="S23" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U23" t="n">
         <v>1.67</v>
@@ -4606,7 +4606,7 @@
         <v>21</v>
       </c>
       <c r="AB23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC23" t="n">
         <v>11</v>
@@ -4651,7 +4651,7 @@
         <v>23</v>
       </c>
       <c r="AQ23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR23" t="n">
         <v>67</v>
@@ -4660,7 +4660,7 @@
         <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU23" t="n">
         <v>7.5</v>
@@ -4725,7 +4725,7 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H24" t="n">
         <v>3.9</v>
@@ -4737,7 +4737,7 @@
         <v>2.2</v>
       </c>
       <c r="K24" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L24" t="n">
         <v>6</v>
@@ -4755,16 +4755,16 @@
         <v>3.25</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R24" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S24" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="T24" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="U24" t="n">
         <v>2.1</v>
@@ -4779,7 +4779,7 @@
         <v>6.5</v>
       </c>
       <c r="Y24" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z24" t="n">
         <v>11</v>
@@ -4791,7 +4791,7 @@
         <v>34</v>
       </c>
       <c r="AC24" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD24" t="n">
         <v>7.5</v>
@@ -4806,7 +4806,7 @@
         <v>1250</v>
       </c>
       <c r="AH24" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI24" t="n">
         <v>29</v>
@@ -4827,13 +4827,13 @@
         <v>3.4</v>
       </c>
       <c r="AO24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR24" t="n">
         <v>51</v>
@@ -4907,22 +4907,22 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="H25" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="I25" t="n">
-        <v>7</v>
+        <v>5.75</v>
       </c>
       <c r="J25" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="K25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L25" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M25" t="n">
         <v>1.05</v>
@@ -4931,73 +4931,73 @@
         <v>11</v>
       </c>
       <c r="O25" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q25" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="R25" t="n">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="S25" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="T25" t="n">
         <v>2.75</v>
       </c>
       <c r="U25" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V25" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W25" t="n">
         <v>6</v>
       </c>
       <c r="X25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y25" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z25" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AA25" t="n">
         <v>13</v>
       </c>
       <c r="AB25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC25" t="n">
         <v>9.5</v>
       </c>
       <c r="AD25" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG25" t="n">
         <v>351</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI25" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ25" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK25" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL25" t="n">
         <v>51</v>
@@ -5006,37 +5006,37 @@
         <v>51</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO25" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
       </c>
       <c r="AS25" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT25" t="n">
         <v>2.75</v>
       </c>
       <c r="AU25" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV25" t="n">
         <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY25" t="n">
         <v>41</v>
@@ -5045,7 +5045,7 @@
         <v>151</v>
       </c>
       <c r="BA25" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB25" t="n">
         <v>351</v>
@@ -5089,40 +5089,40 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="H26" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I26" t="n">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="J26" t="n">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="K26" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L26" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M26" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="P26" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="R26" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="S26" t="n">
         <v>1.33</v>
@@ -5140,28 +5140,28 @@
         <v>8</v>
       </c>
       <c r="X26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y26" t="n">
         <v>8.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB26" t="n">
         <v>23</v>
       </c>
       <c r="AC26" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE26" t="n">
         <v>15</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>17</v>
       </c>
       <c r="AF26" t="n">
         <v>51</v>
@@ -5170,10 +5170,10 @@
         <v>201</v>
       </c>
       <c r="AH26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ26" t="n">
         <v>15</v>
@@ -5182,28 +5182,28 @@
         <v>51</v>
       </c>
       <c r="AL26" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
         <v>41</v>
       </c>
       <c r="AN26" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AO26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AR26" t="n">
         <v>41</v>
       </c>
       <c r="AS26" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT26" t="n">
         <v>3.25</v>
@@ -5215,10 +5215,10 @@
         <v>51</v>
       </c>
       <c r="AW26" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
         <v>29</v>
@@ -5271,22 +5271,22 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="H27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="J27" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K27" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L27" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="M27" t="n">
         <v>1.03</v>
@@ -5313,25 +5313,25 @@
         <v>3.4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V27" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y27" t="n">
         <v>8.5</v>
       </c>
       <c r="Z27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA27" t="n">
         <v>11</v>
-      </c>
-      <c r="AA27" t="n">
-        <v>12</v>
       </c>
       <c r="AB27" t="n">
         <v>23</v>
@@ -5340,7 +5340,7 @@
         <v>15</v>
       </c>
       <c r="AD27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE27" t="n">
         <v>17</v>
@@ -5349,16 +5349,16 @@
         <v>51</v>
       </c>
       <c r="AG27" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
         <v>34</v>
       </c>
       <c r="AJ27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK27" t="n">
         <v>67</v>
@@ -5370,16 +5370,16 @@
         <v>41</v>
       </c>
       <c r="AN27" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP27" t="n">
         <v>17</v>
       </c>
       <c r="AQ27" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR27" t="n">
         <v>41</v>
@@ -5391,25 +5391,25 @@
         <v>3.4</v>
       </c>
       <c r="AU27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV27" t="n">
         <v>51</v>
       </c>
       <c r="AW27" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AX27" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY27" t="n">
         <v>34</v>
       </c>
       <c r="AZ27" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA27" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB27" t="n">
         <v>201</v>
@@ -5453,13 +5453,13 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="H28" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I28" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J28" t="n">
         <v>2.1</v>
@@ -5468,7 +5468,7 @@
         <v>2.38</v>
       </c>
       <c r="L28" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -5495,16 +5495,16 @@
         <v>3.25</v>
       </c>
       <c r="U28" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V28" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X28" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
@@ -5522,13 +5522,13 @@
         <v>15</v>
       </c>
       <c r="AD28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF28" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG28" t="n">
         <v>201</v>
@@ -5537,10 +5537,10 @@
         <v>15</v>
       </c>
       <c r="AI28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK28" t="n">
         <v>51</v>
@@ -5552,10 +5552,10 @@
         <v>41</v>
       </c>
       <c r="AN28" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AP28" t="n">
         <v>17</v>
@@ -5567,7 +5567,7 @@
         <v>41</v>
       </c>
       <c r="AS28" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT28" t="n">
         <v>3.25</v>
@@ -5582,13 +5582,13 @@
         <v>7</v>
       </c>
       <c r="AX28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY28" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ28" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA28" t="n">
         <v>101</v>
@@ -6174,13 +6174,13 @@
         <v>2.1</v>
       </c>
       <c r="H32" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J32" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K32" t="n">
         <v>2.05</v>
@@ -6201,25 +6201,25 @@
         <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R32" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S32" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="T32" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="U32" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="V32" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="W32" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X32" t="n">
         <v>9.5</v>
@@ -6234,10 +6234,10 @@
         <v>19</v>
       </c>
       <c r="AB32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC32" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD32" t="n">
         <v>6</v>
@@ -6249,10 +6249,10 @@
         <v>51</v>
       </c>
       <c r="AG32" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH32" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AI32" t="n">
         <v>17</v>
@@ -6288,13 +6288,13 @@
         <v>201</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU32" t="n">
         <v>8.5</v>
       </c>
       <c r="AV32" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW32" t="n">
         <v>5.5</v>
@@ -6303,7 +6303,7 @@
         <v>21</v>
       </c>
       <c r="AY32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ32" t="n">
         <v>67</v>
@@ -6353,13 +6353,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H33" t="n">
         <v>2.9</v>
       </c>
       <c r="I33" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J33" t="n">
         <v>5</v>
@@ -6368,7 +6368,7 @@
         <v>1.95</v>
       </c>
       <c r="L33" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M33" t="n">
         <v>1.1</v>
@@ -6383,10 +6383,10 @@
         <v>2.5</v>
       </c>
       <c r="Q33" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R33" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S33" t="n">
         <v>1.57</v>
@@ -6425,7 +6425,7 @@
         <v>6</v>
       </c>
       <c r="AE33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF33" t="n">
         <v>81</v>
@@ -6437,13 +6437,13 @@
         <v>5.5</v>
       </c>
       <c r="AI33" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ33" t="n">
         <v>9.5</v>
       </c>
       <c r="AK33" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL33" t="n">
         <v>19</v>
@@ -6531,40 +6531,40 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H34" t="n">
         <v>3.8</v>
       </c>
       <c r="I34" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J34" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K34" t="n">
         <v>2.3</v>
       </c>
       <c r="L34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
       </c>
       <c r="N34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O34" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P34" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R34" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S34" t="n">
         <v>1.3</v>
@@ -6597,7 +6597,7 @@
         <v>21</v>
       </c>
       <c r="AC34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD34" t="n">
         <v>7.5</v>
@@ -6606,7 +6606,7 @@
         <v>12</v>
       </c>
       <c r="AF34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG34" t="n">
         <v>126</v>
@@ -6615,16 +6615,16 @@
         <v>12</v>
       </c>
       <c r="AI34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ34" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK34" t="n">
         <v>29</v>
       </c>
       <c r="AL34" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM34" t="n">
         <v>23</v>
@@ -6633,7 +6633,7 @@
         <v>4.75</v>
       </c>
       <c r="AO34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP34" t="n">
         <v>19</v>
@@ -6672,7 +6672,7 @@
         <v>51</v>
       </c>
       <c r="BB34" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC34" t="n">
         <v>351</v>
@@ -6764,19 +6764,19 @@
         <v>11</v>
       </c>
       <c r="X35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y35" t="n">
         <v>8.5</v>
       </c>
       <c r="Z35" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA35" t="n">
         <v>12</v>
       </c>
       <c r="AB35" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC35" t="n">
         <v>21</v>
@@ -6794,7 +6794,7 @@
         <v>101</v>
       </c>
       <c r="AH35" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI35" t="n">
         <v>29</v>
@@ -6806,7 +6806,7 @@
         <v>51</v>
       </c>
       <c r="AL35" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM35" t="n">
         <v>29</v>
@@ -6842,7 +6842,7 @@
         <v>7</v>
       </c>
       <c r="AX35" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AY35" t="n">
         <v>23</v>
@@ -6895,16 +6895,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H36" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I36" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K36" t="n">
         <v>2.6</v>
@@ -6919,16 +6919,16 @@
         <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P36" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R36" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="S36" t="n">
         <v>1.25</v>
@@ -6937,10 +6937,10 @@
         <v>3.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V36" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W36" t="n">
         <v>10</v>
@@ -6967,7 +6967,7 @@
         <v>9</v>
       </c>
       <c r="AE36" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF36" t="n">
         <v>41</v>
@@ -6997,13 +6997,13 @@
         <v>3.75</v>
       </c>
       <c r="AO36" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP36" t="n">
         <v>15</v>
       </c>
       <c r="AQ36" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AR36" t="n">
         <v>34</v>
@@ -7101,16 +7101,16 @@
         <v>11</v>
       </c>
       <c r="O37" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P37" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R37" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S37" t="n">
         <v>1.36</v>
@@ -7259,19 +7259,19 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="H38" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K38" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L38" t="n">
         <v>4</v>
@@ -7283,22 +7283,22 @@
         <v>19</v>
       </c>
       <c r="O38" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P38" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R38" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S38" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="U38" t="n">
         <v>1.44</v>
@@ -7322,13 +7322,13 @@
         <v>13</v>
       </c>
       <c r="AB38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC38" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD38" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE38" t="n">
         <v>11</v>
@@ -7337,7 +7337,7 @@
         <v>29</v>
       </c>
       <c r="AG38" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH38" t="n">
         <v>19</v>
@@ -7346,16 +7346,16 @@
         <v>26</v>
       </c>
       <c r="AJ38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK38" t="n">
         <v>41</v>
       </c>
       <c r="AL38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN38" t="n">
         <v>4.33</v>
@@ -7376,7 +7376,7 @@
         <v>81</v>
       </c>
       <c r="AT38" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AU38" t="n">
         <v>7</v>
@@ -7385,7 +7385,7 @@
         <v>41</v>
       </c>
       <c r="AW38" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX38" t="n">
         <v>19</v>
@@ -7397,13 +7397,13 @@
         <v>51</v>
       </c>
       <c r="BA38" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB38" t="n">
         <v>101</v>
       </c>
       <c r="BC38" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD38" t="n">
         <v>151</v>
@@ -7462,22 +7462,22 @@
         <v>1.03</v>
       </c>
       <c r="N39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O39" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P39" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R39" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="S39" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T39" t="n">
         <v>3.4</v>
@@ -7623,13 +7623,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H40" t="n">
         <v>3.8</v>
       </c>
       <c r="I40" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
@@ -7638,7 +7638,7 @@
         <v>2.38</v>
       </c>
       <c r="L40" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="M40" t="n">
         <v>1.03</v>
@@ -7659,7 +7659,7 @@
         <v>2.4</v>
       </c>
       <c r="S40" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T40" t="n">
         <v>3.5</v>
@@ -7671,7 +7671,7 @@
         <v>2.5</v>
       </c>
       <c r="W40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X40" t="n">
         <v>15</v>
@@ -7695,7 +7695,7 @@
         <v>7.5</v>
       </c>
       <c r="AE40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF40" t="n">
         <v>34</v>
@@ -7704,7 +7704,7 @@
         <v>101</v>
       </c>
       <c r="AH40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI40" t="n">
         <v>15</v>
@@ -7716,13 +7716,13 @@
         <v>26</v>
       </c>
       <c r="AL40" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM40" t="n">
         <v>21</v>
       </c>
       <c r="AN40" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO40" t="n">
         <v>13</v>
@@ -7767,7 +7767,7 @@
         <v>101</v>
       </c>
       <c r="BC40" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BD40" t="n">
         <v>151</v>
@@ -7808,7 +7808,7 @@
         <v>1.9</v>
       </c>
       <c r="H41" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I41" t="n">
         <v>3.4</v>
@@ -7826,22 +7826,22 @@
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O41" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P41" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
       <c r="R41" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="S41" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="T41" t="n">
         <v>3.75</v>
@@ -7853,10 +7853,10 @@
         <v>2.63</v>
       </c>
       <c r="W41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Y41" t="n">
         <v>9</v>
@@ -7868,22 +7868,22 @@
         <v>13</v>
       </c>
       <c r="AB41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD41" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE41" t="n">
         <v>12</v>
       </c>
       <c r="AF41" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AG41" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH41" t="n">
         <v>17</v>
@@ -7904,7 +7904,7 @@
         <v>23</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AO41" t="n">
         <v>9.5</v>
@@ -7937,7 +7937,7 @@
         <v>17</v>
       </c>
       <c r="AY41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AZ41" t="n">
         <v>51</v>
@@ -7949,7 +7949,7 @@
         <v>101</v>
       </c>
       <c r="BC41" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD41" t="n">
         <v>151</v>
@@ -7993,7 +7993,7 @@
         <v>4.33</v>
       </c>
       <c r="I42" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J42" t="n">
         <v>2.05</v>
@@ -8017,25 +8017,25 @@
         <v>5.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R42" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S42" t="n">
         <v>1.25</v>
       </c>
       <c r="T42" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="U42" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V42" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W42" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X42" t="n">
         <v>9</v>
@@ -8050,13 +8050,13 @@
         <v>11</v>
       </c>
       <c r="AB42" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC42" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD42" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE42" t="n">
         <v>15</v>
@@ -8065,7 +8065,7 @@
         <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH42" t="n">
         <v>19</v>
@@ -8104,7 +8104,7 @@
         <v>81</v>
       </c>
       <c r="AT42" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU42" t="n">
         <v>7.5</v>
@@ -8119,7 +8119,7 @@
         <v>26</v>
       </c>
       <c r="AY42" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ42" t="n">
         <v>81</v>
@@ -8131,7 +8131,7 @@
         <v>151</v>
       </c>
       <c r="BC42" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD42" t="n">
         <v>151</v>
@@ -8205,7 +8205,7 @@
         <v>2.2</v>
       </c>
       <c r="S43" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="T43" t="n">
         <v>3.4</v>
@@ -8369,25 +8369,25 @@
         <v>3.75</v>
       </c>
       <c r="M44" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N44" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O44" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P44" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R44" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S44" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="T44" t="n">
         <v>2.5</v>
@@ -8429,7 +8429,7 @@
         <v>51</v>
       </c>
       <c r="AG44" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AH44" t="n">
         <v>9</v>
@@ -8492,7 +8492,7 @@
         <v>81</v>
       </c>
       <c r="BB44" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC44" t="n">
         <v>81</v>
@@ -8533,16 +8533,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="H45" t="n">
         <v>3.6</v>
       </c>
       <c r="I45" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J45" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K45" t="n">
         <v>2.1</v>
@@ -8563,40 +8563,40 @@
         <v>3.25</v>
       </c>
       <c r="Q45" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T45" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U45" t="n">
         <v>2.1</v>
       </c>
-      <c r="R45" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="T45" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="U45" t="n">
-        <v>2</v>
-      </c>
       <c r="V45" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W45" t="n">
         <v>6</v>
       </c>
       <c r="X45" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y45" t="n">
         <v>8.5</v>
       </c>
       <c r="Z45" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA45" t="n">
         <v>15</v>
       </c>
       <c r="AB45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC45" t="n">
         <v>8.5</v>
@@ -8605,7 +8605,7 @@
         <v>7</v>
       </c>
       <c r="AE45" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF45" t="n">
         <v>67</v>
@@ -8617,28 +8617,28 @@
         <v>13</v>
       </c>
       <c r="AI45" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ45" t="n">
         <v>19</v>
       </c>
       <c r="AK45" t="n">
+        <v>67</v>
+      </c>
+      <c r="AL45" t="n">
         <v>51</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>41</v>
       </c>
       <c r="AM45" t="n">
         <v>51</v>
       </c>
       <c r="AN45" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO45" t="n">
         <v>8.5</v>
       </c>
       <c r="AP45" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ45" t="n">
         <v>29</v>
@@ -8653,7 +8653,7 @@
         <v>2.63</v>
       </c>
       <c r="AU45" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV45" t="n">
         <v>67</v>
@@ -8662,7 +8662,7 @@
         <v>7</v>
       </c>
       <c r="AX45" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY45" t="n">
         <v>41</v>
@@ -8715,58 +8715,58 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="H46" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="I46" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="J46" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K46" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="L46" t="n">
-        <v>2.85</v>
+        <v>2.92</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="O46" t="n">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="P46" t="n">
-        <v>4.05</v>
+        <v>3.65</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.62</v>
+        <v>1.72</v>
       </c>
       <c r="R46" t="n">
+        <v>2</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T46" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U46" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="V46" t="n">
         <v>2.18</v>
       </c>
-      <c r="S46" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T46" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U46" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V46" t="n">
-        <v>2.35</v>
-      </c>
       <c r="W46" t="n">
-        <v>11.5</v>
+        <v>10.25</v>
       </c>
       <c r="X46" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Y46" t="n">
         <v>10</v>
@@ -8775,88 +8775,88 @@
         <v>32</v>
       </c>
       <c r="AA46" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB46" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AC46" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD46" t="n">
-        <v>7.1</v>
+        <v>6.8</v>
       </c>
       <c r="AE46" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AF46" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG46" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AH46" t="n">
-        <v>10.75</v>
+        <v>9.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ46" t="n">
         <v>9.25</v>
       </c>
       <c r="AK46" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL46" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.9</v>
+        <v>4.75</v>
       </c>
       <c r="AO46" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AP46" t="n">
+        <v>21</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>65</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>90</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>250</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>55</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY46" t="n">
         <v>19</v>
       </c>
-      <c r="AQ46" t="n">
-        <v>55</v>
-      </c>
-      <c r="AR46" t="n">
-        <v>80</v>
-      </c>
-      <c r="AS46" t="n">
-        <v>200</v>
-      </c>
-      <c r="AT46" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AU46" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AV46" t="n">
-        <v>45</v>
-      </c>
-      <c r="AW46" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AX46" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AY46" t="n">
-        <v>17</v>
-      </c>
       <c r="AZ46" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="BA46" t="n">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BB46" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="BC46" t="inlineStr"/>
       <c r="BD46" t="inlineStr"/>
@@ -8893,88 +8893,88 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="H47" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I47" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="J47" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="K47" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>4.05</v>
+        <v>4.15</v>
       </c>
       <c r="M47" t="n">
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="O47" t="n">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q47" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U47" t="n">
         <v>1.62</v>
       </c>
-      <c r="R47" t="n">
+      <c r="V47" t="n">
         <v>2.15</v>
       </c>
-      <c r="S47" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="T47" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="V47" t="n">
-        <v>2.22</v>
-      </c>
       <c r="W47" t="n">
-        <v>9</v>
+        <v>8.25</v>
       </c>
       <c r="X47" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Y47" t="n">
         <v>8.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AA47" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AB47" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AC47" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AD47" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AE47" t="n">
         <v>13</v>
       </c>
       <c r="AF47" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AG47" t="n">
         <v>300</v>
       </c>
       <c r="AH47" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AI47" t="n">
         <v>24</v>
@@ -8983,55 +8983,55 @@
         <v>12.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AL47" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AM47" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN47" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="AO47" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AP47" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AR47" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AS47" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AT47" t="n">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="AU47" t="n">
         <v>6.8</v>
       </c>
       <c r="AV47" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AW47" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AX47" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY47" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AZ47" t="n">
         <v>100</v>
       </c>
       <c r="BA47" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB47" t="n">
         <v>250</v>
@@ -9071,19 +9071,19 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="H48" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I48" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="J48" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K48" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="L48" t="n">
         <v>2.8</v>
@@ -9092,37 +9092,37 @@
         <v>1.03</v>
       </c>
       <c r="N48" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="O48" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="P48" t="n">
-        <v>4.55</v>
+        <v>4.7</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="R48" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S48" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="T48" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="U48" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="V48" t="n">
-        <v>2.57</v>
+        <v>2.65</v>
       </c>
       <c r="W48" t="n">
-        <v>13</v>
+        <v>14.5</v>
       </c>
       <c r="X48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y48" t="n">
         <v>10</v>
@@ -9131,25 +9131,25 @@
         <v>32</v>
       </c>
       <c r="AA48" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AC48" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE48" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AF48" t="n">
         <v>32</v>
       </c>
       <c r="AG48" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AH48" t="n">
         <v>12.5</v>
@@ -9158,7 +9158,7 @@
         <v>15</v>
       </c>
       <c r="AJ48" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK48" t="n">
         <v>26</v>
@@ -9170,31 +9170,31 @@
         <v>19</v>
       </c>
       <c r="AN48" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO48" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AP48" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ48" t="n">
         <v>50</v>
       </c>
       <c r="AR48" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AS48" t="n">
         <v>150</v>
       </c>
       <c r="AT48" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="AU48" t="n">
         <v>6.2</v>
       </c>
       <c r="AV48" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AW48" t="n">
         <v>4.75</v>
@@ -9215,7 +9215,7 @@
         <v>150</v>
       </c>
       <c r="BC48" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="BD48" t="inlineStr"/>
     </row>
@@ -9251,22 +9251,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="H49" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="I49" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="J49" t="n">
-        <v>2.63</v>
+        <v>2.88</v>
       </c>
       <c r="K49" t="n">
         <v>2.2</v>
       </c>
       <c r="L49" t="n">
-        <v>4.33</v>
+        <v>3.6</v>
       </c>
       <c r="M49" t="n">
         <v>1.05</v>
@@ -9281,10 +9281,10 @@
         <v>3.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R49" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S49" t="n">
         <v>1.4</v>
@@ -9293,73 +9293,73 @@
         <v>2.75</v>
       </c>
       <c r="U49" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V49" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X49" t="n">
+        <v>11</v>
+      </c>
+      <c r="Y49" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y49" t="n">
-        <v>9</v>
-      </c>
       <c r="Z49" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AA49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB49" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC49" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD49" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF49" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG49" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH49" t="n">
         <v>10</v>
       </c>
       <c r="AI49" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AJ49" t="n">
         <v>12</v>
       </c>
       <c r="AK49" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM49" t="n">
         <v>34</v>
       </c>
       <c r="AN49" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP49" t="n">
         <v>21</v>
       </c>
       <c r="AQ49" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR49" t="n">
         <v>51</v>
@@ -9377,22 +9377,22 @@
         <v>51</v>
       </c>
       <c r="AW49" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX49" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AY49" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ49" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA49" t="n">
         <v>81</v>
       </c>
       <c r="BB49" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC49" t="n">
         <v>276</v>
@@ -9433,61 +9433,61 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H50" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I50" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="J50" t="n">
         <v>3.1</v>
       </c>
       <c r="K50" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L50" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M50" t="n">
         <v>1.04</v>
       </c>
       <c r="N50" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O50" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P50" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R50" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S50" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T50" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U50" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V50" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X50" t="n">
         <v>13</v>
       </c>
       <c r="Y50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z50" t="n">
         <v>23</v>
@@ -9496,16 +9496,16 @@
         <v>19</v>
       </c>
       <c r="AB50" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC50" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE50" t="n">
         <v>12</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>13</v>
       </c>
       <c r="AF50" t="n">
         <v>41</v>
@@ -9514,25 +9514,25 @@
         <v>151</v>
       </c>
       <c r="AH50" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI50" t="n">
         <v>15</v>
       </c>
       <c r="AJ50" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL50" t="n">
         <v>21</v>
       </c>
       <c r="AM50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN50" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="AO50" t="n">
         <v>13</v>
@@ -9547,34 +9547,34 @@
         <v>51</v>
       </c>
       <c r="AS50" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT50" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU50" t="n">
         <v>7.5</v>
       </c>
       <c r="AV50" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW50" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX50" t="n">
         <v>15</v>
       </c>
       <c r="AY50" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ50" t="n">
+        <v>41</v>
+      </c>
+      <c r="BA50" t="n">
         <v>51</v>
       </c>
-      <c r="BA50" t="n">
-        <v>67</v>
-      </c>
       <c r="BB50" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC50" t="n">
         <v>251</v>
@@ -9697,91 +9697,91 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H52" t="n">
+        <v>4</v>
+      </c>
+      <c r="I52" t="n">
         <v>4.1</v>
       </c>
-      <c r="I52" t="n">
-        <v>4.5</v>
-      </c>
       <c r="J52" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="K52" t="n">
         <v>2.5</v>
       </c>
       <c r="L52" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O52" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P52" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="T52" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U52" t="n">
         <v>1.53</v>
       </c>
-      <c r="R52" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T52" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U52" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V52" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W52" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="X52" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Y52" t="n">
         <v>8.5</v>
       </c>
       <c r="Z52" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA52" t="n">
         <v>12</v>
       </c>
       <c r="AB52" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC52" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AD52" t="n">
         <v>8.5</v>
       </c>
       <c r="AE52" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF52" t="n">
         <v>41</v>
       </c>
       <c r="AG52" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AH52" t="n">
         <v>17</v>
       </c>
       <c r="AI52" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ52" t="n">
         <v>15</v>
@@ -9790,19 +9790,19 @@
         <v>51</v>
       </c>
       <c r="AL52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM52" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN52" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO52" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP52" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AQ52" t="n">
         <v>23</v>
@@ -9811,10 +9811,10 @@
         <v>41</v>
       </c>
       <c r="AS52" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT52" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AU52" t="n">
         <v>7.5</v>
@@ -9823,25 +9823,25 @@
         <v>41</v>
       </c>
       <c r="AW52" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX52" t="n">
+        <v>21</v>
+      </c>
+      <c r="AY52" t="n">
         <v>23</v>
       </c>
-      <c r="AY52" t="n">
-        <v>26</v>
-      </c>
       <c r="AZ52" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA52" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB52" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC52" t="n">
-        <v>126</v>
+        <v>351</v>
       </c>
       <c r="BD52" t="n">
         <v>151</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
@@ -756,13 +756,13 @@
         <v>8</v>
       </c>
       <c r="J2" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="K2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -789,10 +789,10 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
@@ -825,7 +825,7 @@
         <v>67</v>
       </c>
       <c r="AG2" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH2" t="n">
         <v>19</v>
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK2" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,13 +846,13 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO2" t="n">
         <v>6.5</v>
       </c>
       <c r="AP2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ2" t="n">
         <v>19</v>
@@ -861,19 +861,19 @@
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AT2" t="n">
         <v>3.25</v>
       </c>
       <c r="AU2" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>67</v>
+      </c>
+      <c r="AW2" t="n">
         <v>9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>8.5</v>
       </c>
       <c r="AX2" t="n">
         <v>41</v>
@@ -888,7 +888,7 @@
         <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -935,7 +935,7 @@
         <v>3.4</v>
       </c>
       <c r="I3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -959,28 +959,28 @@
         <v>3.75</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="R3" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S3" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="T3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="V3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="W3" t="n">
         <v>8.5</v>
       </c>
       <c r="X3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -1007,10 +1007,10 @@
         <v>41</v>
       </c>
       <c r="AG3" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>17</v>
@@ -1046,7 +1046,7 @@
         <v>151</v>
       </c>
       <c r="AT3" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AU3" t="n">
         <v>7.5</v>
@@ -1061,7 +1061,7 @@
         <v>17</v>
       </c>
       <c r="AY3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ3" t="n">
         <v>51</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="J4" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.83</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1171,7 +1171,7 @@
         <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
@@ -1235,13 +1235,13 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
         <v>67</v>
@@ -1291,13 +1291,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="H5" t="n">
         <v>3.4</v>
       </c>
       <c r="I5" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J5" t="n">
         <v>2.6</v>
@@ -1342,10 +1342,10 @@
         <v>6.5</v>
       </c>
       <c r="X5" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y5" t="n">
         <v>8.5</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9</v>
       </c>
       <c r="Z5" t="n">
         <v>15</v>
@@ -1360,16 +1360,16 @@
         <v>8.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>51</v>
       </c>
       <c r="AG5" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AH5" t="n">
         <v>11</v>
@@ -1393,13 +1393,13 @@
         <v>3.75</v>
       </c>
       <c r="AO5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1473,16 +1473,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.38</v>
+        <v>2.45</v>
       </c>
       <c r="J6" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
@@ -1497,34 +1497,34 @@
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="R6" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S6" t="n">
         <v>1.53</v>
       </c>
-      <c r="S6" t="n">
-        <v>1.57</v>
-      </c>
       <c r="T6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W6" t="n">
         <v>7.5</v>
       </c>
       <c r="X6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
@@ -1545,19 +1545,19 @@
         <v>6</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
       </c>
       <c r="AG6" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH6" t="n">
         <v>6.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
@@ -1572,13 +1572,13 @@
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
       </c>
       <c r="AP6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AQ6" t="n">
         <v>67</v>
@@ -1590,7 +1590,7 @@
         <v>301</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
         <v>9</v>
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="H7" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="I7" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="J7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1685,10 +1685,10 @@
         <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>1.57</v>
@@ -1697,13 +1697,13 @@
         <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="W7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X7" t="n">
         <v>29</v>
@@ -1712,10 +1712,10 @@
         <v>21</v>
       </c>
       <c r="Z7" t="n">
+        <v>81</v>
+      </c>
+      <c r="AA7" t="n">
         <v>67</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>51</v>
       </c>
       <c r="AB7" t="n">
         <v>67</v>
@@ -1724,26 +1724,26 @@
         <v>6.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE7" t="n">
         <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
         <v>4.75</v>
       </c>
       <c r="AI7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AJ7" t="n">
         <v>9.5</v>
       </c>
       <c r="AK7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL7" t="n">
         <v>17</v>
@@ -1752,7 +1752,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AO7" t="n">
         <v>41</v>
@@ -1761,10 +1761,10 @@
         <v>51</v>
       </c>
       <c r="AQ7" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AR7" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AS7" t="n">
         <v>501</v>
@@ -1773,22 +1773,22 @@
         <v>2.25</v>
       </c>
       <c r="AU7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AW7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AY7" t="n">
         <v>26</v>
       </c>
       <c r="AZ7" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="BA7" t="n">
         <v>67</v>
@@ -1800,7 +1800,7 @@
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="K8" t="n">
         <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>4.33</v>
+        <v>3.75</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1865,16 +1865,16 @@
         <v>2.63</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S8" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U8" t="n">
         <v>2.05</v>
@@ -1883,19 +1883,19 @@
         <v>1.7</v>
       </c>
       <c r="W8" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AA8" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB8" t="n">
         <v>41</v>
@@ -1907,7 +1907,7 @@
         <v>6</v>
       </c>
       <c r="AE8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AF8" t="n">
         <v>67</v>
@@ -1916,34 +1916,34 @@
         <v>501</v>
       </c>
       <c r="AH8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL8" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM8" t="n">
         <v>41</v>
       </c>
       <c r="AN8" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
         <v>29</v>
       </c>
       <c r="AQ8" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR8" t="n">
         <v>81</v>
@@ -1952,7 +1952,7 @@
         <v>251</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU8" t="n">
         <v>9</v>
@@ -1961,22 +1961,22 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AY8" t="n">
         <v>34</v>
       </c>
       <c r="AZ8" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA8" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB8" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC8" t="n">
         <v>126</v>
@@ -2017,19 +2017,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
@@ -2068,7 +2068,7 @@
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
@@ -2099,7 +2099,7 @@
         <v>6.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
@@ -2117,7 +2117,7 @@
         <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP9" t="n">
         <v>34</v>
@@ -2153,7 +2153,7 @@
         <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
         <v>451</v>
@@ -2559,151 +2559,151 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.55</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
         <v>3.1</v>
       </c>
       <c r="K12" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.73</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="S12" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="V12" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="X12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA12" t="n">
         <v>19</v>
       </c>
       <c r="AB12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE12" t="n">
         <v>13</v>
       </c>
-      <c r="AD12" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>12</v>
-      </c>
       <c r="AF12" t="n">
         <v>41</v>
       </c>
       <c r="AG12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI12" t="n">
         <v>15</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL12" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
       </c>
       <c r="AR12" t="n">
+        <v>67</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>151</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV12" t="n">
         <v>51</v>
       </c>
-      <c r="AS12" t="n">
-        <v>126</v>
-      </c>
-      <c r="AT12" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>41</v>
-      </c>
       <c r="AW12" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX12" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BC12" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BD12" t="n">
         <v>151</v>
@@ -2923,28 +2923,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I14" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="J14" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>2.38</v>
       </c>
       <c r="L14" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M14" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O14" t="n">
         <v>1.2</v>
@@ -2986,16 +2986,16 @@
         <v>34</v>
       </c>
       <c r="AB14" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC14" t="n">
         <v>13</v>
       </c>
       <c r="AD14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
         <v>41</v>
@@ -3007,7 +3007,7 @@
         <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ14" t="n">
         <v>8.5</v>
@@ -3016,25 +3016,25 @@
         <v>13</v>
       </c>
       <c r="AL14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM14" t="n">
         <v>21</v>
       </c>
       <c r="AN14" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO14" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AR14" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AS14" t="n">
         <v>151</v>
@@ -3043,22 +3043,22 @@
         <v>3.25</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV14" t="n">
         <v>51</v>
       </c>
       <c r="AW14" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY14" t="n">
         <v>17</v>
       </c>
       <c r="AZ14" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="BA14" t="n">
         <v>41</v>
@@ -3461,13 +3461,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H17" t="n">
         <v>5.75</v>
       </c>
       <c r="I17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J17" t="n">
         <v>1.67</v>
@@ -3482,7 +3482,7 @@
         <v>1.02</v>
       </c>
       <c r="N17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O17" t="n">
         <v>1.11</v>
@@ -3512,10 +3512,10 @@
         <v>10</v>
       </c>
       <c r="X17" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z17" t="n">
         <v>8.5</v>
@@ -3524,16 +3524,16 @@
         <v>10</v>
       </c>
       <c r="AB17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD17" t="n">
         <v>12</v>
       </c>
       <c r="AE17" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
@@ -3554,7 +3554,7 @@
         <v>126</v>
       </c>
       <c r="AL17" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AM17" t="n">
         <v>51</v>
@@ -3572,10 +3572,10 @@
         <v>13</v>
       </c>
       <c r="AR17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS17" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT17" t="n">
         <v>4</v>
@@ -3602,7 +3602,7 @@
         <v>151</v>
       </c>
       <c r="BB17" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>
@@ -3997,76 +3997,76 @@
         </is>
       </c>
       <c r="G20" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H20" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K20" t="n">
         <v>2.05</v>
       </c>
-      <c r="H20" t="n">
+      <c r="L20" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M20" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9</v>
+      </c>
+      <c r="O20" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P20" t="n">
         <v>3.2</v>
       </c>
-      <c r="I20" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N20" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O20" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P20" t="n">
-        <v>3</v>
-      </c>
       <c r="Q20" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R20" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V20" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W20" t="n">
         <v>6.5</v>
       </c>
       <c r="X20" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Y20" t="n">
         <v>9</v>
       </c>
       <c r="Z20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB20" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC20" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AD20" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
@@ -4075,10 +4075,10 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AH20" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI20" t="n">
         <v>19</v>
@@ -4096,13 +4096,13 @@
         <v>41</v>
       </c>
       <c r="AN20" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AP20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ20" t="n">
         <v>41</v>
@@ -4114,7 +4114,7 @@
         <v>201</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU20" t="n">
         <v>8.5</v>
@@ -4126,7 +4126,7 @@
         <v>5.5</v>
       </c>
       <c r="AX20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY20" t="n">
         <v>34</v>
@@ -4138,7 +4138,7 @@
         <v>101</v>
       </c>
       <c r="BB20" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC20" t="n">
         <v>126</v>
@@ -4179,22 +4179,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="H21" t="n">
         <v>3.1</v>
       </c>
       <c r="I21" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="J21" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.07</v>
@@ -4227,19 +4227,19 @@
         <v>1.8</v>
       </c>
       <c r="W21" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="X21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Y21" t="n">
         <v>9.5</v>
       </c>
       <c r="Z21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB21" t="n">
         <v>34</v>
@@ -4260,31 +4260,31 @@
         <v>351</v>
       </c>
       <c r="AH21" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ21" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>34</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>4</v>
+      </c>
+      <c r="AO21" t="n">
         <v>12</v>
       </c>
-      <c r="AK21" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="AO21" t="n">
-        <v>13</v>
-      </c>
       <c r="AP21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ21" t="n">
         <v>41</v>
@@ -4305,13 +4305,13 @@
         <v>67</v>
       </c>
       <c r="AW21" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX21" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY21" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ21" t="n">
         <v>67</v>
@@ -4361,28 +4361,28 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="H22" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I22" t="n">
+        <v>3</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K22" t="n">
+        <v>2</v>
+      </c>
+      <c r="L22" t="n">
         <v>3.6</v>
       </c>
-      <c r="J22" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="K22" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L22" t="n">
-        <v>4</v>
-      </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.36</v>
@@ -4391,16 +4391,16 @@
         <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R22" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S22" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U22" t="n">
         <v>1.83</v>
@@ -4409,28 +4409,28 @@
         <v>1.83</v>
       </c>
       <c r="W22" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X22" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y22" t="n">
         <v>10</v>
       </c>
-      <c r="Y22" t="n">
-        <v>9.5</v>
-      </c>
       <c r="Z22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA22" t="n">
         <v>21</v>
       </c>
-      <c r="AA22" t="n">
-        <v>19</v>
-      </c>
       <c r="AB22" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC22" t="n">
         <v>8</v>
       </c>
       <c r="AD22" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AE22" t="n">
         <v>15</v>
@@ -4442,67 +4442,67 @@
         <v>301</v>
       </c>
       <c r="AH22" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AI22" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AK22" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AL22" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM22" t="n">
         <v>41</v>
       </c>
       <c r="AN22" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP22" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ22" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AR22" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS22" t="n">
         <v>201</v>
       </c>
       <c r="AT22" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU22" t="n">
         <v>8.5</v>
       </c>
       <c r="AV22" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AW22" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX22" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY22" t="n">
         <v>29</v>
       </c>
       <c r="AZ22" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA22" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB22" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC22" t="n">
         <v>81</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="H23" t="n">
         <v>3.4</v>
       </c>
       <c r="I23" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="J23" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K23" t="n">
         <v>2.2</v>
       </c>
       <c r="L23" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M23" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N23" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
         <v>1.25</v>
@@ -4573,22 +4573,22 @@
         <v>3.75</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="R23" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="S23" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U23" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V23" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W23" t="n">
         <v>9.5</v>
@@ -4600,22 +4600,22 @@
         <v>10</v>
       </c>
       <c r="Z23" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>19</v>
+      </c>
+      <c r="AB23" t="n">
         <v>26</v>
       </c>
-      <c r="AA23" t="n">
-        <v>21</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>29</v>
-      </c>
       <c r="AC23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD23" t="n">
         <v>6.5</v>
       </c>
       <c r="AE23" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF23" t="n">
         <v>41</v>
@@ -4624,43 +4624,43 @@
         <v>151</v>
       </c>
       <c r="AH23" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI23" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ23" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL23" t="n">
         <v>21</v>
       </c>
       <c r="AM23" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN23" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO23" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AP23" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ23" t="n">
+        <v>41</v>
+      </c>
+      <c r="AR23" t="n">
         <v>51</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>67</v>
       </c>
       <c r="AS23" t="n">
         <v>151</v>
       </c>
       <c r="AT23" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU23" t="n">
         <v>7.5</v>
@@ -4678,7 +4678,7 @@
         <v>23</v>
       </c>
       <c r="AZ23" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA23" t="n">
         <v>67</v>
@@ -4725,13 +4725,13 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H24" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I24" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="J24" t="n">
         <v>2.2</v>
@@ -4740,7 +4740,7 @@
         <v>2.2</v>
       </c>
       <c r="L24" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M24" t="n">
         <v>1.06</v>
@@ -4851,7 +4851,7 @@
         <v>67</v>
       </c>
       <c r="AW24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX24" t="n">
         <v>34</v>
@@ -4860,7 +4860,7 @@
         <v>41</v>
       </c>
       <c r="AZ24" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA24" t="n">
         <v>151</v>
@@ -4907,40 +4907,40 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H25" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="I25" t="n">
-        <v>5.75</v>
+        <v>7</v>
       </c>
       <c r="J25" t="n">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="K25" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L25" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N25" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O25" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="P25" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.03</v>
+        <v>1.88</v>
       </c>
       <c r="R25" t="n">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="S25" t="n">
         <v>1.4</v>
@@ -4955,28 +4955,28 @@
         <v>1.67</v>
       </c>
       <c r="W25" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="X25" t="n">
         <v>6</v>
       </c>
-      <c r="X25" t="n">
-        <v>6.5</v>
-      </c>
       <c r="Y25" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AA25" t="n">
         <v>13</v>
       </c>
       <c r="AB25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC25" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AD25" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE25" t="n">
         <v>21</v>
@@ -4988,16 +4988,16 @@
         <v>351</v>
       </c>
       <c r="AH25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI25" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL25" t="n">
         <v>51</v>
@@ -5006,16 +5006,16 @@
         <v>51</v>
       </c>
       <c r="AN25" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO25" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AP25" t="n">
         <v>21</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR25" t="n">
         <v>51</v>
@@ -5033,10 +5033,10 @@
         <v>67</v>
       </c>
       <c r="AW25" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AX25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY25" t="n">
         <v>41</v>
@@ -5045,7 +5045,7 @@
         <v>151</v>
       </c>
       <c r="BA25" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB25" t="n">
         <v>351</v>
@@ -5089,16 +5089,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H26" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I26" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J26" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K26" t="n">
         <v>2.3</v>
@@ -5113,16 +5113,16 @@
         <v>13</v>
       </c>
       <c r="O26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q26" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R26" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S26" t="n">
         <v>1.33</v>
@@ -5131,13 +5131,13 @@
         <v>3.25</v>
       </c>
       <c r="U26" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W26" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="X26" t="n">
         <v>8.5</v>
@@ -5173,7 +5173,7 @@
         <v>13</v>
       </c>
       <c r="AI26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ26" t="n">
         <v>15</v>
@@ -5218,7 +5218,7 @@
         <v>6.5</v>
       </c>
       <c r="AX26" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AY26" t="n">
         <v>29</v>
@@ -5271,16 +5271,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="H27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I27" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J27" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K27" t="n">
         <v>2.5</v>
@@ -5301,10 +5301,10 @@
         <v>4.5</v>
       </c>
       <c r="Q27" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R27" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S27" t="n">
         <v>1.3</v>
@@ -5313,10 +5313,10 @@
         <v>3.4</v>
       </c>
       <c r="U27" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V27" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W27" t="n">
         <v>8</v>
@@ -5352,19 +5352,19 @@
         <v>251</v>
       </c>
       <c r="AH27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI27" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AJ27" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM27" t="n">
         <v>41</v>
@@ -5412,7 +5412,7 @@
         <v>126</v>
       </c>
       <c r="BB27" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC27" t="n">
         <v>81</v>
@@ -5453,22 +5453,22 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H28" t="n">
         <v>4.33</v>
       </c>
       <c r="I28" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J28" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K28" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>1.03</v>
@@ -5504,13 +5504,13 @@
         <v>8</v>
       </c>
       <c r="X28" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Y28" t="n">
         <v>8.5</v>
       </c>
       <c r="Z28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA28" t="n">
         <v>12</v>
@@ -5519,7 +5519,7 @@
         <v>23</v>
       </c>
       <c r="AC28" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD28" t="n">
         <v>8.5</v>
@@ -5531,10 +5531,10 @@
         <v>51</v>
       </c>
       <c r="AG28" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AH28" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
         <v>29</v>
@@ -5561,7 +5561,7 @@
         <v>17</v>
       </c>
       <c r="AQ28" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AR28" t="n">
         <v>41</v>
@@ -5573,13 +5573,13 @@
         <v>3.25</v>
       </c>
       <c r="AU28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AV28" t="n">
         <v>51</v>
       </c>
       <c r="AW28" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX28" t="n">
         <v>29</v>
@@ -5591,7 +5591,7 @@
         <v>101</v>
       </c>
       <c r="BA28" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB28" t="n">
         <v>201</v>
@@ -6171,22 +6171,22 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H32" t="n">
         <v>3.1</v>
       </c>
       <c r="I32" t="n">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="J32" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="K32" t="n">
         <v>2.05</v>
       </c>
       <c r="L32" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M32" t="n">
         <v>1.07</v>
@@ -6201,16 +6201,16 @@
         <v>3</v>
       </c>
       <c r="Q32" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R32" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S32" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T32" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U32" t="n">
         <v>1.95</v>
@@ -6222,19 +6222,19 @@
         <v>6.5</v>
       </c>
       <c r="X32" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Y32" t="n">
         <v>9</v>
       </c>
       <c r="Z32" t="n">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AA32" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB32" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
         <v>8</v>
@@ -6252,28 +6252,28 @@
         <v>351</v>
       </c>
       <c r="AH32" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AI32" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AJ32" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK32" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL32" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM32" t="n">
         <v>41</v>
       </c>
       <c r="AN32" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO32" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AP32" t="n">
         <v>23</v>
@@ -6282,13 +6282,13 @@
         <v>41</v>
       </c>
       <c r="AR32" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS32" t="n">
         <v>201</v>
       </c>
       <c r="AT32" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU32" t="n">
         <v>8.5</v>
@@ -6297,22 +6297,22 @@
         <v>67</v>
       </c>
       <c r="AW32" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AX32" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY32" t="n">
         <v>34</v>
       </c>
       <c r="AZ32" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA32" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB32" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC32" t="n">
         <v>81</v>
@@ -6353,28 +6353,28 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="H33" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I33" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J33" t="n">
         <v>5</v>
       </c>
       <c r="K33" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L33" t="n">
         <v>2.75</v>
       </c>
       <c r="M33" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N33" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O33" t="n">
         <v>1.5</v>
@@ -6401,16 +6401,16 @@
         <v>1.62</v>
       </c>
       <c r="W33" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="Y33" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z33" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA33" t="n">
         <v>41</v>
@@ -6446,7 +6446,7 @@
         <v>17</v>
       </c>
       <c r="AL33" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM33" t="n">
         <v>41</v>
@@ -6482,16 +6482,16 @@
         <v>3.75</v>
       </c>
       <c r="AX33" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY33" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ33" t="n">
         <v>41</v>
       </c>
       <c r="BA33" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB33" t="n">
         <v>251</v>
@@ -6531,22 +6531,22 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.35</v>
+        <v>2.1</v>
       </c>
       <c r="H34" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I34" t="n">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="J34" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="K34" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L34" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M34" t="n">
         <v>1.03</v>
@@ -6567,16 +6567,16 @@
         <v>2.35</v>
       </c>
       <c r="S34" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V34" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W34" t="n">
         <v>11</v>
@@ -6585,13 +6585,13 @@
         <v>13</v>
       </c>
       <c r="Y34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z34" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA34" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB34" t="n">
         <v>21</v>
@@ -6600,10 +6600,10 @@
         <v>17</v>
       </c>
       <c r="AD34" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF34" t="n">
         <v>34</v>
@@ -6612,43 +6612,43 @@
         <v>126</v>
       </c>
       <c r="AH34" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AJ34" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK34" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL34" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM34" t="n">
         <v>23</v>
       </c>
       <c r="AN34" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="AO34" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AP34" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AQ34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR34" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AS34" t="n">
         <v>101</v>
       </c>
       <c r="AT34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU34" t="n">
         <v>7</v>
@@ -6657,7 +6657,7 @@
         <v>41</v>
       </c>
       <c r="AW34" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX34" t="n">
         <v>15</v>
@@ -6666,7 +6666,7 @@
         <v>21</v>
       </c>
       <c r="AZ34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="BA34" t="n">
         <v>51</v>
@@ -6713,28 +6713,28 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="H35" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I35" t="n">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="J35" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="K35" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L35" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M35" t="n">
         <v>1.02</v>
       </c>
       <c r="N35" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O35" t="n">
         <v>1.13</v>
@@ -6743,10 +6743,10 @@
         <v>6</v>
       </c>
       <c r="Q35" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="R35" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="S35" t="n">
         <v>1.25</v>
@@ -6755,37 +6755,37 @@
         <v>3.75</v>
       </c>
       <c r="U35" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V35" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y35" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z35" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA35" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB35" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC35" t="n">
         <v>21</v>
       </c>
       <c r="AD35" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE35" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF35" t="n">
         <v>34</v>
@@ -6794,37 +6794,37 @@
         <v>101</v>
       </c>
       <c r="AH35" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AI35" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AJ35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK35" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL35" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AM35" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN35" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AO35" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP35" t="n">
         <v>15</v>
       </c>
       <c r="AQ35" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AR35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AS35" t="n">
         <v>81</v>
@@ -6833,28 +6833,28 @@
         <v>3.75</v>
       </c>
       <c r="AU35" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AV35" t="n">
         <v>41</v>
       </c>
       <c r="AW35" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX35" t="n">
+        <v>19</v>
+      </c>
+      <c r="AY35" t="n">
         <v>21</v>
       </c>
-      <c r="AY35" t="n">
-        <v>23</v>
-      </c>
       <c r="AZ35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BA35" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB35" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BC35" t="n">
         <v>301</v>
@@ -6895,22 +6895,22 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="H36" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="I36" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J36" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="K36" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="L36" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M36" t="n">
         <v>1.02</v>
@@ -6919,16 +6919,16 @@
         <v>19</v>
       </c>
       <c r="O36" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P36" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q36" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="R36" t="n">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="S36" t="n">
         <v>1.25</v>
@@ -6937,16 +6937,16 @@
         <v>3.75</v>
       </c>
       <c r="U36" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="V36" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="W36" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X36" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y36" t="n">
         <v>8.5</v>
@@ -6973,10 +6973,10 @@
         <v>41</v>
       </c>
       <c r="AG36" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI36" t="n">
         <v>34</v>
@@ -6985,19 +6985,19 @@
         <v>19</v>
       </c>
       <c r="AK36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL36" t="n">
         <v>41</v>
       </c>
       <c r="AM36" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN36" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AO36" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AP36" t="n">
         <v>15</v>
@@ -7027,7 +7027,7 @@
         <v>26</v>
       </c>
       <c r="AY36" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ36" t="n">
         <v>81</v>
@@ -7036,7 +7036,7 @@
         <v>81</v>
       </c>
       <c r="BB36" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC36" t="n">
         <v>351</v>
@@ -7077,46 +7077,46 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="H37" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I37" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J37" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="K37" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="L37" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="M37" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N37" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O37" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P37" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.9</v>
+        <v>1.73</v>
       </c>
       <c r="R37" t="n">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="S37" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="T37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U37" t="n">
         <v>1.73</v>
@@ -7137,16 +7137,16 @@
         <v>15</v>
       </c>
       <c r="AA37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB37" t="n">
         <v>23</v>
       </c>
       <c r="AC37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD37" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE37" t="n">
         <v>15</v>
@@ -7158,7 +7158,7 @@
         <v>201</v>
       </c>
       <c r="AH37" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI37" t="n">
         <v>21</v>
@@ -7170,22 +7170,22 @@
         <v>41</v>
       </c>
       <c r="AL37" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM37" t="n">
         <v>34</v>
       </c>
       <c r="AN37" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO37" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AP37" t="n">
         <v>19</v>
       </c>
       <c r="AQ37" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR37" t="n">
         <v>51</v>
@@ -7194,7 +7194,7 @@
         <v>126</v>
       </c>
       <c r="AT37" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="AU37" t="n">
         <v>8</v>
@@ -7206,13 +7206,13 @@
         <v>6</v>
       </c>
       <c r="AX37" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY37" t="n">
         <v>29</v>
       </c>
       <c r="AZ37" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA37" t="n">
         <v>81</v>
@@ -7259,46 +7259,46 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="H38" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="I38" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="J38" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="K38" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L38" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M38" t="n">
         <v>1.02</v>
       </c>
       <c r="N38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O38" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="P38" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Q38" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="R38" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="S38" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="T38" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="U38" t="n">
         <v>1.44</v>
@@ -7310,46 +7310,46 @@
         <v>12</v>
       </c>
       <c r="X38" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Y38" t="n">
         <v>9</v>
       </c>
       <c r="Z38" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB38" t="n">
         <v>17</v>
       </c>
-      <c r="AA38" t="n">
-        <v>13</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>19</v>
-      </c>
       <c r="AC38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD38" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE38" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF38" t="n">
         <v>29</v>
       </c>
       <c r="AG38" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AH38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AI38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ38" t="n">
         <v>15</v>
       </c>
       <c r="AK38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL38" t="n">
         <v>29</v>
@@ -7361,13 +7361,13 @@
         <v>4.33</v>
       </c>
       <c r="AO38" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP38" t="n">
         <v>15</v>
       </c>
       <c r="AQ38" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AR38" t="n">
         <v>41</v>
@@ -7376,7 +7376,7 @@
         <v>81</v>
       </c>
       <c r="AT38" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AU38" t="n">
         <v>7</v>
@@ -7385,10 +7385,10 @@
         <v>41</v>
       </c>
       <c r="AW38" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX38" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY38" t="n">
         <v>21</v>
@@ -7403,7 +7403,7 @@
         <v>101</v>
       </c>
       <c r="BC38" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BD38" t="n">
         <v>151</v>
@@ -7441,22 +7441,22 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="H39" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I39" t="n">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="J39" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K39" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L39" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="M39" t="n">
         <v>1.03</v>
@@ -7477,10 +7477,10 @@
         <v>2.35</v>
       </c>
       <c r="S39" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U39" t="n">
         <v>1.53</v>
@@ -7489,25 +7489,25 @@
         <v>2.38</v>
       </c>
       <c r="W39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X39" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Y39" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z39" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AA39" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AB39" t="n">
         <v>26</v>
       </c>
       <c r="AC39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD39" t="n">
         <v>7.5</v>
@@ -7516,13 +7516,13 @@
         <v>12</v>
       </c>
       <c r="AF39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AG39" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AH39" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI39" t="n">
         <v>12</v>
@@ -7531,7 +7531,7 @@
         <v>9</v>
       </c>
       <c r="AK39" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AL39" t="n">
         <v>15</v>
@@ -7543,7 +7543,7 @@
         <v>5.5</v>
       </c>
       <c r="AO39" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AP39" t="n">
         <v>21</v>
@@ -7552,13 +7552,13 @@
         <v>51</v>
       </c>
       <c r="AR39" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS39" t="n">
         <v>126</v>
       </c>
       <c r="AT39" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU39" t="n">
         <v>7</v>
@@ -7567,19 +7567,19 @@
         <v>41</v>
       </c>
       <c r="AW39" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AX39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY39" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AZ39" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA39" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="BB39" t="n">
         <v>101</v>
@@ -7623,19 +7623,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H40" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I40" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K40" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="L40" t="n">
         <v>3</v>
@@ -7644,34 +7644,34 @@
         <v>1.03</v>
       </c>
       <c r="N40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O40" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P40" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q40" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="R40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="T40" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U40" t="n">
         <v>1.53</v>
       </c>
-      <c r="R40" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S40" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="T40" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="U40" t="n">
-        <v>1.5</v>
-      </c>
       <c r="V40" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="X40" t="n">
         <v>15</v>
@@ -7683,52 +7683,52 @@
         <v>26</v>
       </c>
       <c r="AA40" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC40" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD40" t="n">
         <v>7.5</v>
       </c>
       <c r="AE40" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>126</v>
+      </c>
+      <c r="AH40" t="n">
         <v>11</v>
       </c>
-      <c r="AF40" t="n">
-        <v>34</v>
-      </c>
-      <c r="AG40" t="n">
-        <v>101</v>
-      </c>
-      <c r="AH40" t="n">
+      <c r="AI40" t="n">
         <v>13</v>
       </c>
-      <c r="AI40" t="n">
-        <v>15</v>
-      </c>
       <c r="AJ40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL40" t="n">
         <v>17</v>
       </c>
       <c r="AM40" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN40" t="n">
         <v>5</v>
       </c>
       <c r="AO40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AP40" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AQ40" t="n">
         <v>41</v>
@@ -7737,10 +7737,10 @@
         <v>51</v>
       </c>
       <c r="AS40" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AT40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AU40" t="n">
         <v>7</v>
@@ -7749,7 +7749,7 @@
         <v>41</v>
       </c>
       <c r="AW40" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AX40" t="n">
         <v>13</v>
@@ -7767,7 +7767,7 @@
         <v>101</v>
       </c>
       <c r="BC40" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BD40" t="n">
         <v>151</v>
@@ -7805,40 +7805,40 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H41" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I41" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="J41" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K41" t="n">
         <v>2.5</v>
       </c>
       <c r="L41" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M41" t="n">
         <v>1.02</v>
       </c>
       <c r="N41" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O41" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P41" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
       <c r="R41" t="n">
-        <v>2.88</v>
+        <v>2.6</v>
       </c>
       <c r="S41" t="n">
         <v>1.25</v>
@@ -7847,73 +7847,73 @@
         <v>3.75</v>
       </c>
       <c r="U41" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V41" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="X41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="Y41" t="n">
         <v>9</v>
       </c>
       <c r="Z41" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA41" t="n">
         <v>13</v>
       </c>
       <c r="AB41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC41" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AD41" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AE41" t="n">
         <v>12</v>
       </c>
       <c r="AF41" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AG41" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AH41" t="n">
         <v>17</v>
       </c>
       <c r="AI41" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK41" t="n">
         <v>41</v>
       </c>
       <c r="AL41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN41" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO41" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP41" t="n">
         <v>15</v>
       </c>
       <c r="AQ41" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR41" t="n">
         <v>41</v>
@@ -7934,22 +7934,22 @@
         <v>6</v>
       </c>
       <c r="AX41" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AY41" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ41" t="n">
         <v>51</v>
       </c>
       <c r="BA41" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB41" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BC41" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BD41" t="n">
         <v>151</v>
@@ -7987,10 +7987,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.53</v>
+        <v>1.55</v>
       </c>
       <c r="H42" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I42" t="n">
         <v>5.25</v>
@@ -8011,31 +8011,31 @@
         <v>17</v>
       </c>
       <c r="O42" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P42" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R42" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="S42" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="T42" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="U42" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="V42" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W42" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X42" t="n">
         <v>9</v>
@@ -8047,16 +8047,16 @@
         <v>12</v>
       </c>
       <c r="AA42" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB42" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD42" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE42" t="n">
         <v>15</v>
@@ -8065,13 +8065,13 @@
         <v>41</v>
       </c>
       <c r="AG42" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AH42" t="n">
         <v>19</v>
       </c>
       <c r="AI42" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AJ42" t="n">
         <v>17</v>
@@ -8083,7 +8083,7 @@
         <v>41</v>
       </c>
       <c r="AM42" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN42" t="n">
         <v>3.75</v>
@@ -8101,13 +8101,13 @@
         <v>41</v>
       </c>
       <c r="AS42" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AT42" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="AU42" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AV42" t="n">
         <v>41</v>
@@ -8119,7 +8119,7 @@
         <v>26</v>
       </c>
       <c r="AY42" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ42" t="n">
         <v>81</v>
@@ -8169,22 +8169,22 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="H43" t="n">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="I43" t="n">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="J43" t="n">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="K43" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="L43" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
         <v>1.03</v>
@@ -8193,22 +8193,22 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P43" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="R43" t="n">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="S43" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="T43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="U43" t="n">
         <v>1.62</v>
@@ -8220,16 +8220,16 @@
         <v>9</v>
       </c>
       <c r="X43" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y43" t="n">
         <v>8.5</v>
       </c>
       <c r="Z43" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA43" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB43" t="n">
         <v>21</v>
@@ -8238,10 +8238,10 @@
         <v>15</v>
       </c>
       <c r="AD43" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE43" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF43" t="n">
         <v>41</v>
@@ -8250,16 +8250,16 @@
         <v>151</v>
       </c>
       <c r="AH43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AI43" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ43" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK43" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL43" t="n">
         <v>34</v>
@@ -8268,16 +8268,16 @@
         <v>34</v>
       </c>
       <c r="AN43" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AO43" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AP43" t="n">
         <v>17</v>
       </c>
       <c r="AQ43" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AR43" t="n">
         <v>41</v>
@@ -8286,7 +8286,7 @@
         <v>101</v>
       </c>
       <c r="AT43" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AU43" t="n">
         <v>7.5</v>
@@ -8295,16 +8295,16 @@
         <v>41</v>
       </c>
       <c r="AW43" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX43" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AY43" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ43" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA43" t="n">
         <v>81</v>
@@ -8351,16 +8351,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H44" t="n">
         <v>3</v>
       </c>
       <c r="I44" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J44" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K44" t="n">
         <v>2</v>
@@ -8375,10 +8375,10 @@
         <v>7</v>
       </c>
       <c r="O44" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P44" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
         <v>2.25</v>
@@ -8417,7 +8417,7 @@
         <v>34</v>
       </c>
       <c r="AC44" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD44" t="n">
         <v>6</v>
@@ -8486,13 +8486,13 @@
         <v>29</v>
       </c>
       <c r="AZ44" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BA44" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB44" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC44" t="n">
         <v>81</v>
@@ -8533,58 +8533,58 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H45" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="I45" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J45" t="n">
         <v>2.2</v>
       </c>
       <c r="K45" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="L45" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M45" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="R45" t="n">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="S45" t="n">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="T45" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="U45" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="V45" t="n">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="W45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X45" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Y45" t="n">
         <v>8.5</v>
@@ -8593,88 +8593,88 @@
         <v>11</v>
       </c>
       <c r="AA45" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>301</v>
+      </c>
+      <c r="AH45" t="n">
         <v>15</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD45" t="n">
-        <v>7</v>
-      </c>
-      <c r="AE45" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF45" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG45" t="n">
-        <v>351</v>
-      </c>
-      <c r="AH45" t="n">
-        <v>13</v>
       </c>
       <c r="AI45" t="n">
         <v>29</v>
       </c>
       <c r="AJ45" t="n">
+        <v>17</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>51</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>8</v>
+      </c>
+      <c r="AP45" t="n">
         <v>19</v>
       </c>
-      <c r="AK45" t="n">
-        <v>67</v>
-      </c>
-      <c r="AL45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM45" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN45" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="AO45" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AP45" t="n">
-        <v>23</v>
-      </c>
       <c r="AQ45" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR45" t="n">
         <v>51</v>
       </c>
       <c r="AS45" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT45" t="n">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU45" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AV45" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW45" t="n">
         <v>7</v>
       </c>
       <c r="AX45" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY45" t="n">
         <v>34</v>
       </c>
-      <c r="AY45" t="n">
-        <v>41</v>
-      </c>
       <c r="AZ45" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA45" t="n">
         <v>126</v>
       </c>
-      <c r="BA45" t="n">
-        <v>151</v>
-      </c>
       <c r="BB45" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="BC45" t="n">
         <v>81</v>
@@ -8715,22 +8715,22 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2.72</v>
+        <v>2.62</v>
       </c>
       <c r="H46" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="I46" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="J46" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="K46" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L46" t="n">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="M46" t="n">
         <v>1.05</v>
@@ -8739,46 +8739,46 @@
         <v>8</v>
       </c>
       <c r="O46" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P46" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R46" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S46" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="T46" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="U46" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="V46" t="n">
         <v>2.18</v>
       </c>
       <c r="W46" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="X46" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y46" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="Z46" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AA46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AB46" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AC46" t="n">
         <v>8</v>
@@ -8793,58 +8793,58 @@
         <v>50</v>
       </c>
       <c r="AG46" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="AH46" t="n">
         <v>9.5</v>
       </c>
       <c r="AI46" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AJ46" t="n">
         <v>9.25</v>
       </c>
       <c r="AK46" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL46" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="AM46" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AN46" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AO46" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AP46" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AQ46" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AR46" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS46" t="n">
         <v>250</v>
       </c>
       <c r="AT46" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="AU46" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV46" t="n">
         <v>55</v>
       </c>
       <c r="AW46" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AX46" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AY46" t="n">
         <v>19</v>
@@ -8856,7 +8856,7 @@
         <v>75</v>
       </c>
       <c r="BB46" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC46" t="inlineStr"/>
       <c r="BD46" t="inlineStr"/>
@@ -8893,55 +8893,55 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="H47" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="I47" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="J47" t="n">
-        <v>2.42</v>
+        <v>2.57</v>
       </c>
       <c r="K47" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="L47" t="n">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N47" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="O47" t="n">
-        <v>1.23</v>
+        <v>1.28</v>
       </c>
       <c r="P47" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="Q47" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R47" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="T47" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U47" t="n">
         <v>1.7</v>
       </c>
-      <c r="R47" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="S47" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="T47" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.62</v>
-      </c>
       <c r="V47" t="n">
-        <v>2.15</v>
+        <v>2.02</v>
       </c>
       <c r="W47" t="n">
-        <v>8.25</v>
+        <v>7.5</v>
       </c>
       <c r="X47" t="n">
         <v>9.5</v>
@@ -8950,82 +8950,82 @@
         <v>8.25</v>
       </c>
       <c r="Z47" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AA47" t="n">
+        <v>15</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>25</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AE47" t="n">
         <v>13.5</v>
       </c>
-      <c r="AB47" t="n">
-        <v>22</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AD47" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AE47" t="n">
-        <v>13</v>
-      </c>
       <c r="AF47" t="n">
+        <v>60</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>400</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK47" t="n">
         <v>50</v>
       </c>
-      <c r="AG47" t="n">
-        <v>300</v>
-      </c>
-      <c r="AH47" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AI47" t="n">
-        <v>24</v>
-      </c>
-      <c r="AJ47" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AK47" t="n">
-        <v>60</v>
-      </c>
       <c r="AL47" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AM47" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AN47" t="n">
         <v>3.85</v>
       </c>
       <c r="AO47" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AP47" t="n">
-        <v>16.5</v>
+        <v>19</v>
       </c>
       <c r="AQ47" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AR47" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AS47" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AT47" t="n">
-        <v>2.95</v>
+        <v>2.72</v>
       </c>
       <c r="AU47" t="n">
-        <v>6.8</v>
+        <v>7.1</v>
       </c>
       <c r="AV47" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AW47" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AX47" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY47" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AZ47" t="n">
         <v>100</v>
@@ -9034,7 +9034,7 @@
         <v>120</v>
       </c>
       <c r="BB47" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC47" t="inlineStr"/>
       <c r="BD47" t="inlineStr"/>
@@ -9071,22 +9071,22 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="H48" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I48" t="n">
-        <v>2.32</v>
+        <v>2.22</v>
       </c>
       <c r="J48" t="n">
-        <v>3</v>
+        <v>3.15</v>
       </c>
       <c r="K48" t="n">
         <v>2.37</v>
       </c>
       <c r="L48" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="M48" t="n">
         <v>1.03</v>
@@ -9113,70 +9113,70 @@
         <v>3.45</v>
       </c>
       <c r="U48" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V48" t="n">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="W48" t="n">
         <v>14.5</v>
       </c>
       <c r="X48" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y48" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="Z48" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AA48" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AB48" t="n">
-        <v>19.5</v>
+        <v>21</v>
       </c>
       <c r="AC48" t="n">
         <v>9.5</v>
       </c>
       <c r="AD48" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="AE48" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AF48" t="n">
         <v>32</v>
       </c>
       <c r="AG48" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AH48" t="n">
         <v>12.5</v>
       </c>
       <c r="AI48" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ48" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK48" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AL48" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AM48" t="n">
         <v>19</v>
       </c>
       <c r="AN48" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="AO48" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP48" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AQ48" t="n">
         <v>50</v>
@@ -9197,22 +9197,22 @@
         <v>37</v>
       </c>
       <c r="AW48" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="AX48" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AY48" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AZ48" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BA48" t="n">
         <v>55</v>
       </c>
       <c r="BB48" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="BC48" t="n">
         <v>450</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="H2" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="J2" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="K2" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L2" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M2" t="n">
         <v>1.04</v>
@@ -771,16 +771,16 @@
         <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P2" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="R2" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S2" t="n">
         <v>1.33</v>
@@ -789,22 +789,22 @@
         <v>3.25</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V2" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="W2" t="n">
         <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>8.5</v>
       </c>
       <c r="Z2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA2" t="n">
         <v>12</v>
@@ -813,31 +813,31 @@
         <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD2" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>51</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>351</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>21</v>
       </c>
-      <c r="AF2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>401</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>23</v>
-      </c>
       <c r="AK2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,37 +846,37 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AP2" t="n">
         <v>19</v>
       </c>
       <c r="AQ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AR2" t="n">
         <v>41</v>
       </c>
       <c r="AS2" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AT2" t="n">
         <v>3.25</v>
       </c>
       <c r="AU2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AW2" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -888,7 +888,7 @@
         <v>151</v>
       </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC2" t="n">
         <v>151</v>
@@ -953,16 +953,16 @@
         <v>11</v>
       </c>
       <c r="O3" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P3" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="R3" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="S3" t="n">
         <v>1.4</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="H4" t="n">
         <v>2.88</v>
       </c>
       <c r="I4" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J4" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K4" t="n">
         <v>1.83</v>
@@ -1162,7 +1162,7 @@
         <v>6</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y4" t="n">
         <v>11</v>
@@ -1171,7 +1171,7 @@
         <v>26</v>
       </c>
       <c r="AA4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
@@ -1190,7 +1190,7 @@
       </c>
       <c r="AG4" t="inlineStr"/>
       <c r="AH4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI4" t="n">
         <v>13</v>
@@ -1235,13 +1235,13 @@
         <v>81</v>
       </c>
       <c r="AW4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AY4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ4" t="n">
         <v>67</v>
@@ -1473,22 +1473,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="n">
         <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="J6" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
         <v>1.95</v>
       </c>
       <c r="L6" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.1</v>
@@ -1497,16 +1497,16 @@
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1521,10 +1521,10 @@
         <v>1.75</v>
       </c>
       <c r="W6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Y6" t="n">
         <v>12</v>
@@ -1539,7 +1539,7 @@
         <v>41</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6</v>
@@ -1557,7 +1557,7 @@
         <v>6.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="n">
         <v>10</v>
@@ -1566,13 +1566,13 @@
         <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AO6" t="n">
         <v>19</v>
@@ -1587,13 +1587,13 @@
         <v>101</v>
       </c>
       <c r="AS6" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT6" t="n">
         <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
@@ -1605,7 +1605,7 @@
         <v>15</v>
       </c>
       <c r="AY6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
         <v>51</v>
@@ -1620,7 +1620,7 @@
         <v>126</v>
       </c>
       <c r="BD6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7">
@@ -1655,22 +1655,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H7" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I7" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="J7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1697,10 +1697,10 @@
         <v>2.25</v>
       </c>
       <c r="U7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="W7" t="n">
         <v>11</v>
@@ -1715,7 +1715,7 @@
         <v>81</v>
       </c>
       <c r="AA7" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AB7" t="n">
         <v>67</v>
@@ -1730,7 +1730,7 @@
         <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AG7" t="inlineStr"/>
       <c r="AH7" t="n">
@@ -1752,7 +1752,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AO7" t="n">
         <v>41</v>
@@ -1764,7 +1764,7 @@
         <v>201</v>
       </c>
       <c r="AR7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AS7" t="n">
         <v>501</v>
@@ -1776,7 +1776,7 @@
         <v>11</v>
       </c>
       <c r="AV7" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
         <v>3.25</v>
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K8" t="n">
         <v>1.95</v>
@@ -1892,7 +1892,7 @@
         <v>10</v>
       </c>
       <c r="Z8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA8" t="n">
         <v>23</v>
@@ -1925,7 +1925,7 @@
         <v>12</v>
       </c>
       <c r="AK8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
         <v>29</v>
@@ -1961,7 +1961,7 @@
         <v>67</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AX8" t="n">
         <v>19</v>
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H9" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
       </c>
       <c r="K9" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
         <v>1.62</v>
@@ -2068,7 +2068,7 @@
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
@@ -2099,7 +2099,7 @@
         <v>6.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
@@ -2117,7 +2117,7 @@
         <v>4.33</v>
       </c>
       <c r="AO9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>34</v>
@@ -2153,7 +2153,7 @@
         <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB9" t="n">
         <v>451</v>
@@ -2197,22 +2197,22 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H10" t="n">
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K10" t="n">
         <v>1.91</v>
       </c>
       <c r="L10" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M10" t="n">
         <v>1.11</v>
@@ -2221,34 +2221,34 @@
         <v>6.5</v>
       </c>
       <c r="O10" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P10" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R10" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.62</v>
       </c>
-      <c r="T10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.57</v>
-      </c>
       <c r="W10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y10" t="n">
         <v>9.5</v>
@@ -2269,20 +2269,20 @@
         <v>6</v>
       </c>
       <c r="AE10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
         <v>81</v>
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI10" t="n">
         <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK10" t="n">
         <v>51</v>
@@ -2297,7 +2297,7 @@
         <v>3.75</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP10" t="n">
         <v>29</v>
@@ -2312,10 +2312,10 @@
         <v>301</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AU10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV10" t="n">
         <v>81</v>
@@ -2324,7 +2324,7 @@
         <v>6</v>
       </c>
       <c r="AX10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY10" t="n">
         <v>41</v>
@@ -2336,7 +2336,7 @@
         <v>151</v>
       </c>
       <c r="BB10" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -2559,40 +2559,40 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="R12" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="S12" t="n">
         <v>1.4</v>
@@ -2607,7 +2607,7 @@
         <v>2</v>
       </c>
       <c r="W12" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="X12" t="n">
         <v>12</v>
@@ -2655,10 +2655,10 @@
         <v>23</v>
       </c>
       <c r="AM12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="AO12" t="n">
         <v>13</v>
@@ -2691,13 +2691,13 @@
         <v>17</v>
       </c>
       <c r="AY12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
         <v>51</v>
       </c>
       <c r="BA12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
         <v>151</v>
@@ -3105,46 +3105,46 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K15" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
         <v>2.88</v>
       </c>
       <c r="M15" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P15" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="R15" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S15" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="T15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U15" t="n">
         <v>1.73</v>
@@ -3156,16 +3156,16 @@
         <v>10</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Y15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z15" t="n">
         <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB15" t="n">
         <v>34</v>
@@ -3177,10 +3177,10 @@
         <v>6.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF15" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG15" t="n">
         <v>201</v>
@@ -3192,13 +3192,13 @@
         <v>11</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK15" t="n">
         <v>21</v>
       </c>
       <c r="AL15" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM15" t="n">
         <v>26</v>
@@ -3210,28 +3210,28 @@
         <v>17</v>
       </c>
       <c r="AP15" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ15" t="n">
         <v>51</v>
       </c>
       <c r="AR15" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS15" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="AU15" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AV15" t="n">
         <v>51</v>
       </c>
       <c r="AW15" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="AX15" t="n">
         <v>12</v>
@@ -3246,7 +3246,7 @@
         <v>51</v>
       </c>
       <c r="BB15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BC15" t="inlineStr"/>
       <c r="BD15" t="inlineStr"/>
@@ -3295,7 +3295,7 @@
         <v>1.4</v>
       </c>
       <c r="K16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
         <v>12</v>
@@ -3307,10 +3307,10 @@
         <v>29</v>
       </c>
       <c r="O16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="P16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q16" t="n">
         <v>1.25</v>
@@ -3325,43 +3325,43 @@
         <v>5</v>
       </c>
       <c r="U16" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="V16" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="W16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X16" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y16" t="n">
         <v>12</v>
       </c>
       <c r="Z16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA16" t="n">
         <v>11</v>
       </c>
       <c r="AB16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC16" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD16" t="n">
         <v>19</v>
       </c>
       <c r="AE16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AF16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH16" t="n">
         <v>41</v>
@@ -3373,16 +3373,16 @@
         <v>41</v>
       </c>
       <c r="AK16" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AL16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AM16" t="n">
         <v>67</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AO16" t="n">
         <v>4.75</v>
@@ -3394,10 +3394,10 @@
         <v>9</v>
       </c>
       <c r="AR16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AS16" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT16" t="n">
         <v>5</v>
@@ -3415,16 +3415,16 @@
         <v>51</v>
       </c>
       <c r="AY16" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BA16" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BB16" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
@@ -3485,16 +3485,16 @@
         <v>19</v>
       </c>
       <c r="O17" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P17" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R17" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S17" t="n">
         <v>1.22</v>
@@ -4006,7 +4006,7 @@
         <v>4</v>
       </c>
       <c r="J20" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K20" t="n">
         <v>2.05</v>
@@ -4015,16 +4015,16 @@
         <v>4.5</v>
       </c>
       <c r="M20" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O20" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P20" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q20" t="n">
         <v>2.2</v>
@@ -4033,16 +4033,16 @@
         <v>1.67</v>
       </c>
       <c r="S20" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U20" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W20" t="n">
         <v>6.5</v>
@@ -4060,13 +4060,13 @@
         <v>17</v>
       </c>
       <c r="AB20" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC20" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD20" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE20" t="n">
         <v>17</v>
@@ -4075,7 +4075,7 @@
         <v>51</v>
       </c>
       <c r="AG20" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AH20" t="n">
         <v>10</v>
@@ -4084,7 +4084,7 @@
         <v>19</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK20" t="n">
         <v>41</v>
@@ -4114,7 +4114,7 @@
         <v>201</v>
       </c>
       <c r="AT20" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU20" t="n">
         <v>8.5</v>
@@ -4135,13 +4135,13 @@
         <v>81</v>
       </c>
       <c r="BA20" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB20" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="BC20" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BD20" t="n">
         <v>151</v>
@@ -8381,10 +8381,10 @@
         <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R44" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S44" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
@@ -1655,10 +1655,10 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="H7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I7" t="n">
         <v>1.62</v>
@@ -1673,28 +1673,28 @@
         <v>2.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U7" t="n">
         <v>2.5</v>
@@ -1712,7 +1712,7 @@
         <v>21</v>
       </c>
       <c r="Z7" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AA7" t="n">
         <v>51</v>
@@ -1721,7 +1721,7 @@
         <v>67</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>7.5</v>
@@ -1761,7 +1761,7 @@
         <v>51</v>
       </c>
       <c r="AQ7" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AR7" t="n">
         <v>251</v>
@@ -1770,10 +1770,10 @@
         <v>501</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV7" t="n">
         <v>81</v>
@@ -1794,13 +1794,13 @@
         <v>67</v>
       </c>
       <c r="BB7" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC7" t="n">
         <v>126</v>
       </c>
       <c r="BD7" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
@@ -1835,22 +1835,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K8" t="n">
         <v>1.95</v>
       </c>
       <c r="L8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M8" t="n">
         <v>1.1</v>
@@ -1886,7 +1886,7 @@
         <v>6.5</v>
       </c>
       <c r="X8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Y8" t="n">
         <v>10</v>
@@ -1919,7 +1919,7 @@
         <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
         <v>12</v>
@@ -2017,28 +2017,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
         <v>1.83</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N9" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.62</v>
@@ -2068,13 +2068,13 @@
         <v>5.5</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
         <v>26</v>
@@ -2096,25 +2096,25 @@
       </c>
       <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AI9" t="n">
         <v>15</v>
       </c>
       <c r="AJ9" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
         <v>51</v>
       </c>
       <c r="AN9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AO9" t="n">
         <v>15</v>
@@ -2141,10 +2141,10 @@
         <v>81</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
         <v>41</v>
@@ -2156,7 +2156,7 @@
         <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2203,13 +2203,13 @@
         <v>3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J10" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L10" t="n">
         <v>5</v>
@@ -2227,10 +2227,10 @@
         <v>2.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R10" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S10" t="n">
         <v>1.57</v>
@@ -2257,13 +2257,13 @@
         <v>17</v>
       </c>
       <c r="AA10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB10" t="n">
         <v>41</v>
       </c>
       <c r="AC10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
@@ -2321,7 +2321,7 @@
         <v>81</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AX10" t="n">
         <v>26</v>
@@ -3105,22 +3105,22 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="J15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K15" t="n">
         <v>2.2</v>
       </c>
       <c r="L15" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -3135,10 +3135,10 @@
         <v>3.5</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R15" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S15" t="n">
         <v>1.36</v>
@@ -3162,16 +3162,16 @@
         <v>11</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AA15" t="n">
         <v>23</v>
       </c>
       <c r="AB15" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>6.5</v>
@@ -3186,16 +3186,16 @@
         <v>201</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AJ15" t="n">
         <v>9.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
         <v>19</v>
@@ -3207,7 +3207,7 @@
         <v>5</v>
       </c>
       <c r="AO15" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP15" t="n">
         <v>23</v>
@@ -3234,7 +3234,7 @@
         <v>4.5</v>
       </c>
       <c r="AX15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY15" t="n">
         <v>21</v>
@@ -3283,22 +3283,22 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="H16" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="I16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="L16" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="M16" t="n">
         <v>1.01</v>
@@ -3307,16 +3307,16 @@
         <v>29</v>
       </c>
       <c r="O16" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="P16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="R16" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="S16" t="n">
         <v>1.17</v>
@@ -3325,10 +3325,10 @@
         <v>5</v>
       </c>
       <c r="U16" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="V16" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="W16" t="n">
         <v>13</v>
@@ -3337,28 +3337,28 @@
         <v>8.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z16" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB16" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE16" t="n">
         <v>26</v>
       </c>
-      <c r="AC16" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>19</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>29</v>
-      </c>
       <c r="AF16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AG16" t="n">
         <v>251</v>
@@ -3367,31 +3367,31 @@
         <v>41</v>
       </c>
       <c r="AI16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AJ16" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK16" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AL16" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AM16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AP16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR16" t="n">
         <v>26</v>
@@ -3403,13 +3403,13 @@
         <v>5</v>
       </c>
       <c r="AU16" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AV16" t="n">
         <v>51</v>
       </c>
       <c r="AW16" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AX16" t="n">
         <v>51</v>
@@ -3418,13 +3418,13 @@
         <v>41</v>
       </c>
       <c r="AZ16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BA16" t="n">
         <v>201</v>
       </c>
       <c r="BB16" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="BC16" t="inlineStr"/>
       <c r="BD16" t="inlineStr"/>
@@ -3461,13 +3461,13 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H17" t="n">
         <v>5.75</v>
       </c>
       <c r="I17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J17" t="n">
         <v>1.67</v>
@@ -3485,16 +3485,16 @@
         <v>19</v>
       </c>
       <c r="O17" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P17" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R17" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S17" t="n">
         <v>1.22</v>
@@ -3509,13 +3509,13 @@
         <v>1.91</v>
       </c>
       <c r="W17" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="X17" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Y17" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z17" t="n">
         <v>8.5</v>
@@ -3524,16 +3524,16 @@
         <v>10</v>
       </c>
       <c r="AB17" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC17" t="n">
         <v>19</v>
       </c>
       <c r="AD17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF17" t="n">
         <v>51</v>
@@ -3542,7 +3542,7 @@
         <v>201</v>
       </c>
       <c r="AH17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AI17" t="n">
         <v>51</v>
@@ -3563,7 +3563,7 @@
         <v>3.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AP17" t="n">
         <v>15</v>
@@ -3575,7 +3575,7 @@
         <v>34</v>
       </c>
       <c r="AS17" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AT17" t="n">
         <v>4</v>
@@ -3593,16 +3593,16 @@
         <v>41</v>
       </c>
       <c r="AY17" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ17" t="n">
         <v>151</v>
       </c>
       <c r="BA17" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB17" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC17" t="inlineStr"/>
       <c r="BD17" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-12-13.xlsx
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.2</v>
@@ -2035,10 +2035,10 @@
         <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N9" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O9" t="n">
         <v>1.62</v>
@@ -2047,10 +2047,10 @@
         <v>2.2</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S9" t="n">
         <v>1.67</v>
@@ -2071,13 +2071,13 @@
         <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AB9" t="n">
         <v>41</v>
@@ -2129,7 +2129,7 @@
         <v>101</v>
       </c>
       <c r="AS9" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AT9" t="n">
         <v>2.1</v>
@@ -2156,7 +2156,7 @@
         <v>151</v>
       </c>
       <c r="BB9" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC9" t="n">
         <v>126</v>
@@ -2197,61 +2197,61 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I10" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J10" t="n">
         <v>2.75</v>
       </c>
       <c r="K10" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M10" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R10" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S10" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U10" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="W10" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
         <v>17</v>
@@ -2260,38 +2260,40 @@
         <v>19</v>
       </c>
       <c r="AB10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
         <v>6</v>
       </c>
       <c r="AE10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>67</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>501</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AI10" t="n">
         <v>19</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>81</v>
-      </c>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="n">
-        <v>9</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>21</v>
       </c>
       <c r="AJ10" t="n">
         <v>15</v>
       </c>
       <c r="AK10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
         <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
         <v>3.75</v>
@@ -2300,43 +2302,43 @@
         <v>12</v>
       </c>
       <c r="AP10" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ10" t="n">
         <v>41</v>
       </c>
       <c r="AR10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU10" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW10" t="n">
         <v>5.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AY10" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ10" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BA10" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC10" t="n">
         <v>126</v>
@@ -3461,64 +3463,64 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="H17" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I17" t="n">
         <v>10</v>
       </c>
       <c r="J17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3</v>
+      </c>
+      <c r="L17" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N17" t="n">
+        <v>23</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="P17" t="n">
+        <v>7</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="T17" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U17" t="n">
         <v>1.67</v>
       </c>
-      <c r="K17" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="L17" t="n">
-        <v>8</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N17" t="n">
-        <v>19</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="P17" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="R17" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="S17" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="T17" t="n">
-        <v>4</v>
-      </c>
-      <c r="U17" t="n">
-        <v>1.8</v>
-      </c>
       <c r="V17" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="W17" t="n">
+        <v>11</v>
+      </c>
+      <c r="X17" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Y17" t="n">
         <v>9.5</v>
       </c>
-      <c r="X17" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y17" t="n">
+      <c r="Z17" t="n">
         <v>9</v>
-      </c>
-      <c r="Z17" t="n">
-        <v>8.5</v>
       </c>
       <c r="AA17" t="n">
         <v>10</v>
@@ -3527,19 +3529,19 @@
         <v>21</v>
       </c>
       <c r="AC17" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE17" t="n">
         <v>19</v>
       </c>
       <c r="AF17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG17" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AH17" t="n">
         <v>34</v>
@@ -3554,37 +3556,37 @@
         <v>126</v>
       </c>
       <c r="AL17" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM17" t="n">
         <v>51</v>
       </c>
       <c r="AN17" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO17" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AP17" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AQ17" t="n">
         <v>13</v>
       </c>
       <c r="AR17" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AS17" t="n">
         <v>81</v>
       </c>
       <c r="AT17" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV17" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AW17" t="n">
         <v>10</v>
